--- a/trunk/sample/【単体テスト】01_ユーザ管理.xlsx
+++ b/trunk/sample/【単体テスト】01_ユーザ管理.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3FCABAAE-8A9C-4B21-9566-8AA221F0917E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E507FAC2-45CC-4BC5-AB5E-5E39F62F4F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="19230" windowHeight="22650" tabRatio="857" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="6240" windowWidth="19290" windowHeight="29640" tabRatio="857" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="351">
   <si>
     <t>ﾄﾗﾝｽｺｽﾓｽ検査</t>
     <rPh sb="8" eb="10">
@@ -1742,6 +1742,10 @@
     </rPh>
     <phoneticPr fontId="37"/>
   </si>
+  <si>
+    <t>after_or_equal</t>
+    <phoneticPr fontId="37"/>
+  </si>
 </sst>
 </file>
 
@@ -2426,7 +2430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2582,6 +2586,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4549,7 +4559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -5004,6 +5014,55 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="65" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="66" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="69" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5061,32 +5120,44 @@
     <xf numFmtId="31" fontId="9" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="37" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="30" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="38" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="41" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="2" borderId="34" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5103,87 +5174,38 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="76" fillId="2" borderId="23" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="41" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="37" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="30" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="38" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="65" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="66" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="69" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="87" fillId="31" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="253">
@@ -5789,40 +5811,40 @@
     <row r="1" spans="1:52">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="174"/>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="174"/>
-      <c r="AJ1" s="174"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="193"/>
+      <c r="T1" s="193"/>
+      <c r="U1" s="193"/>
+      <c r="V1" s="193"/>
+      <c r="W1" s="193"/>
+      <c r="X1" s="193"/>
+      <c r="Y1" s="193"/>
+      <c r="Z1" s="193"/>
+      <c r="AA1" s="193"/>
+      <c r="AB1" s="193"/>
+      <c r="AC1" s="193"/>
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="193"/>
+      <c r="AG1" s="193"/>
+      <c r="AH1" s="193"/>
+      <c r="AI1" s="193"/>
+      <c r="AJ1" s="193"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
@@ -5843,40 +5865,40 @@
     <row r="2" spans="1:52">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="174"/>
-      <c r="AD2" s="174"/>
-      <c r="AE2" s="174"/>
-      <c r="AF2" s="174"/>
-      <c r="AG2" s="174"/>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="174"/>
-      <c r="AJ2" s="174"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="193"/>
+      <c r="AC2" s="193"/>
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="193"/>
+      <c r="AG2" s="193"/>
+      <c r="AH2" s="193"/>
+      <c r="AI2" s="193"/>
+      <c r="AJ2" s="193"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
@@ -5949,53 +5971,53 @@
       <c r="AZ3" s="5"/>
     </row>
     <row r="4" spans="1:52">
-      <c r="A4" s="175"/>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="175"/>
-      <c r="M4" s="175"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="175"/>
-      <c r="P4" s="175"/>
-      <c r="Q4" s="175"/>
-      <c r="R4" s="175"/>
-      <c r="S4" s="175"/>
-      <c r="T4" s="175"/>
-      <c r="U4" s="175"/>
-      <c r="V4" s="175"/>
-      <c r="W4" s="175"/>
-      <c r="X4" s="175"/>
-      <c r="Y4" s="175"/>
-      <c r="Z4" s="175"/>
-      <c r="AA4" s="175"/>
-      <c r="AB4" s="175"/>
-      <c r="AC4" s="175"/>
-      <c r="AD4" s="175"/>
-      <c r="AE4" s="175"/>
-      <c r="AF4" s="175"/>
-      <c r="AG4" s="175"/>
-      <c r="AH4" s="175"/>
-      <c r="AI4" s="175"/>
-      <c r="AJ4" s="175"/>
-      <c r="AK4" s="175"/>
-      <c r="AL4" s="175"/>
-      <c r="AM4" s="175"/>
-      <c r="AN4" s="175"/>
-      <c r="AO4" s="175"/>
-      <c r="AP4" s="175"/>
-      <c r="AQ4" s="175"/>
-      <c r="AR4" s="175"/>
-      <c r="AS4" s="175"/>
-      <c r="AT4" s="175"/>
-      <c r="AU4" s="175"/>
+      <c r="A4" s="194"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="194"/>
+      <c r="M4" s="194"/>
+      <c r="N4" s="194"/>
+      <c r="O4" s="194"/>
+      <c r="P4" s="194"/>
+      <c r="Q4" s="194"/>
+      <c r="R4" s="194"/>
+      <c r="S4" s="194"/>
+      <c r="T4" s="194"/>
+      <c r="U4" s="194"/>
+      <c r="V4" s="194"/>
+      <c r="W4" s="194"/>
+      <c r="X4" s="194"/>
+      <c r="Y4" s="194"/>
+      <c r="Z4" s="194"/>
+      <c r="AA4" s="194"/>
+      <c r="AB4" s="194"/>
+      <c r="AC4" s="194"/>
+      <c r="AD4" s="194"/>
+      <c r="AE4" s="194"/>
+      <c r="AF4" s="194"/>
+      <c r="AG4" s="194"/>
+      <c r="AH4" s="194"/>
+      <c r="AI4" s="194"/>
+      <c r="AJ4" s="194"/>
+      <c r="AK4" s="194"/>
+      <c r="AL4" s="194"/>
+      <c r="AM4" s="194"/>
+      <c r="AN4" s="194"/>
+      <c r="AO4" s="194"/>
+      <c r="AP4" s="194"/>
+      <c r="AQ4" s="194"/>
+      <c r="AR4" s="194"/>
+      <c r="AS4" s="194"/>
+      <c r="AT4" s="194"/>
+      <c r="AU4" s="194"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
@@ -6003,53 +6025,53 @@
       <c r="AZ4" s="5"/>
     </row>
     <row r="5" spans="1:52">
-      <c r="A5" s="175"/>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="175"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="175"/>
-      <c r="M5" s="175"/>
-      <c r="N5" s="175"/>
-      <c r="O5" s="175"/>
-      <c r="P5" s="175"/>
-      <c r="Q5" s="175"/>
-      <c r="R5" s="175"/>
-      <c r="S5" s="175"/>
-      <c r="T5" s="175"/>
-      <c r="U5" s="175"/>
-      <c r="V5" s="175"/>
-      <c r="W5" s="175"/>
-      <c r="X5" s="175"/>
-      <c r="Y5" s="175"/>
-      <c r="Z5" s="175"/>
-      <c r="AA5" s="175"/>
-      <c r="AB5" s="175"/>
-      <c r="AC5" s="175"/>
-      <c r="AD5" s="175"/>
-      <c r="AE5" s="175"/>
-      <c r="AF5" s="175"/>
-      <c r="AG5" s="175"/>
-      <c r="AH5" s="175"/>
-      <c r="AI5" s="175"/>
-      <c r="AJ5" s="175"/>
-      <c r="AK5" s="175"/>
-      <c r="AL5" s="175"/>
-      <c r="AM5" s="175"/>
-      <c r="AN5" s="175"/>
-      <c r="AO5" s="175"/>
-      <c r="AP5" s="175"/>
-      <c r="AQ5" s="175"/>
-      <c r="AR5" s="175"/>
-      <c r="AS5" s="175"/>
-      <c r="AT5" s="175"/>
-      <c r="AU5" s="175"/>
+      <c r="A5" s="194"/>
+      <c r="B5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="194"/>
+      <c r="O5" s="194"/>
+      <c r="P5" s="194"/>
+      <c r="Q5" s="194"/>
+      <c r="R5" s="194"/>
+      <c r="S5" s="194"/>
+      <c r="T5" s="194"/>
+      <c r="U5" s="194"/>
+      <c r="V5" s="194"/>
+      <c r="W5" s="194"/>
+      <c r="X5" s="194"/>
+      <c r="Y5" s="194"/>
+      <c r="Z5" s="194"/>
+      <c r="AA5" s="194"/>
+      <c r="AB5" s="194"/>
+      <c r="AC5" s="194"/>
+      <c r="AD5" s="194"/>
+      <c r="AE5" s="194"/>
+      <c r="AF5" s="194"/>
+      <c r="AG5" s="194"/>
+      <c r="AH5" s="194"/>
+      <c r="AI5" s="194"/>
+      <c r="AJ5" s="194"/>
+      <c r="AK5" s="194"/>
+      <c r="AL5" s="194"/>
+      <c r="AM5" s="194"/>
+      <c r="AN5" s="194"/>
+      <c r="AO5" s="194"/>
+      <c r="AP5" s="194"/>
+      <c r="AQ5" s="194"/>
+      <c r="AR5" s="194"/>
+      <c r="AS5" s="194"/>
+      <c r="AT5" s="194"/>
+      <c r="AU5" s="194"/>
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
@@ -7843,22 +7865,22 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="176"/>
-      <c r="F39" s="177"/>
-      <c r="G39" s="177"/>
-      <c r="H39" s="178"/>
-      <c r="I39" s="179" t="s">
+      <c r="E39" s="195"/>
+      <c r="F39" s="196"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="J39" s="180"/>
-      <c r="K39" s="180"/>
-      <c r="L39" s="181"/>
-      <c r="M39" s="179" t="s">
+      <c r="J39" s="199"/>
+      <c r="K39" s="199"/>
+      <c r="L39" s="200"/>
+      <c r="M39" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="N39" s="180"/>
-      <c r="O39" s="180"/>
-      <c r="P39" s="181"/>
+      <c r="N39" s="199"/>
+      <c r="O39" s="199"/>
+      <c r="P39" s="200"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -7901,18 +7923,18 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="184"/>
-      <c r="H40" s="185"/>
-      <c r="I40" s="183"/>
-      <c r="J40" s="184"/>
-      <c r="K40" s="184"/>
-      <c r="L40" s="185"/>
-      <c r="M40" s="183"/>
-      <c r="N40" s="184"/>
-      <c r="O40" s="184"/>
-      <c r="P40" s="185"/>
+      <c r="E40" s="202"/>
+      <c r="F40" s="203"/>
+      <c r="G40" s="203"/>
+      <c r="H40" s="204"/>
+      <c r="I40" s="202"/>
+      <c r="J40" s="203"/>
+      <c r="K40" s="203"/>
+      <c r="L40" s="204"/>
+      <c r="M40" s="202"/>
+      <c r="N40" s="203"/>
+      <c r="O40" s="203"/>
+      <c r="P40" s="204"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -7955,18 +7977,18 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="187"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="188"/>
-      <c r="I41" s="186"/>
-      <c r="J41" s="187"/>
-      <c r="K41" s="187"/>
-      <c r="L41" s="188"/>
-      <c r="M41" s="186"/>
-      <c r="N41" s="187"/>
-      <c r="O41" s="187"/>
-      <c r="P41" s="188"/>
+      <c r="E41" s="205"/>
+      <c r="F41" s="206"/>
+      <c r="G41" s="206"/>
+      <c r="H41" s="207"/>
+      <c r="I41" s="205"/>
+      <c r="J41" s="206"/>
+      <c r="K41" s="206"/>
+      <c r="L41" s="207"/>
+      <c r="M41" s="205"/>
+      <c r="N41" s="206"/>
+      <c r="O41" s="206"/>
+      <c r="P41" s="207"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -8009,18 +8031,18 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="191"/>
-      <c r="I42" s="189"/>
-      <c r="J42" s="190"/>
-      <c r="K42" s="190"/>
-      <c r="L42" s="191"/>
-      <c r="M42" s="189"/>
-      <c r="N42" s="190"/>
-      <c r="O42" s="190"/>
-      <c r="P42" s="191"/>
+      <c r="E42" s="208"/>
+      <c r="F42" s="209"/>
+      <c r="G42" s="209"/>
+      <c r="H42" s="210"/>
+      <c r="I42" s="208"/>
+      <c r="J42" s="209"/>
+      <c r="K42" s="209"/>
+      <c r="L42" s="210"/>
+      <c r="M42" s="208"/>
+      <c r="N42" s="209"/>
+      <c r="O42" s="209"/>
+      <c r="P42" s="210"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -8043,18 +8065,18 @@
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
-      <c r="AM42" s="192">
+      <c r="AM42" s="211">
         <v>42094</v>
       </c>
-      <c r="AN42" s="192"/>
-      <c r="AO42" s="192"/>
-      <c r="AP42" s="192"/>
-      <c r="AQ42" s="192"/>
-      <c r="AR42" s="182">
+      <c r="AN42" s="211"/>
+      <c r="AO42" s="211"/>
+      <c r="AP42" s="211"/>
+      <c r="AQ42" s="211"/>
+      <c r="AR42" s="201">
         <v>1</v>
       </c>
-      <c r="AS42" s="182"/>
-      <c r="AT42" s="182"/>
+      <c r="AS42" s="201"/>
+      <c r="AT42" s="201"/>
       <c r="AU42" s="1"/>
       <c r="AV42" s="5"/>
       <c r="AW42" s="5"/>
@@ -8091,8 +8113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622EEA5A-B824-4CE0-A332-A65B8CAD5EEB}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8113,1120 +8135,1121 @@
       </c>
     </row>
     <row r="2" spans="2:7" customFormat="1">
-      <c r="B2" s="235" t="s">
+      <c r="B2" s="190" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="235" t="s">
+      <c r="C2" s="190" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="235" t="s">
+      <c r="D2" s="190" t="s">
         <v>349</v>
       </c>
-      <c r="E2" s="235" t="s">
+      <c r="E2" s="190" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="235" t="s">
+      <c r="F2" s="190" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="235" t="s">
+      <c r="G2" s="190" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:7" customFormat="1">
-      <c r="B3" s="231" t="s">
+      <c r="B3" s="186" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="231" t="s">
+      <c r="C3" s="186" t="s">
         <v>298</v>
       </c>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
     </row>
     <row r="4" spans="2:7" customFormat="1">
-      <c r="B4" s="236"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="236"/>
-      <c r="E4" s="236"/>
-      <c r="F4" s="236"/>
-      <c r="G4" s="236"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
     </row>
     <row r="5" spans="2:7" customFormat="1">
-      <c r="B5" s="232" t="s">
+      <c r="B5" s="187" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="232" t="s">
+      <c r="C5" s="187" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="232"/>
-      <c r="E5" s="232"/>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
     </row>
     <row r="6" spans="2:7" customFormat="1">
-      <c r="B6" s="232"/>
-      <c r="C6" s="232"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="232"/>
-      <c r="G6" s="232"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
     </row>
     <row r="7" spans="2:7" customFormat="1">
-      <c r="B7" s="232" t="s">
+      <c r="B7" s="192" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="232" t="s">
+      <c r="C7" s="192" t="s">
         <v>300</v>
       </c>
-      <c r="D7" s="232"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="232"/>
-      <c r="G7" s="232"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
     </row>
     <row r="8" spans="2:7" customFormat="1">
-      <c r="B8" s="232"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
-      <c r="G8" s="232"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187"/>
     </row>
     <row r="9" spans="2:7" customFormat="1">
-      <c r="B9" s="232" t="s">
+      <c r="B9" s="192" t="s">
         <v>245</v>
       </c>
-      <c r="C9" s="232" t="s">
-        <v>301</v>
-      </c>
-      <c r="D9" s="232"/>
-      <c r="E9" s="232"/>
-      <c r="F9" s="232"/>
-      <c r="G9" s="232"/>
+      <c r="C9" s="192" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
     </row>
     <row r="10" spans="2:7" customFormat="1">
-      <c r="B10" s="232"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="232"/>
-      <c r="E10" s="232"/>
-      <c r="F10" s="232"/>
-      <c r="G10" s="232"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
     </row>
     <row r="11" spans="2:7" customFormat="1">
-      <c r="B11" s="232" t="s">
+      <c r="B11" s="192" t="s">
         <v>246</v>
       </c>
-      <c r="C11" s="232" t="s">
+      <c r="C11" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="D11" s="232"/>
-      <c r="E11" s="232"/>
-      <c r="F11" s="232"/>
-      <c r="G11" s="232"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="187"/>
     </row>
     <row r="12" spans="2:7" customFormat="1">
-      <c r="B12" s="232"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="232"/>
-      <c r="E12" s="232"/>
-      <c r="F12" s="232"/>
-      <c r="G12" s="232"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="187"/>
     </row>
     <row r="13" spans="2:7" customFormat="1">
-      <c r="B13" s="232" t="s">
+      <c r="B13" s="192" t="s">
         <v>247</v>
       </c>
-      <c r="C13" s="232" t="s">
+      <c r="C13" s="192" t="s">
         <v>303</v>
       </c>
-      <c r="D13" s="232"/>
-      <c r="E13" s="232"/>
-      <c r="F13" s="232"/>
-      <c r="G13" s="232"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
     </row>
     <row r="14" spans="2:7" customFormat="1">
-      <c r="B14" s="232"/>
-      <c r="C14" s="232"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="232"/>
-      <c r="F14" s="232"/>
-      <c r="G14" s="232"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="187"/>
     </row>
     <row r="15" spans="2:7" customFormat="1">
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="192" t="s">
         <v>248</v>
       </c>
-      <c r="C15" s="232" t="s">
+      <c r="C15" s="192" t="s">
         <v>211</v>
       </c>
-      <c r="D15" s="232"/>
-      <c r="E15" s="232"/>
-      <c r="F15" s="232"/>
-      <c r="G15" s="232"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="187"/>
     </row>
     <row r="16" spans="2:7" customFormat="1">
-      <c r="B16" s="232"/>
-      <c r="C16" s="232"/>
-      <c r="D16" s="232"/>
-      <c r="E16" s="232"/>
-      <c r="F16" s="232"/>
-      <c r="G16" s="232"/>
+      <c r="B16" s="187"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
     </row>
     <row r="17" spans="2:7" customFormat="1">
-      <c r="B17" s="232" t="s">
+      <c r="B17" s="187" t="s">
         <v>249</v>
       </c>
-      <c r="C17" s="232" t="s">
+      <c r="C17" s="187" t="s">
         <v>304</v>
       </c>
-      <c r="D17" s="232"/>
-      <c r="E17" s="232"/>
-      <c r="F17" s="232"/>
-      <c r="G17" s="232"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
     </row>
     <row r="18" spans="2:7" customFormat="1">
-      <c r="B18" s="232"/>
-      <c r="C18" s="232"/>
-      <c r="D18" s="232"/>
-      <c r="E18" s="232"/>
-      <c r="F18" s="232"/>
-      <c r="G18" s="232"/>
+      <c r="B18" s="187"/>
+      <c r="C18" s="187"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
     </row>
     <row r="19" spans="2:7" customFormat="1">
-      <c r="B19" s="232" t="s">
+      <c r="B19" s="192" t="s">
         <v>250</v>
       </c>
-      <c r="C19" s="232" t="s">
+      <c r="C19" s="192" t="s">
         <v>305</v>
       </c>
-      <c r="D19" s="232"/>
-      <c r="E19" s="232"/>
-      <c r="F19" s="232"/>
-      <c r="G19" s="232"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
     </row>
     <row r="20" spans="2:7" customFormat="1">
-      <c r="B20" s="232"/>
-      <c r="C20" s="232"/>
-      <c r="D20" s="232"/>
-      <c r="E20" s="232"/>
-      <c r="F20" s="232"/>
-      <c r="G20" s="232"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="187"/>
     </row>
     <row r="21" spans="2:7" customFormat="1">
-      <c r="B21" s="232" t="s">
+      <c r="B21" s="192" t="s">
         <v>251</v>
       </c>
-      <c r="C21" s="232" t="s">
+      <c r="C21" s="192" t="s">
         <v>306</v>
       </c>
-      <c r="D21" s="232"/>
-      <c r="E21" s="232"/>
-      <c r="F21" s="232"/>
-      <c r="G21" s="232"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
     </row>
     <row r="22" spans="2:7" customFormat="1">
-      <c r="B22" s="232"/>
-      <c r="C22" s="232"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="232"/>
-      <c r="F22" s="232"/>
-      <c r="G22" s="232"/>
+      <c r="B22" s="187"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="187"/>
     </row>
     <row r="23" spans="2:7" customFormat="1">
-      <c r="B23" s="232" t="s">
+      <c r="B23" s="192" t="s">
         <v>252</v>
       </c>
-      <c r="C23" s="232" t="s">
+      <c r="C23" s="192" t="s">
         <v>307</v>
       </c>
-      <c r="D23" s="232"/>
-      <c r="E23" s="232"/>
-      <c r="F23" s="232"/>
-      <c r="G23" s="232"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="187"/>
     </row>
     <row r="24" spans="2:7" customFormat="1">
-      <c r="B24" s="232"/>
-      <c r="C24" s="232"/>
-      <c r="D24" s="232"/>
-      <c r="E24" s="232"/>
-      <c r="F24" s="232"/>
-      <c r="G24" s="232"/>
+      <c r="B24" s="187"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="187"/>
     </row>
     <row r="25" spans="2:7" customFormat="1">
-      <c r="B25" s="232" t="s">
+      <c r="B25" s="187" t="s">
         <v>253</v>
       </c>
-      <c r="C25" s="232" t="s">
+      <c r="C25" s="187" t="s">
         <v>308</v>
       </c>
-      <c r="D25" s="232"/>
-      <c r="E25" s="232"/>
-      <c r="F25" s="232"/>
-      <c r="G25" s="232"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="187"/>
     </row>
     <row r="26" spans="2:7" customFormat="1">
-      <c r="B26" s="232"/>
-      <c r="C26" s="232"/>
-      <c r="D26" s="232"/>
-      <c r="E26" s="232"/>
-      <c r="F26" s="232"/>
-      <c r="G26" s="232"/>
+      <c r="B26" s="187"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
     </row>
     <row r="27" spans="2:7" customFormat="1">
-      <c r="B27" s="232" t="s">
+      <c r="B27" s="187" t="s">
         <v>254</v>
       </c>
-      <c r="C27" s="232" t="s">
+      <c r="C27" s="187" t="s">
         <v>309</v>
       </c>
-      <c r="D27" s="232"/>
-      <c r="E27" s="232"/>
-      <c r="F27" s="232"/>
-      <c r="G27" s="232"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
     </row>
     <row r="28" spans="2:7" customFormat="1">
-      <c r="B28" s="232"/>
-      <c r="C28" s="232"/>
-      <c r="D28" s="232"/>
-      <c r="E28" s="232"/>
-      <c r="F28" s="232"/>
-      <c r="G28" s="232"/>
+      <c r="B28" s="187"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="187"/>
     </row>
     <row r="29" spans="2:7" customFormat="1">
-      <c r="B29" s="232" t="s">
+      <c r="B29" s="192" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="232" t="s">
+      <c r="C29" s="192" t="s">
         <v>311</v>
       </c>
-      <c r="D29" s="232"/>
-      <c r="E29" s="232"/>
-      <c r="F29" s="232"/>
-      <c r="G29" s="232"/>
+      <c r="D29" s="187"/>
+      <c r="E29" s="187"/>
+      <c r="F29" s="187"/>
+      <c r="G29" s="187"/>
     </row>
     <row r="30" spans="2:7" customFormat="1">
-      <c r="B30" s="232"/>
-      <c r="C30" s="232"/>
-      <c r="D30" s="232"/>
-      <c r="E30" s="232"/>
-      <c r="F30" s="232"/>
-      <c r="G30" s="232"/>
+      <c r="B30" s="187"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="187"/>
     </row>
     <row r="31" spans="2:7" customFormat="1">
-      <c r="B31" s="232" t="s">
+      <c r="B31" s="192" t="s">
         <v>256</v>
       </c>
-      <c r="C31" s="232" t="s">
+      <c r="C31" s="192" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="232"/>
-      <c r="E31" s="232"/>
-      <c r="F31" s="232"/>
-      <c r="G31" s="232"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="187"/>
     </row>
     <row r="32" spans="2:7" customFormat="1">
-      <c r="B32" s="232"/>
-      <c r="C32" s="232"/>
-      <c r="D32" s="232"/>
-      <c r="E32" s="232"/>
-      <c r="F32" s="232"/>
-      <c r="G32" s="232"/>
+      <c r="B32" s="187"/>
+      <c r="C32" s="187"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
     </row>
     <row r="33" spans="2:7" customFormat="1">
-      <c r="B33" s="232" t="s">
+      <c r="B33" s="187" t="s">
         <v>257</v>
       </c>
-      <c r="C33" s="232" t="s">
+      <c r="C33" s="187" t="s">
         <v>312</v>
       </c>
-      <c r="D33" s="232"/>
-      <c r="E33" s="232"/>
-      <c r="F33" s="232"/>
-      <c r="G33" s="232"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
     </row>
     <row r="34" spans="2:7" customFormat="1">
-      <c r="B34" s="232"/>
-      <c r="C34" s="232"/>
-      <c r="D34" s="232"/>
-      <c r="E34" s="232"/>
-      <c r="F34" s="232"/>
-      <c r="G34" s="232"/>
+      <c r="B34" s="187"/>
+      <c r="C34" s="187"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
     </row>
     <row r="35" spans="2:7" customFormat="1">
-      <c r="B35" s="232" t="s">
+      <c r="B35" s="187" t="s">
         <v>258</v>
       </c>
-      <c r="C35" s="232" t="s">
+      <c r="C35" s="187" t="s">
         <v>313</v>
       </c>
-      <c r="D35" s="232"/>
-      <c r="E35" s="232"/>
-      <c r="F35" s="232"/>
-      <c r="G35" s="232"/>
+      <c r="D35" s="187"/>
+      <c r="E35" s="187"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="187"/>
     </row>
     <row r="36" spans="2:7" customFormat="1">
-      <c r="B36" s="232"/>
-      <c r="C36" s="232"/>
-      <c r="D36" s="232"/>
-      <c r="E36" s="232"/>
-      <c r="F36" s="232"/>
-      <c r="G36" s="232"/>
+      <c r="B36" s="187"/>
+      <c r="C36" s="187"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
     </row>
     <row r="37" spans="2:7" customFormat="1">
-      <c r="B37" s="232" t="s">
+      <c r="B37" s="187" t="s">
         <v>259</v>
       </c>
-      <c r="C37" s="232" t="s">
+      <c r="C37" s="187" t="s">
         <v>314</v>
       </c>
-      <c r="D37" s="232"/>
-      <c r="E37" s="232"/>
-      <c r="F37" s="232"/>
-      <c r="G37" s="232"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
     </row>
     <row r="38" spans="2:7" customFormat="1">
-      <c r="B38" s="232"/>
-      <c r="C38" s="232"/>
-      <c r="D38" s="232"/>
-      <c r="E38" s="232"/>
-      <c r="F38" s="232"/>
-      <c r="G38" s="232"/>
+      <c r="B38" s="187"/>
+      <c r="C38" s="187"/>
+      <c r="D38" s="187"/>
+      <c r="E38" s="187"/>
+      <c r="F38" s="187"/>
+      <c r="G38" s="187"/>
     </row>
     <row r="39" spans="2:7" customFormat="1">
-      <c r="B39" s="232" t="s">
+      <c r="B39" s="187" t="s">
         <v>260</v>
       </c>
-      <c r="C39" s="232" t="s">
+      <c r="C39" s="187" t="s">
         <v>315</v>
       </c>
-      <c r="D39" s="232"/>
-      <c r="E39" s="232"/>
-      <c r="F39" s="232"/>
-      <c r="G39" s="232"/>
+      <c r="D39" s="187"/>
+      <c r="E39" s="187"/>
+      <c r="F39" s="187"/>
+      <c r="G39" s="187"/>
     </row>
     <row r="40" spans="2:7" customFormat="1">
-      <c r="B40" s="232"/>
-      <c r="C40" s="232"/>
-      <c r="D40" s="232"/>
-      <c r="E40" s="232"/>
-      <c r="F40" s="232"/>
-      <c r="G40" s="232"/>
+      <c r="B40" s="187"/>
+      <c r="C40" s="187"/>
+      <c r="D40" s="187"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
     </row>
     <row r="41" spans="2:7" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B41" s="232" t="s">
+      <c r="B41" s="187" t="s">
         <v>261</v>
       </c>
-      <c r="C41" s="232" t="s">
+      <c r="C41" s="187" t="s">
         <v>316</v>
       </c>
-      <c r="D41" s="232"/>
-      <c r="E41" s="232"/>
-      <c r="F41" s="232"/>
-      <c r="G41" s="232"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="187"/>
+      <c r="G41" s="187"/>
     </row>
     <row r="42" spans="2:7" customFormat="1">
-      <c r="B42" s="232"/>
-      <c r="C42" s="232"/>
-      <c r="D42" s="232"/>
-      <c r="E42" s="232"/>
-      <c r="F42" s="232"/>
-      <c r="G42" s="232"/>
+      <c r="B42" s="187"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="187"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="187"/>
     </row>
     <row r="43" spans="2:7" customFormat="1">
-      <c r="B43" s="232" t="s">
+      <c r="B43" s="187" t="s">
         <v>262</v>
       </c>
-      <c r="C43" s="232" t="s">
+      <c r="C43" s="187" t="s">
         <v>317</v>
       </c>
-      <c r="D43" s="232"/>
-      <c r="E43" s="232"/>
-      <c r="F43" s="232"/>
-      <c r="G43" s="232"/>
+      <c r="D43" s="187"/>
+      <c r="E43" s="187"/>
+      <c r="F43" s="187"/>
+      <c r="G43" s="187"/>
     </row>
     <row r="44" spans="2:7" customFormat="1">
-      <c r="B44" s="232"/>
-      <c r="C44" s="232"/>
-      <c r="D44" s="232"/>
-      <c r="E44" s="232"/>
-      <c r="F44" s="232"/>
-      <c r="G44" s="232"/>
+      <c r="B44" s="187"/>
+      <c r="C44" s="187"/>
+      <c r="D44" s="187"/>
+      <c r="E44" s="187"/>
+      <c r="F44" s="187"/>
+      <c r="G44" s="187"/>
     </row>
     <row r="45" spans="2:7" customFormat="1">
-      <c r="B45" s="232" t="s">
+      <c r="B45" s="238" t="s">
         <v>263</v>
       </c>
-      <c r="C45" s="232" t="s">
+      <c r="C45" s="238" t="s">
         <v>210</v>
       </c>
-      <c r="D45" s="232"/>
-      <c r="E45" s="232"/>
-      <c r="F45" s="232"/>
-      <c r="G45" s="232"/>
+      <c r="D45" s="187"/>
+      <c r="E45" s="187"/>
+      <c r="F45" s="187"/>
+      <c r="G45" s="187"/>
     </row>
     <row r="46" spans="2:7" customFormat="1">
-      <c r="B46" s="232"/>
-      <c r="C46" s="232"/>
-      <c r="D46" s="232"/>
-      <c r="E46" s="232"/>
-      <c r="F46" s="232"/>
-      <c r="G46" s="232"/>
+      <c r="B46" s="187"/>
+      <c r="C46" s="187"/>
+      <c r="D46" s="187"/>
+      <c r="E46" s="187"/>
+      <c r="F46" s="187"/>
+      <c r="G46" s="187"/>
     </row>
     <row r="47" spans="2:7" customFormat="1">
-      <c r="B47" s="232" t="s">
+      <c r="B47" s="187" t="s">
         <v>264</v>
       </c>
-      <c r="C47" s="232" t="s">
+      <c r="C47" s="187" t="s">
         <v>239</v>
       </c>
-      <c r="D47" s="232"/>
-      <c r="E47" s="232"/>
-      <c r="F47" s="232"/>
-      <c r="G47" s="232"/>
+      <c r="D47" s="187"/>
+      <c r="E47" s="187"/>
+      <c r="F47" s="187"/>
+      <c r="G47" s="187"/>
     </row>
     <row r="48" spans="2:7" customFormat="1">
-      <c r="B48" s="232"/>
-      <c r="C48" s="232"/>
-      <c r="D48" s="232"/>
-      <c r="E48" s="232"/>
-      <c r="F48" s="232"/>
-      <c r="G48" s="232"/>
+      <c r="B48" s="187"/>
+      <c r="C48" s="187"/>
+      <c r="D48" s="187"/>
+      <c r="E48" s="187"/>
+      <c r="F48" s="187"/>
+      <c r="G48" s="187"/>
     </row>
     <row r="49" spans="2:7" customFormat="1">
-      <c r="B49" s="232" t="s">
+      <c r="B49" s="187" t="s">
         <v>265</v>
       </c>
-      <c r="C49" s="232" t="s">
+      <c r="C49" s="187" t="s">
         <v>318</v>
       </c>
-      <c r="D49" s="232"/>
-      <c r="E49" s="232"/>
-      <c r="F49" s="232"/>
-      <c r="G49" s="232"/>
+      <c r="D49" s="187"/>
+      <c r="E49" s="187"/>
+      <c r="F49" s="187"/>
+      <c r="G49" s="187"/>
     </row>
     <row r="50" spans="2:7" customFormat="1">
-      <c r="B50" s="232"/>
-      <c r="C50" s="232"/>
-      <c r="D50" s="232"/>
-      <c r="E50" s="232"/>
-      <c r="F50" s="232"/>
-      <c r="G50" s="232"/>
+      <c r="B50" s="187"/>
+      <c r="C50" s="187"/>
+      <c r="D50" s="187"/>
+      <c r="E50" s="187"/>
+      <c r="F50" s="187"/>
+      <c r="G50" s="187"/>
     </row>
     <row r="51" spans="2:7" customFormat="1">
-      <c r="B51" s="232" t="s">
+      <c r="B51" s="187" t="s">
         <v>266</v>
       </c>
-      <c r="C51" s="232" t="s">
+      <c r="C51" s="187" t="s">
         <v>319</v>
       </c>
-      <c r="D51" s="232"/>
-      <c r="E51" s="232"/>
-      <c r="F51" s="232"/>
-      <c r="G51" s="232"/>
+      <c r="D51" s="187"/>
+      <c r="E51" s="187"/>
+      <c r="F51" s="187"/>
+      <c r="G51" s="187"/>
     </row>
     <row r="52" spans="2:7" customFormat="1">
-      <c r="B52" s="232"/>
-      <c r="C52" s="232"/>
-      <c r="D52" s="232"/>
-      <c r="E52" s="232"/>
-      <c r="F52" s="232"/>
-      <c r="G52" s="232"/>
+      <c r="B52" s="187"/>
+      <c r="C52" s="187"/>
+      <c r="D52" s="187"/>
+      <c r="E52" s="187"/>
+      <c r="F52" s="187"/>
+      <c r="G52" s="187"/>
     </row>
     <row r="53" spans="2:7" customFormat="1">
-      <c r="B53" s="232" t="s">
+      <c r="B53" s="187" t="s">
         <v>267</v>
       </c>
-      <c r="C53" s="232" t="s">
+      <c r="C53" s="187" t="s">
         <v>320</v>
       </c>
-      <c r="D53" s="232"/>
-      <c r="E53" s="232"/>
-      <c r="F53" s="232"/>
-      <c r="G53" s="232"/>
+      <c r="D53" s="187"/>
+      <c r="E53" s="187"/>
+      <c r="F53" s="187"/>
+      <c r="G53" s="187"/>
     </row>
     <row r="54" spans="2:7" customFormat="1">
-      <c r="B54" s="232"/>
-      <c r="C54" s="232"/>
-      <c r="D54" s="232"/>
-      <c r="E54" s="232"/>
-      <c r="F54" s="232"/>
-      <c r="G54" s="232"/>
+      <c r="B54" s="187"/>
+      <c r="C54" s="187"/>
+      <c r="D54" s="187"/>
+      <c r="E54" s="187"/>
+      <c r="F54" s="187"/>
+      <c r="G54" s="187"/>
     </row>
     <row r="55" spans="2:7" customFormat="1">
-      <c r="B55" s="219" t="s">
+      <c r="B55" s="240" t="s">
         <v>268</v>
       </c>
-      <c r="C55" s="219" t="s">
+      <c r="C55" s="240" t="s">
         <v>321</v>
       </c>
-      <c r="D55" s="219"/>
-      <c r="E55" s="219"/>
-      <c r="F55" s="219"/>
-      <c r="G55" s="219"/>
+      <c r="D55" s="174"/>
+      <c r="E55" s="174"/>
+      <c r="F55" s="174"/>
+      <c r="G55" s="174"/>
     </row>
     <row r="56" spans="2:7" customFormat="1">
-      <c r="B56" s="232"/>
-      <c r="C56" s="232"/>
-      <c r="D56" s="232"/>
-      <c r="E56" s="232"/>
-      <c r="F56" s="232"/>
-      <c r="G56" s="232"/>
+      <c r="B56" s="187"/>
+      <c r="C56" s="187"/>
+      <c r="D56" s="187"/>
+      <c r="E56" s="187"/>
+      <c r="F56" s="187"/>
+      <c r="G56" s="187"/>
     </row>
     <row r="57" spans="2:7" customFormat="1">
-      <c r="B57" s="232" t="s">
+      <c r="B57" s="187" t="s">
         <v>269</v>
       </c>
-      <c r="C57" s="232" t="s">
+      <c r="C57" s="187" t="s">
         <v>322</v>
       </c>
-      <c r="D57" s="232"/>
-      <c r="E57" s="232"/>
-      <c r="F57" s="232"/>
-      <c r="G57" s="232"/>
+      <c r="D57" s="187"/>
+      <c r="E57" s="187"/>
+      <c r="F57" s="187"/>
+      <c r="G57" s="187"/>
     </row>
     <row r="58" spans="2:7" customFormat="1">
-      <c r="B58" s="232"/>
-      <c r="C58" s="232"/>
-      <c r="D58" s="232"/>
-      <c r="E58" s="232"/>
-      <c r="F58" s="232"/>
-      <c r="G58" s="232"/>
+      <c r="B58" s="187"/>
+      <c r="C58" s="187"/>
+      <c r="D58" s="187"/>
+      <c r="E58" s="187"/>
+      <c r="F58" s="187"/>
+      <c r="G58" s="187"/>
     </row>
     <row r="59" spans="2:7" customFormat="1">
-      <c r="B59" s="232" t="s">
+      <c r="B59" s="192" t="s">
         <v>270</v>
       </c>
-      <c r="C59" s="232" t="s">
+      <c r="C59" s="192" t="s">
         <v>323</v>
       </c>
-      <c r="D59" s="232"/>
-      <c r="E59" s="232"/>
-      <c r="F59" s="232"/>
-      <c r="G59" s="232"/>
+      <c r="D59" s="187"/>
+      <c r="E59" s="187"/>
+      <c r="F59" s="187"/>
+      <c r="G59" s="187"/>
     </row>
     <row r="60" spans="2:7" customFormat="1">
-      <c r="B60" s="232"/>
-      <c r="C60" s="232"/>
-      <c r="D60" s="232"/>
-      <c r="E60" s="232"/>
-      <c r="F60" s="232"/>
-      <c r="G60" s="232"/>
+      <c r="B60" s="187"/>
+      <c r="C60" s="187"/>
+      <c r="D60" s="187"/>
+      <c r="E60" s="187"/>
+      <c r="F60" s="187"/>
+      <c r="G60" s="187"/>
     </row>
     <row r="61" spans="2:7" customFormat="1">
-      <c r="B61" s="232" t="s">
+      <c r="B61" s="187" t="s">
         <v>271</v>
       </c>
-      <c r="C61" s="232" t="s">
+      <c r="C61" s="187" t="s">
         <v>324</v>
       </c>
-      <c r="D61" s="232"/>
-      <c r="E61" s="232"/>
-      <c r="F61" s="232"/>
-      <c r="G61" s="232"/>
+      <c r="D61" s="187"/>
+      <c r="E61" s="187"/>
+      <c r="F61" s="187"/>
+      <c r="G61" s="187"/>
     </row>
     <row r="62" spans="2:7" customFormat="1">
-      <c r="B62" s="232"/>
-      <c r="C62" s="232"/>
-      <c r="D62" s="232"/>
-      <c r="E62" s="232"/>
-      <c r="F62" s="232"/>
-      <c r="G62" s="232"/>
+      <c r="B62" s="187"/>
+      <c r="C62" s="187"/>
+      <c r="D62" s="187"/>
+      <c r="E62" s="187"/>
+      <c r="F62" s="187"/>
+      <c r="G62" s="187"/>
     </row>
     <row r="63" spans="2:7" customFormat="1">
-      <c r="B63" s="232" t="s">
+      <c r="B63" s="187" t="s">
         <v>271</v>
       </c>
-      <c r="C63" s="232" t="s">
+      <c r="C63" s="187" t="s">
         <v>326</v>
       </c>
-      <c r="D63" s="232"/>
-      <c r="E63" s="232"/>
-      <c r="F63" s="232"/>
-      <c r="G63" s="232"/>
+      <c r="D63" s="187"/>
+      <c r="E63" s="187"/>
+      <c r="F63" s="187"/>
+      <c r="G63" s="187"/>
     </row>
     <row r="64" spans="2:7" customFormat="1">
-      <c r="B64" s="232"/>
-      <c r="C64" s="232"/>
-      <c r="D64" s="232"/>
-      <c r="E64" s="232"/>
-      <c r="F64" s="232"/>
-      <c r="G64" s="232"/>
+      <c r="B64" s="187"/>
+      <c r="C64" s="187"/>
+      <c r="D64" s="187"/>
+      <c r="E64" s="187"/>
+      <c r="F64" s="187"/>
+      <c r="G64" s="187"/>
     </row>
     <row r="65" spans="2:7" customFormat="1">
-      <c r="B65" s="232" t="s">
+      <c r="B65" s="187" t="s">
         <v>271</v>
       </c>
-      <c r="C65" s="232" t="s">
+      <c r="C65" s="187" t="s">
         <v>327</v>
       </c>
-      <c r="D65" s="232"/>
-      <c r="E65" s="232"/>
-      <c r="F65" s="232"/>
-      <c r="G65" s="232"/>
+      <c r="D65" s="187"/>
+      <c r="E65" s="187"/>
+      <c r="F65" s="187"/>
+      <c r="G65" s="187"/>
     </row>
     <row r="66" spans="2:7" customFormat="1">
-      <c r="B66" s="232"/>
-      <c r="C66" s="232"/>
-      <c r="D66" s="232"/>
-      <c r="E66" s="232"/>
-      <c r="F66" s="232"/>
-      <c r="G66" s="232"/>
+      <c r="B66" s="187"/>
+      <c r="C66" s="187"/>
+      <c r="D66" s="187"/>
+      <c r="E66" s="187"/>
+      <c r="F66" s="187"/>
+      <c r="G66" s="187"/>
     </row>
     <row r="67" spans="2:7" customFormat="1">
-      <c r="B67" s="232" t="s">
+      <c r="B67" s="187" t="s">
         <v>272</v>
       </c>
-      <c r="C67" s="232" t="s">
+      <c r="C67" s="187" t="s">
         <v>325</v>
       </c>
-      <c r="D67" s="232"/>
-      <c r="E67" s="232"/>
-      <c r="F67" s="232"/>
-      <c r="G67" s="232"/>
+      <c r="D67" s="187"/>
+      <c r="E67" s="187"/>
+      <c r="F67" s="187"/>
+      <c r="G67" s="187"/>
     </row>
     <row r="68" spans="2:7" customFormat="1">
-      <c r="B68" s="232"/>
-      <c r="C68" s="232"/>
-      <c r="D68" s="232"/>
-      <c r="E68" s="232"/>
-      <c r="F68" s="232"/>
-      <c r="G68" s="232"/>
+      <c r="B68" s="187"/>
+      <c r="C68" s="187"/>
+      <c r="D68" s="187"/>
+      <c r="E68" s="187"/>
+      <c r="F68" s="187"/>
+      <c r="G68" s="187"/>
     </row>
     <row r="69" spans="2:7" customFormat="1">
-      <c r="B69" s="232" t="s">
+      <c r="B69" s="238" t="s">
         <v>273</v>
       </c>
-      <c r="C69" s="232" t="s">
+      <c r="C69" s="238" t="s">
         <v>328</v>
       </c>
-      <c r="D69" s="232"/>
-      <c r="E69" s="232"/>
-      <c r="F69" s="232"/>
-      <c r="G69" s="232"/>
+      <c r="D69" s="187"/>
+      <c r="E69" s="187"/>
+      <c r="F69" s="187"/>
+      <c r="G69" s="187"/>
     </row>
     <row r="70" spans="2:7" customFormat="1">
-      <c r="B70" s="232"/>
-      <c r="C70" s="232"/>
-      <c r="D70" s="232"/>
-      <c r="E70" s="232"/>
-      <c r="F70" s="232"/>
-      <c r="G70" s="232"/>
+      <c r="B70" s="187"/>
+      <c r="C70" s="187"/>
+      <c r="D70" s="187"/>
+      <c r="E70" s="187"/>
+      <c r="F70" s="187"/>
+      <c r="G70" s="187"/>
     </row>
     <row r="71" spans="2:7" customFormat="1">
-      <c r="B71" s="232" t="s">
+      <c r="B71" s="187" t="s">
         <v>274</v>
       </c>
-      <c r="C71" s="232" t="s">
+      <c r="C71" s="187" t="s">
         <v>329</v>
       </c>
-      <c r="D71" s="232"/>
-      <c r="E71" s="232"/>
-      <c r="F71" s="232"/>
-      <c r="G71" s="232"/>
+      <c r="D71" s="187"/>
+      <c r="E71" s="187"/>
+      <c r="F71" s="187"/>
+      <c r="G71" s="187"/>
     </row>
     <row r="72" spans="2:7" customFormat="1">
-      <c r="B72" s="232"/>
-      <c r="C72" s="232"/>
-      <c r="D72" s="232"/>
-      <c r="E72" s="232"/>
-      <c r="F72" s="232"/>
-      <c r="G72" s="232"/>
+      <c r="B72" s="187"/>
+      <c r="C72" s="187"/>
+      <c r="D72" s="187"/>
+      <c r="E72" s="187"/>
+      <c r="F72" s="187"/>
+      <c r="G72" s="187"/>
     </row>
     <row r="73" spans="2:7" customFormat="1">
-      <c r="B73" s="232" t="s">
+      <c r="B73" s="187" t="s">
         <v>275</v>
       </c>
-      <c r="C73" s="232" t="s">
+      <c r="C73" s="187" t="s">
         <v>330</v>
       </c>
-      <c r="D73" s="232"/>
-      <c r="E73" s="232"/>
-      <c r="F73" s="232"/>
-      <c r="G73" s="232"/>
+      <c r="D73" s="187"/>
+      <c r="E73" s="187"/>
+      <c r="F73" s="187"/>
+      <c r="G73" s="187"/>
     </row>
     <row r="74" spans="2:7" customFormat="1">
-      <c r="B74" s="232"/>
-      <c r="C74" s="232"/>
-      <c r="D74" s="232"/>
-      <c r="E74" s="232"/>
-      <c r="F74" s="232"/>
-      <c r="G74" s="232"/>
+      <c r="B74" s="187"/>
+      <c r="C74" s="187"/>
+      <c r="D74" s="187"/>
+      <c r="E74" s="187"/>
+      <c r="F74" s="187"/>
+      <c r="G74" s="187"/>
     </row>
     <row r="75" spans="2:7" customFormat="1">
-      <c r="B75" s="232" t="s">
+      <c r="B75" s="238" t="s">
         <v>276</v>
       </c>
-      <c r="C75" s="232" t="s">
+      <c r="C75" s="238" t="s">
         <v>331</v>
       </c>
-      <c r="D75" s="232"/>
-      <c r="E75" s="232"/>
-      <c r="F75" s="232"/>
-      <c r="G75" s="232"/>
+      <c r="D75" s="187"/>
+      <c r="E75" s="187"/>
+      <c r="F75" s="187"/>
+      <c r="G75" s="187"/>
     </row>
     <row r="76" spans="2:7" customFormat="1">
-      <c r="B76" s="232"/>
-      <c r="C76" s="232"/>
-      <c r="D76" s="232"/>
-      <c r="E76" s="232"/>
-      <c r="F76" s="232"/>
-      <c r="G76" s="232"/>
+      <c r="B76" s="187"/>
+      <c r="C76" s="187"/>
+      <c r="D76" s="187"/>
+      <c r="E76" s="187"/>
+      <c r="F76" s="187"/>
+      <c r="G76" s="187"/>
     </row>
     <row r="77" spans="2:7" customFormat="1">
-      <c r="B77" s="232" t="s">
+      <c r="B77" s="187" t="s">
         <v>277</v>
       </c>
-      <c r="C77" s="232" t="s">
+      <c r="C77" s="187" t="s">
         <v>297</v>
       </c>
-      <c r="D77" s="232"/>
-      <c r="E77" s="232"/>
-      <c r="F77" s="232"/>
-      <c r="G77" s="232"/>
+      <c r="D77" s="187"/>
+      <c r="E77" s="187"/>
+      <c r="F77" s="187"/>
+      <c r="G77" s="187"/>
     </row>
     <row r="78" spans="2:7" customFormat="1">
-      <c r="B78" s="232"/>
-      <c r="C78" s="232"/>
-      <c r="D78" s="232"/>
-      <c r="E78" s="232"/>
-      <c r="F78" s="232"/>
-      <c r="G78" s="232"/>
+      <c r="B78" s="187"/>
+      <c r="C78" s="187"/>
+      <c r="D78" s="187"/>
+      <c r="E78" s="187"/>
+      <c r="F78" s="187"/>
+      <c r="G78" s="187"/>
     </row>
     <row r="79" spans="2:7" customFormat="1">
-      <c r="B79" s="232" t="s">
+      <c r="B79" s="238" t="s">
         <v>278</v>
       </c>
-      <c r="C79" s="232" t="s">
+      <c r="C79" s="238" t="s">
         <v>332</v>
       </c>
-      <c r="D79" s="232"/>
-      <c r="E79" s="232"/>
-      <c r="F79" s="232"/>
-      <c r="G79" s="232"/>
+      <c r="D79" s="187"/>
+      <c r="E79" s="187"/>
+      <c r="F79" s="187"/>
+      <c r="G79" s="187"/>
     </row>
     <row r="80" spans="2:7" customFormat="1">
-      <c r="B80" s="232"/>
-      <c r="C80" s="232"/>
-      <c r="D80" s="232"/>
-      <c r="E80" s="232"/>
-      <c r="F80" s="232"/>
-      <c r="G80" s="232"/>
+      <c r="B80" s="187"/>
+      <c r="C80" s="187"/>
+      <c r="D80" s="187"/>
+      <c r="E80" s="187"/>
+      <c r="F80" s="187"/>
+      <c r="G80" s="187"/>
     </row>
     <row r="81" spans="2:7" customFormat="1">
-      <c r="B81" s="232" t="s">
+      <c r="B81" s="238" t="s">
         <v>279</v>
       </c>
-      <c r="C81" s="232" t="s">
+      <c r="C81" s="238" t="s">
         <v>333</v>
       </c>
-      <c r="D81" s="232"/>
-      <c r="E81" s="232"/>
-      <c r="F81" s="232"/>
-      <c r="G81" s="232"/>
+      <c r="D81" s="187"/>
+      <c r="E81" s="187"/>
+      <c r="F81" s="187"/>
+      <c r="G81" s="187"/>
     </row>
     <row r="82" spans="2:7" customFormat="1">
-      <c r="B82" s="232"/>
-      <c r="C82" s="232"/>
-      <c r="D82" s="232"/>
-      <c r="E82" s="232"/>
-      <c r="F82" s="232"/>
-      <c r="G82" s="232"/>
+      <c r="B82" s="187"/>
+      <c r="C82" s="187"/>
+      <c r="D82" s="187"/>
+      <c r="E82" s="187"/>
+      <c r="F82" s="187"/>
+      <c r="G82" s="187"/>
     </row>
     <row r="83" spans="2:7" customFormat="1">
-      <c r="B83" s="232" t="s">
+      <c r="B83" s="187" t="s">
         <v>280</v>
       </c>
-      <c r="C83" s="232" t="s">
+      <c r="C83" s="187" t="s">
         <v>334</v>
       </c>
-      <c r="D83" s="232"/>
-      <c r="E83" s="232"/>
-      <c r="F83" s="232"/>
-      <c r="G83" s="232"/>
+      <c r="D83" s="187"/>
+      <c r="E83" s="187"/>
+      <c r="F83" s="187"/>
+      <c r="G83" s="187"/>
     </row>
     <row r="84" spans="2:7" customFormat="1">
-      <c r="B84" s="232"/>
-      <c r="C84" s="232"/>
-      <c r="D84" s="232"/>
-      <c r="E84" s="232"/>
-      <c r="F84" s="232"/>
-      <c r="G84" s="232"/>
+      <c r="B84" s="187"/>
+      <c r="C84" s="187"/>
+      <c r="D84" s="187"/>
+      <c r="E84" s="187"/>
+      <c r="F84" s="187"/>
+      <c r="G84" s="187"/>
     </row>
     <row r="85" spans="2:7" customFormat="1">
-      <c r="B85" s="232" t="s">
+      <c r="B85" s="187" t="s">
         <v>281</v>
       </c>
-      <c r="C85" s="232" t="s">
+      <c r="C85" s="187" t="s">
         <v>335</v>
       </c>
-      <c r="D85" s="232"/>
-      <c r="E85" s="232"/>
-      <c r="F85" s="232"/>
-      <c r="G85" s="232"/>
+      <c r="D85" s="187"/>
+      <c r="E85" s="187"/>
+      <c r="F85" s="187"/>
+      <c r="G85" s="187"/>
     </row>
     <row r="86" spans="2:7" customFormat="1">
-      <c r="B86" s="232"/>
-      <c r="C86" s="232"/>
-      <c r="D86" s="232"/>
-      <c r="E86" s="232"/>
-      <c r="F86" s="232"/>
-      <c r="G86" s="232"/>
+      <c r="B86" s="187"/>
+      <c r="C86" s="187"/>
+      <c r="D86" s="187"/>
+      <c r="E86" s="187"/>
+      <c r="F86" s="187"/>
+      <c r="G86" s="187"/>
     </row>
     <row r="87" spans="2:7" customFormat="1">
-      <c r="B87" s="232" t="s">
+      <c r="B87" s="238" t="s">
         <v>282</v>
       </c>
-      <c r="C87" s="232" t="s">
+      <c r="C87" s="238" t="s">
         <v>206</v>
       </c>
-      <c r="D87" s="232"/>
-      <c r="E87" s="232"/>
-      <c r="F87" s="232"/>
-      <c r="G87" s="232"/>
+      <c r="D87" s="187"/>
+      <c r="E87" s="187"/>
+      <c r="F87" s="187"/>
+      <c r="G87" s="187"/>
     </row>
     <row r="88" spans="2:7" customFormat="1">
-      <c r="B88" s="232"/>
-      <c r="C88" s="232"/>
-      <c r="D88" s="232"/>
-      <c r="E88" s="232"/>
-      <c r="F88" s="232"/>
-      <c r="G88" s="232"/>
+      <c r="B88" s="187"/>
+      <c r="C88" s="187"/>
+      <c r="D88" s="187"/>
+      <c r="E88" s="187"/>
+      <c r="F88" s="187"/>
+      <c r="G88" s="187"/>
     </row>
     <row r="89" spans="2:7" customFormat="1">
-      <c r="B89" s="232" t="s">
+      <c r="B89" s="187" t="s">
         <v>283</v>
       </c>
-      <c r="C89" s="232" t="s">
+      <c r="C89" s="187" t="s">
         <v>341</v>
       </c>
-      <c r="D89" s="232"/>
-      <c r="E89" s="232"/>
-      <c r="F89" s="232"/>
-      <c r="G89" s="232"/>
+      <c r="D89" s="187"/>
+      <c r="E89" s="187"/>
+      <c r="F89" s="187"/>
+      <c r="G89" s="187"/>
     </row>
     <row r="90" spans="2:7" customFormat="1">
-      <c r="B90" s="232"/>
-      <c r="C90" s="232"/>
-      <c r="D90" s="232"/>
-      <c r="E90" s="232"/>
-      <c r="F90" s="232"/>
-      <c r="G90" s="232"/>
+      <c r="B90" s="187"/>
+      <c r="C90" s="187"/>
+      <c r="D90" s="187"/>
+      <c r="E90" s="187"/>
+      <c r="F90" s="187"/>
+      <c r="G90" s="187"/>
     </row>
     <row r="91" spans="2:7" customFormat="1">
-      <c r="B91" s="232" t="s">
+      <c r="B91" s="187" t="s">
         <v>284</v>
       </c>
-      <c r="C91" s="232" t="s">
+      <c r="C91" s="187" t="s">
         <v>336</v>
       </c>
-      <c r="D91" s="232"/>
-      <c r="E91" s="232"/>
-      <c r="F91" s="232"/>
-      <c r="G91" s="232"/>
+      <c r="D91" s="187"/>
+      <c r="E91" s="187"/>
+      <c r="F91" s="187"/>
+      <c r="G91" s="187"/>
     </row>
     <row r="92" spans="2:7" customFormat="1">
-      <c r="B92" s="232"/>
-      <c r="C92" s="232"/>
-      <c r="D92" s="232"/>
-      <c r="E92" s="232"/>
-      <c r="F92" s="232"/>
-      <c r="G92" s="232"/>
+      <c r="B92" s="187"/>
+      <c r="C92" s="187"/>
+      <c r="D92" s="187"/>
+      <c r="E92" s="187"/>
+      <c r="F92" s="187"/>
+      <c r="G92" s="187"/>
     </row>
     <row r="93" spans="2:7" customFormat="1">
-      <c r="B93" s="232" t="s">
+      <c r="B93" s="187" t="s">
         <v>285</v>
       </c>
-      <c r="C93" s="232" t="s">
+      <c r="C93" s="187" t="s">
         <v>337</v>
       </c>
-      <c r="D93" s="232"/>
-      <c r="E93" s="232"/>
-      <c r="F93" s="232"/>
-      <c r="G93" s="232"/>
+      <c r="D93" s="187"/>
+      <c r="E93" s="187"/>
+      <c r="F93" s="187"/>
+      <c r="G93" s="187"/>
     </row>
     <row r="94" spans="2:7" customFormat="1">
-      <c r="B94" s="232"/>
-      <c r="C94" s="232"/>
-      <c r="D94" s="232"/>
-      <c r="E94" s="232"/>
-      <c r="F94" s="232"/>
-      <c r="G94" s="232"/>
+      <c r="B94" s="187"/>
+      <c r="C94" s="187"/>
+      <c r="D94" s="187"/>
+      <c r="E94" s="187"/>
+      <c r="F94" s="187"/>
+      <c r="G94" s="187"/>
     </row>
     <row r="95" spans="2:7" customFormat="1">
-      <c r="B95" s="232" t="s">
+      <c r="B95" s="187" t="s">
         <v>286</v>
       </c>
-      <c r="C95" s="232" t="s">
+      <c r="C95" s="187" t="s">
         <v>338</v>
       </c>
-      <c r="D95" s="232"/>
-      <c r="E95" s="232"/>
-      <c r="F95" s="232"/>
-      <c r="G95" s="232"/>
+      <c r="D95" s="187"/>
+      <c r="E95" s="187"/>
+      <c r="F95" s="187"/>
+      <c r="G95" s="187"/>
     </row>
     <row r="96" spans="2:7" customFormat="1">
-      <c r="B96" s="232"/>
-      <c r="C96" s="232"/>
-      <c r="D96" s="232"/>
-      <c r="E96" s="232"/>
-      <c r="F96" s="232"/>
-      <c r="G96" s="232"/>
+      <c r="B96" s="187"/>
+      <c r="C96" s="187"/>
+      <c r="D96" s="187"/>
+      <c r="E96" s="187"/>
+      <c r="F96" s="187"/>
+      <c r="G96" s="187"/>
     </row>
     <row r="97" spans="1:7" customFormat="1">
-      <c r="B97" s="232" t="s">
+      <c r="B97" s="187" t="s">
         <v>287</v>
       </c>
-      <c r="C97" s="232" t="s">
+      <c r="C97" s="187" t="s">
         <v>339</v>
       </c>
-      <c r="D97" s="232"/>
-      <c r="E97" s="232"/>
-      <c r="F97" s="232"/>
-      <c r="G97" s="232"/>
+      <c r="D97" s="187"/>
+      <c r="E97" s="187"/>
+      <c r="F97" s="187"/>
+      <c r="G97" s="187"/>
     </row>
     <row r="98" spans="1:7" customFormat="1">
-      <c r="B98" s="232"/>
-      <c r="C98" s="232"/>
-      <c r="D98" s="232"/>
-      <c r="E98" s="232"/>
-      <c r="F98" s="232"/>
-      <c r="G98" s="232"/>
+      <c r="B98" s="187"/>
+      <c r="C98" s="187"/>
+      <c r="D98" s="187"/>
+      <c r="E98" s="187"/>
+      <c r="F98" s="187"/>
+      <c r="G98" s="187"/>
     </row>
     <row r="99" spans="1:7" customFormat="1">
-      <c r="B99" s="232" t="s">
+      <c r="B99" s="187" t="s">
         <v>288</v>
       </c>
-      <c r="C99" s="232" t="s">
+      <c r="C99" s="187" t="s">
         <v>340</v>
       </c>
-      <c r="D99" s="232"/>
-      <c r="E99" s="232"/>
-      <c r="F99" s="232"/>
-      <c r="G99" s="232"/>
+      <c r="D99" s="187"/>
+      <c r="E99" s="187"/>
+      <c r="F99" s="187"/>
+      <c r="G99" s="187"/>
     </row>
     <row r="100" spans="1:7" customFormat="1">
-      <c r="B100" s="232"/>
-      <c r="C100" s="232"/>
-      <c r="D100" s="232"/>
-      <c r="E100" s="232"/>
-      <c r="F100" s="232"/>
-      <c r="G100" s="232"/>
+      <c r="B100" s="187"/>
+      <c r="C100" s="187"/>
+      <c r="D100" s="187"/>
+      <c r="E100" s="187"/>
+      <c r="F100" s="187"/>
+      <c r="G100" s="187"/>
     </row>
     <row r="101" spans="1:7" customFormat="1">
-      <c r="B101" s="232" t="s">
+      <c r="B101" s="238" t="s">
         <v>347</v>
       </c>
-      <c r="C101" s="232" t="s">
+      <c r="C101" s="238" t="s">
         <v>345</v>
       </c>
-      <c r="D101" s="232"/>
-      <c r="E101" s="232"/>
-      <c r="F101" s="232"/>
-      <c r="G101" s="232"/>
+      <c r="D101" s="187"/>
+      <c r="E101" s="187"/>
+      <c r="F101" s="187"/>
+      <c r="G101" s="187"/>
     </row>
     <row r="102" spans="1:7" customFormat="1">
-      <c r="B102" s="232"/>
-      <c r="C102" s="232"/>
-      <c r="D102" s="232"/>
-      <c r="E102" s="232"/>
-      <c r="F102" s="232"/>
-      <c r="G102" s="232"/>
+      <c r="B102" s="187"/>
+      <c r="C102" s="187"/>
+      <c r="D102" s="187"/>
+      <c r="E102" s="187"/>
+      <c r="F102" s="187"/>
+      <c r="G102" s="187"/>
     </row>
     <row r="103" spans="1:7" customFormat="1">
-      <c r="B103" s="232" t="s">
+      <c r="B103" s="187" t="s">
         <v>348</v>
       </c>
-      <c r="C103" s="232" t="s">
+      <c r="C103" s="187" t="s">
         <v>342</v>
       </c>
-      <c r="D103" s="232"/>
-      <c r="E103" s="232"/>
-      <c r="F103" s="232"/>
-      <c r="G103" s="232"/>
+      <c r="D103" s="187"/>
+      <c r="E103" s="187"/>
+      <c r="F103" s="187"/>
+      <c r="G103" s="187"/>
     </row>
     <row r="104" spans="1:7" customFormat="1">
-      <c r="B104" s="232"/>
-      <c r="C104" s="232"/>
-      <c r="D104" s="232"/>
-      <c r="E104" s="232"/>
-      <c r="F104" s="232"/>
-      <c r="G104" s="232"/>
+      <c r="B104" s="187"/>
+      <c r="C104" s="187"/>
+      <c r="D104" s="187"/>
+      <c r="E104" s="187"/>
+      <c r="F104" s="187"/>
+      <c r="G104" s="187"/>
     </row>
     <row r="105" spans="1:7" customFormat="1">
-      <c r="B105" s="232" t="s">
+      <c r="B105" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="C105" s="232" t="s">
+      <c r="C105" s="187" t="s">
         <v>343</v>
       </c>
-      <c r="D105" s="232"/>
-      <c r="E105" s="232"/>
-      <c r="F105" s="232"/>
-      <c r="G105" s="232"/>
+      <c r="D105" s="187"/>
+      <c r="E105" s="187"/>
+      <c r="F105" s="187"/>
+      <c r="G105" s="187"/>
     </row>
     <row r="106" spans="1:7" customFormat="1">
-      <c r="B106" s="232"/>
-      <c r="C106" s="232"/>
-      <c r="D106" s="232"/>
-      <c r="E106" s="232"/>
-      <c r="F106" s="232"/>
-      <c r="G106" s="232"/>
+      <c r="B106" s="187"/>
+      <c r="C106" s="187"/>
+      <c r="D106" s="187"/>
+      <c r="E106" s="187"/>
+      <c r="F106" s="187"/>
+      <c r="G106" s="187"/>
     </row>
     <row r="107" spans="1:7" customFormat="1">
-      <c r="B107" s="232" t="s">
+      <c r="B107" s="187" t="s">
         <v>291</v>
       </c>
-      <c r="C107" s="232" t="s">
+      <c r="C107" s="187" t="s">
         <v>344</v>
       </c>
-      <c r="D107" s="232"/>
-      <c r="E107" s="232"/>
-      <c r="F107" s="232"/>
-      <c r="G107" s="232"/>
+      <c r="D107" s="187"/>
+      <c r="E107" s="187"/>
+      <c r="F107" s="187"/>
+      <c r="G107" s="187"/>
     </row>
     <row r="108" spans="1:7" customFormat="1">
-      <c r="B108" s="232"/>
-      <c r="C108" s="232"/>
-      <c r="D108" s="232"/>
-      <c r="E108" s="232"/>
-      <c r="F108" s="232"/>
-      <c r="G108" s="232"/>
+      <c r="B108" s="187"/>
+      <c r="C108" s="187"/>
+      <c r="D108" s="187"/>
+      <c r="E108" s="187"/>
+      <c r="F108" s="187"/>
+      <c r="G108" s="187"/>
     </row>
     <row r="109" spans="1:7" customFormat="1">
-      <c r="B109" s="232" t="s">
+      <c r="B109" s="238" t="s">
         <v>292</v>
       </c>
-      <c r="C109" s="232" t="s">
+      <c r="C109" s="238" t="s">
         <v>345</v>
       </c>
-      <c r="D109" s="232"/>
-      <c r="E109" s="232"/>
-      <c r="F109" s="232"/>
-      <c r="G109" s="232"/>
+      <c r="D109" s="187"/>
+      <c r="E109" s="187"/>
+      <c r="F109" s="187"/>
+      <c r="G109" s="187"/>
     </row>
     <row r="110" spans="1:7" customFormat="1">
-      <c r="B110" s="232"/>
-      <c r="C110" s="232"/>
-      <c r="D110" s="232"/>
-      <c r="E110" s="232"/>
-      <c r="F110" s="232"/>
-      <c r="G110" s="232"/>
+      <c r="B110" s="187"/>
+      <c r="C110" s="187"/>
+      <c r="D110" s="187"/>
+      <c r="E110" s="187"/>
+      <c r="F110" s="187"/>
+      <c r="G110" s="187"/>
     </row>
     <row r="111" spans="1:7" customFormat="1">
-      <c r="B111" s="233" t="s">
+      <c r="B111" s="239" t="s">
         <v>293</v>
       </c>
-      <c r="C111" s="233" t="s">
+      <c r="C111" s="239" t="s">
         <v>346</v>
       </c>
-      <c r="D111" s="233"/>
-      <c r="E111" s="233"/>
-      <c r="F111" s="233"/>
-      <c r="G111" s="233"/>
+      <c r="D111" s="188"/>
+      <c r="E111" s="188"/>
+      <c r="F111" s="188"/>
+      <c r="G111" s="188"/>
     </row>
   </sheetData>
   <phoneticPr fontId="37"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9248,10 +9271,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" ht="13.5">
-      <c r="C1" s="234" t="s">
+      <c r="C1" s="189" t="s">
         <v>294</v>
       </c>
-      <c r="D1" s="234" t="s">
+      <c r="D1" s="189" t="s">
         <v>208</v>
       </c>
       <c r="E1" s="56" t="s">
@@ -9259,10 +9282,10 @@
       </c>
     </row>
     <row r="2" spans="3:5">
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="186" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="231" t="s">
+      <c r="D2" s="186" t="s">
         <v>298</v>
       </c>
       <c r="E2" s="168" t="s">
@@ -9270,10 +9293,10 @@
       </c>
     </row>
     <row r="3" spans="3:5">
-      <c r="C3" s="232" t="s">
+      <c r="C3" s="187" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="232" t="s">
+      <c r="D3" s="187" t="s">
         <v>299</v>
       </c>
       <c r="E3" s="168" t="s">
@@ -9281,10 +9304,10 @@
       </c>
     </row>
     <row r="4" spans="3:5">
-      <c r="C4" s="232" t="s">
+      <c r="C4" s="187" t="s">
         <v>244</v>
       </c>
-      <c r="D4" s="232" t="s">
+      <c r="D4" s="187" t="s">
         <v>300</v>
       </c>
       <c r="E4" s="168" t="s">
@@ -9292,10 +9315,10 @@
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="232" t="s">
+      <c r="C5" s="187" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="232" t="s">
+      <c r="D5" s="187" t="s">
         <v>301</v>
       </c>
       <c r="E5" s="168" t="s">
@@ -9303,410 +9326,410 @@
       </c>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="232" t="s">
+      <c r="C6" s="187" t="s">
         <v>246</v>
       </c>
-      <c r="D6" s="232" t="s">
+      <c r="D6" s="187" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="232" t="s">
+      <c r="C7" s="187" t="s">
         <v>247</v>
       </c>
-      <c r="D7" s="232" t="s">
+      <c r="D7" s="187" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="232" t="s">
+      <c r="C8" s="187" t="s">
         <v>248</v>
       </c>
-      <c r="D8" s="232" t="s">
+      <c r="D8" s="187" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="232" t="s">
+      <c r="C9" s="187" t="s">
         <v>249</v>
       </c>
-      <c r="D9" s="232" t="s">
+      <c r="D9" s="187" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="232" t="s">
+      <c r="C10" s="187" t="s">
         <v>250</v>
       </c>
-      <c r="D10" s="232" t="s">
+      <c r="D10" s="187" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="232" t="s">
+      <c r="C11" s="187" t="s">
         <v>251</v>
       </c>
-      <c r="D11" s="232" t="s">
+      <c r="D11" s="187" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="232" t="s">
+      <c r="C12" s="187" t="s">
         <v>252</v>
       </c>
-      <c r="D12" s="232" t="s">
+      <c r="D12" s="187" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="232" t="s">
+      <c r="C13" s="187" t="s">
         <v>253</v>
       </c>
-      <c r="D13" s="232" t="s">
+      <c r="D13" s="187" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="232" t="s">
+      <c r="C14" s="187" t="s">
         <v>254</v>
       </c>
-      <c r="D14" s="232" t="s">
+      <c r="D14" s="187" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="232" t="s">
+      <c r="C15" s="187" t="s">
         <v>255</v>
       </c>
-      <c r="D15" s="232" t="s">
+      <c r="D15" s="187" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="232" t="s">
+      <c r="C16" s="187" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="232" t="s">
+      <c r="D16" s="187" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="232" t="s">
+      <c r="C17" s="187" t="s">
         <v>257</v>
       </c>
-      <c r="D17" s="232" t="s">
+      <c r="D17" s="187" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="232" t="s">
+      <c r="C18" s="187" t="s">
         <v>258</v>
       </c>
-      <c r="D18" s="232" t="s">
+      <c r="D18" s="187" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="232" t="s">
+      <c r="C19" s="187" t="s">
         <v>259</v>
       </c>
-      <c r="D19" s="232" t="s">
+      <c r="D19" s="187" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="232" t="s">
+      <c r="C20" s="187" t="s">
         <v>260</v>
       </c>
-      <c r="D20" s="232" t="s">
+      <c r="D20" s="187" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="232" t="s">
+      <c r="C21" s="187" t="s">
         <v>261</v>
       </c>
-      <c r="D21" s="232" t="s">
+      <c r="D21" s="187" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="232" t="s">
+      <c r="C22" s="187" t="s">
         <v>262</v>
       </c>
-      <c r="D22" s="232" t="s">
+      <c r="D22" s="187" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="232" t="s">
+      <c r="C23" s="187" t="s">
         <v>263</v>
       </c>
-      <c r="D23" s="232" t="s">
+      <c r="D23" s="187" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="232" t="s">
+      <c r="C24" s="187" t="s">
         <v>264</v>
       </c>
-      <c r="D24" s="232" t="s">
+      <c r="D24" s="187" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="232" t="s">
+      <c r="C25" s="187" t="s">
         <v>265</v>
       </c>
-      <c r="D25" s="232" t="s">
+      <c r="D25" s="187" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="232" t="s">
+      <c r="C26" s="187" t="s">
         <v>266</v>
       </c>
-      <c r="D26" s="232" t="s">
+      <c r="D26" s="187" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="232" t="s">
+      <c r="C27" s="187" t="s">
         <v>267</v>
       </c>
-      <c r="D27" s="232" t="s">
+      <c r="D27" s="187" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="219" t="s">
+      <c r="C28" s="174" t="s">
         <v>268</v>
       </c>
-      <c r="D28" s="219" t="s">
+      <c r="D28" s="174" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="232" t="s">
+      <c r="C29" s="187" t="s">
         <v>269</v>
       </c>
-      <c r="D29" s="232" t="s">
+      <c r="D29" s="187" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="232" t="s">
+      <c r="C30" s="187" t="s">
         <v>270</v>
       </c>
-      <c r="D30" s="232" t="s">
+      <c r="D30" s="187" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="232" t="s">
+      <c r="C31" s="187" t="s">
         <v>271</v>
       </c>
-      <c r="D31" s="232" t="s">
+      <c r="D31" s="187" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="232" t="s">
+      <c r="C32" s="187" t="s">
         <v>271</v>
       </c>
-      <c r="D32" s="232" t="s">
+      <c r="D32" s="187" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="232" t="s">
+      <c r="C33" s="187" t="s">
         <v>271</v>
       </c>
-      <c r="D33" s="232" t="s">
+      <c r="D33" s="187" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="232" t="s">
+      <c r="C34" s="187" t="s">
         <v>272</v>
       </c>
-      <c r="D34" s="232" t="s">
+      <c r="D34" s="187" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="232" t="s">
+      <c r="C35" s="187" t="s">
         <v>273</v>
       </c>
-      <c r="D35" s="232" t="s">
+      <c r="D35" s="187" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="232" t="s">
+      <c r="C36" s="187" t="s">
         <v>274</v>
       </c>
-      <c r="D36" s="232" t="s">
+      <c r="D36" s="187" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="232" t="s">
+      <c r="C37" s="187" t="s">
         <v>275</v>
       </c>
-      <c r="D37" s="232" t="s">
+      <c r="D37" s="187" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="232" t="s">
+      <c r="C38" s="187" t="s">
         <v>276</v>
       </c>
-      <c r="D38" s="232" t="s">
+      <c r="D38" s="187" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="39" spans="3:4">
-      <c r="C39" s="232" t="s">
+      <c r="C39" s="187" t="s">
         <v>277</v>
       </c>
-      <c r="D39" s="232" t="s">
+      <c r="D39" s="187" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="40" spans="3:4">
-      <c r="C40" s="232" t="s">
+      <c r="C40" s="187" t="s">
         <v>278</v>
       </c>
-      <c r="D40" s="232" t="s">
+      <c r="D40" s="187" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="41" spans="3:4">
-      <c r="C41" s="232" t="s">
+      <c r="C41" s="187" t="s">
         <v>279</v>
       </c>
-      <c r="D41" s="232" t="s">
+      <c r="D41" s="187" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="42" spans="3:4">
-      <c r="C42" s="232" t="s">
+      <c r="C42" s="187" t="s">
         <v>280</v>
       </c>
-      <c r="D42" s="232" t="s">
+      <c r="D42" s="187" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="43" spans="3:4">
-      <c r="C43" s="232" t="s">
+      <c r="C43" s="187" t="s">
         <v>281</v>
       </c>
-      <c r="D43" s="232" t="s">
+      <c r="D43" s="187" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="44" spans="3:4">
-      <c r="C44" s="232" t="s">
+      <c r="C44" s="187" t="s">
         <v>282</v>
       </c>
-      <c r="D44" s="232" t="s">
+      <c r="D44" s="187" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="45" spans="3:4">
-      <c r="C45" s="232" t="s">
+      <c r="C45" s="187" t="s">
         <v>283</v>
       </c>
-      <c r="D45" s="232" t="s">
+      <c r="D45" s="187" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="46" spans="3:4">
-      <c r="C46" s="232" t="s">
+      <c r="C46" s="187" t="s">
         <v>284</v>
       </c>
-      <c r="D46" s="232" t="s">
+      <c r="D46" s="187" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="47" spans="3:4">
-      <c r="C47" s="232" t="s">
+      <c r="C47" s="187" t="s">
         <v>285</v>
       </c>
-      <c r="D47" s="232" t="s">
+      <c r="D47" s="187" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="48" spans="3:4">
-      <c r="C48" s="232" t="s">
+      <c r="C48" s="187" t="s">
         <v>286</v>
       </c>
-      <c r="D48" s="232" t="s">
+      <c r="D48" s="187" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="49" spans="3:4">
-      <c r="C49" s="232" t="s">
+      <c r="C49" s="187" t="s">
         <v>287</v>
       </c>
-      <c r="D49" s="232" t="s">
+      <c r="D49" s="187" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="50" spans="3:4">
-      <c r="C50" s="232" t="s">
+      <c r="C50" s="187" t="s">
         <v>288</v>
       </c>
-      <c r="D50" s="232" t="s">
+      <c r="D50" s="187" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="51" spans="3:4">
-      <c r="C51" s="232" t="s">
+      <c r="C51" s="187" t="s">
         <v>347</v>
       </c>
-      <c r="D51" s="232" t="s">
+      <c r="D51" s="187" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="52" spans="3:4">
-      <c r="C52" s="232" t="s">
+      <c r="C52" s="187" t="s">
         <v>348</v>
       </c>
-      <c r="D52" s="232" t="s">
+      <c r="D52" s="187" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="53" spans="3:4">
-      <c r="C53" s="232" t="s">
+      <c r="C53" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="D53" s="232" t="s">
+      <c r="D53" s="187" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="54" spans="3:4">
-      <c r="C54" s="232" t="s">
+      <c r="C54" s="187" t="s">
         <v>291</v>
       </c>
-      <c r="D54" s="232" t="s">
+      <c r="D54" s="187" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="55" spans="3:4">
-      <c r="C55" s="232" t="s">
+      <c r="C55" s="187" t="s">
         <v>292</v>
       </c>
-      <c r="D55" s="232" t="s">
+      <c r="D55" s="187" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="56" spans="3:4">
-      <c r="C56" s="233" t="s">
+      <c r="C56" s="188" t="s">
         <v>293</v>
       </c>
-      <c r="D56" s="233" t="s">
+      <c r="D56" s="188" t="s">
         <v>346</v>
       </c>
     </row>
@@ -9931,12 +9954,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="19.5">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="215" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
     </row>
     <row r="2" spans="1:60" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="28"/>
@@ -9962,96 +9985,96 @@
     </row>
     <row r="3" spans="1:60" s="22" customFormat="1" ht="12">
       <c r="A3" s="154"/>
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="216" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="208" t="s">
+      <c r="C3" s="216" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="216" t="s">
+      <c r="D3" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="210" t="s">
+      <c r="E3" s="222" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="157"/>
       <c r="G3" s="158"/>
       <c r="H3" s="159"/>
-      <c r="I3" s="213" t="s">
+      <c r="I3" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="207" t="s">
+      <c r="J3" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="202" t="s">
+      <c r="K3" s="226"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="226"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="225" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="203"/>
-      <c r="V3" s="203"/>
-      <c r="W3" s="203"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="203"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="203"/>
-      <c r="AC3" s="204"/>
-      <c r="AD3" s="202" t="s">
+      <c r="U3" s="226"/>
+      <c r="V3" s="226"/>
+      <c r="W3" s="226"/>
+      <c r="X3" s="226"/>
+      <c r="Y3" s="226"/>
+      <c r="Z3" s="226"/>
+      <c r="AA3" s="226"/>
+      <c r="AB3" s="226"/>
+      <c r="AC3" s="227"/>
+      <c r="AD3" s="225" t="s">
         <v>6</v>
       </c>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="203"/>
-      <c r="AG3" s="203"/>
-      <c r="AH3" s="203"/>
-      <c r="AI3" s="203"/>
-      <c r="AJ3" s="203"/>
-      <c r="AK3" s="203"/>
-      <c r="AL3" s="203"/>
-      <c r="AM3" s="204"/>
-      <c r="AN3" s="202" t="s">
+      <c r="AE3" s="226"/>
+      <c r="AF3" s="226"/>
+      <c r="AG3" s="226"/>
+      <c r="AH3" s="226"/>
+      <c r="AI3" s="226"/>
+      <c r="AJ3" s="226"/>
+      <c r="AK3" s="226"/>
+      <c r="AL3" s="226"/>
+      <c r="AM3" s="227"/>
+      <c r="AN3" s="225" t="s">
         <v>7</v>
       </c>
-      <c r="AO3" s="203"/>
-      <c r="AP3" s="203"/>
-      <c r="AQ3" s="203"/>
-      <c r="AR3" s="203"/>
-      <c r="AS3" s="203"/>
-      <c r="AT3" s="203"/>
-      <c r="AU3" s="203"/>
-      <c r="AV3" s="203"/>
-      <c r="AW3" s="204"/>
-      <c r="AX3" s="202" t="s">
+      <c r="AO3" s="226"/>
+      <c r="AP3" s="226"/>
+      <c r="AQ3" s="226"/>
+      <c r="AR3" s="226"/>
+      <c r="AS3" s="226"/>
+      <c r="AT3" s="226"/>
+      <c r="AU3" s="226"/>
+      <c r="AV3" s="226"/>
+      <c r="AW3" s="227"/>
+      <c r="AX3" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="203"/>
-      <c r="AZ3" s="203"/>
-      <c r="BA3" s="203"/>
-      <c r="BB3" s="203"/>
-      <c r="BC3" s="203"/>
-      <c r="BD3" s="203"/>
-      <c r="BE3" s="203"/>
-      <c r="BF3" s="203"/>
-      <c r="BG3" s="204"/>
+      <c r="AY3" s="226"/>
+      <c r="AZ3" s="226"/>
+      <c r="BA3" s="226"/>
+      <c r="BB3" s="226"/>
+      <c r="BC3" s="226"/>
+      <c r="BD3" s="226"/>
+      <c r="BE3" s="226"/>
+      <c r="BF3" s="226"/>
+      <c r="BG3" s="227"/>
     </row>
     <row r="4" spans="1:60" s="22" customFormat="1" ht="12">
       <c r="A4" s="155"/>
-      <c r="B4" s="195"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="211"/>
+      <c r="B4" s="217"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="223"/>
       <c r="F4" s="160"/>
       <c r="G4" s="161"/>
       <c r="H4" s="162"/>
-      <c r="I4" s="214"/>
-      <c r="J4" s="205" t="s">
+      <c r="I4" s="213"/>
+      <c r="J4" s="228" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="37" t="s">
@@ -10061,18 +10084,18 @@
         <f>COUNTIF(J7:J324,"1")/$C$2*100</f>
         <v>0</v>
       </c>
-      <c r="M4" s="195" t="s">
+      <c r="M4" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="195"/>
-      <c r="O4" s="198" t="s">
+      <c r="N4" s="217"/>
+      <c r="O4" s="230" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="199"/>
-      <c r="Q4" s="199"/>
-      <c r="R4" s="199"/>
-      <c r="S4" s="200"/>
-      <c r="T4" s="193" t="s">
+      <c r="P4" s="231"/>
+      <c r="Q4" s="231"/>
+      <c r="R4" s="231"/>
+      <c r="S4" s="232"/>
+      <c r="T4" s="233" t="s">
         <v>9</v>
       </c>
       <c r="U4" s="37" t="s">
@@ -10082,143 +10105,143 @@
         <f>COUNTIF(T7:T324,"1")/$C$2*100</f>
         <v>0</v>
       </c>
-      <c r="W4" s="195" t="s">
+      <c r="W4" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="195"/>
-      <c r="Y4" s="198"/>
-      <c r="Z4" s="199"/>
+      <c r="X4" s="217"/>
+      <c r="Y4" s="230"/>
+      <c r="Z4" s="231"/>
       <c r="AA4" s="27"/>
       <c r="AB4" s="27"/>
       <c r="AC4" s="26"/>
-      <c r="AD4" s="193" t="s">
+      <c r="AD4" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="195" t="s">
+      <c r="AE4" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="AF4" s="195"/>
-      <c r="AG4" s="196" t="s">
+      <c r="AF4" s="217"/>
+      <c r="AG4" s="236" t="s">
         <v>11</v>
       </c>
-      <c r="AH4" s="196"/>
-      <c r="AI4" s="196"/>
-      <c r="AJ4" s="196"/>
-      <c r="AK4" s="196"/>
-      <c r="AL4" s="196"/>
-      <c r="AM4" s="197"/>
-      <c r="AN4" s="193" t="s">
+      <c r="AH4" s="236"/>
+      <c r="AI4" s="236"/>
+      <c r="AJ4" s="236"/>
+      <c r="AK4" s="236"/>
+      <c r="AL4" s="236"/>
+      <c r="AM4" s="237"/>
+      <c r="AN4" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="195" t="s">
+      <c r="AO4" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="AP4" s="195"/>
-      <c r="AQ4" s="196"/>
-      <c r="AR4" s="196"/>
-      <c r="AS4" s="196"/>
-      <c r="AT4" s="196"/>
-      <c r="AU4" s="196"/>
-      <c r="AV4" s="196"/>
-      <c r="AW4" s="197"/>
-      <c r="AX4" s="193" t="s">
+      <c r="AP4" s="217"/>
+      <c r="AQ4" s="236"/>
+      <c r="AR4" s="236"/>
+      <c r="AS4" s="236"/>
+      <c r="AT4" s="236"/>
+      <c r="AU4" s="236"/>
+      <c r="AV4" s="236"/>
+      <c r="AW4" s="237"/>
+      <c r="AX4" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="AY4" s="195" t="s">
+      <c r="AY4" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="AZ4" s="195"/>
-      <c r="BA4" s="196"/>
-      <c r="BB4" s="196"/>
-      <c r="BC4" s="196"/>
-      <c r="BD4" s="196"/>
-      <c r="BE4" s="196"/>
-      <c r="BF4" s="196"/>
-      <c r="BG4" s="197"/>
+      <c r="AZ4" s="217"/>
+      <c r="BA4" s="236"/>
+      <c r="BB4" s="236"/>
+      <c r="BC4" s="236"/>
+      <c r="BD4" s="236"/>
+      <c r="BE4" s="236"/>
+      <c r="BF4" s="236"/>
+      <c r="BG4" s="237"/>
     </row>
     <row r="5" spans="1:60" s="22" customFormat="1" ht="12">
       <c r="A5" s="155"/>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="211"/>
+      <c r="B5" s="217"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="223"/>
       <c r="F5" s="160"/>
       <c r="G5" s="161"/>
       <c r="H5" s="162"/>
-      <c r="I5" s="214"/>
-      <c r="J5" s="205"/>
-      <c r="K5" s="195" t="s">
+      <c r="I5" s="213"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="195"/>
-      <c r="M5" s="198" t="s">
+      <c r="L5" s="217"/>
+      <c r="M5" s="230" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="199"/>
-      <c r="O5" s="199"/>
-      <c r="P5" s="199"/>
-      <c r="Q5" s="199"/>
-      <c r="R5" s="199"/>
-      <c r="S5" s="200"/>
-      <c r="T5" s="193"/>
-      <c r="U5" s="195" t="s">
+      <c r="N5" s="231"/>
+      <c r="O5" s="231"/>
+      <c r="P5" s="231"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="232"/>
+      <c r="T5" s="233"/>
+      <c r="U5" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="V5" s="195"/>
-      <c r="W5" s="198"/>
-      <c r="X5" s="199"/>
-      <c r="Y5" s="199"/>
-      <c r="Z5" s="199"/>
-      <c r="AA5" s="199"/>
-      <c r="AB5" s="199"/>
-      <c r="AC5" s="200"/>
-      <c r="AD5" s="193"/>
-      <c r="AE5" s="195" t="s">
+      <c r="V5" s="217"/>
+      <c r="W5" s="230"/>
+      <c r="X5" s="231"/>
+      <c r="Y5" s="231"/>
+      <c r="Z5" s="231"/>
+      <c r="AA5" s="231"/>
+      <c r="AB5" s="231"/>
+      <c r="AC5" s="232"/>
+      <c r="AD5" s="233"/>
+      <c r="AE5" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="AF5" s="195"/>
-      <c r="AG5" s="198" t="s">
+      <c r="AF5" s="217"/>
+      <c r="AG5" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="AH5" s="199"/>
-      <c r="AI5" s="199"/>
-      <c r="AJ5" s="199"/>
-      <c r="AK5" s="199"/>
-      <c r="AL5" s="199"/>
-      <c r="AM5" s="200"/>
-      <c r="AN5" s="193"/>
-      <c r="AO5" s="195" t="s">
+      <c r="AH5" s="231"/>
+      <c r="AI5" s="231"/>
+      <c r="AJ5" s="231"/>
+      <c r="AK5" s="231"/>
+      <c r="AL5" s="231"/>
+      <c r="AM5" s="232"/>
+      <c r="AN5" s="233"/>
+      <c r="AO5" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="AP5" s="195"/>
-      <c r="AQ5" s="196"/>
-      <c r="AR5" s="196"/>
-      <c r="AS5" s="196"/>
-      <c r="AT5" s="196"/>
-      <c r="AU5" s="196"/>
-      <c r="AV5" s="196"/>
-      <c r="AW5" s="197"/>
-      <c r="AX5" s="193"/>
-      <c r="AY5" s="195" t="s">
+      <c r="AP5" s="217"/>
+      <c r="AQ5" s="236"/>
+      <c r="AR5" s="236"/>
+      <c r="AS5" s="236"/>
+      <c r="AT5" s="236"/>
+      <c r="AU5" s="236"/>
+      <c r="AV5" s="236"/>
+      <c r="AW5" s="237"/>
+      <c r="AX5" s="233"/>
+      <c r="AY5" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="AZ5" s="195"/>
-      <c r="BA5" s="196"/>
-      <c r="BB5" s="196"/>
-      <c r="BC5" s="196"/>
-      <c r="BD5" s="196"/>
-      <c r="BE5" s="196"/>
-      <c r="BF5" s="196"/>
-      <c r="BG5" s="197"/>
+      <c r="AZ5" s="217"/>
+      <c r="BA5" s="236"/>
+      <c r="BB5" s="236"/>
+      <c r="BC5" s="236"/>
+      <c r="BD5" s="236"/>
+      <c r="BE5" s="236"/>
+      <c r="BF5" s="236"/>
+      <c r="BG5" s="237"/>
     </row>
     <row r="6" spans="1:60" s="22" customFormat="1" ht="24.75" thickBot="1">
       <c r="A6" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="209"/>
-      <c r="C6" s="209"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="212"/>
+      <c r="B6" s="218"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="224"/>
       <c r="F6" s="173" t="s">
         <v>188</v>
       </c>
@@ -10228,8 +10251,8 @@
       <c r="H6" s="163" t="s">
         <v>191</v>
       </c>
-      <c r="I6" s="215"/>
-      <c r="J6" s="206"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="229"/>
       <c r="K6" s="36" t="s">
         <v>14</v>
       </c>
@@ -10257,7 +10280,7 @@
       <c r="S6" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="T6" s="194"/>
+      <c r="T6" s="234"/>
       <c r="U6" s="36" t="s">
         <v>14</v>
       </c>
@@ -10285,7 +10308,7 @@
       <c r="AC6" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="194"/>
+      <c r="AD6" s="234"/>
       <c r="AE6" s="36" t="s">
         <v>14</v>
       </c>
@@ -10313,7 +10336,7 @@
       <c r="AM6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AN6" s="194"/>
+      <c r="AN6" s="234"/>
       <c r="AO6" s="36" t="s">
         <v>14</v>
       </c>
@@ -10341,7 +10364,7 @@
       <c r="AW6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AX6" s="194"/>
+      <c r="AX6" s="234"/>
       <c r="AY6" s="36" t="s">
         <v>14</v>
       </c>
@@ -10448,7 +10471,7 @@
         <v>77</v>
       </c>
       <c r="G8" s="145"/>
-      <c r="H8" s="222" t="s">
+      <c r="H8" s="177" t="s">
         <v>233</v>
       </c>
       <c r="I8" s="78"/>
@@ -10500,16 +10523,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="225" t="s">
+      <c r="C9" s="178"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="180" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="219" t="s">
+      <c r="F9" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="220"/>
-      <c r="H9" s="221" t="s">
+      <c r="G9" s="175"/>
+      <c r="H9" s="176" t="s">
         <v>236</v>
       </c>
       <c r="I9" s="78"/>
@@ -10561,7 +10584,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="17"/>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="181" t="s">
         <v>234</v>
       </c>
       <c r="D10" s="62" t="s">
@@ -10699,7 +10722,7 @@
       <c r="F12" s="115" t="s">
         <v>239</v>
       </c>
-      <c r="G12" s="227" t="s">
+      <c r="G12" s="182" t="s">
         <v>240</v>
       </c>
       <c r="H12" s="106"/>
@@ -10807,7 +10830,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="17"/>
-      <c r="C14" s="223"/>
+      <c r="C14" s="178"/>
       <c r="D14" s="96"/>
       <c r="E14" s="100"/>
       <c r="F14" s="117"/>
@@ -10865,7 +10888,7 @@
       <c r="C15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="228" t="s">
+      <c r="D15" s="183" t="s">
         <v>242</v>
       </c>
       <c r="E15" s="72"/>
@@ -10922,7 +10945,7 @@
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="229" t="s">
+      <c r="D16" s="184" t="s">
         <v>243</v>
       </c>
       <c r="E16" s="72"/>
@@ -10979,7 +11002,7 @@
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="229" t="s">
+      <c r="D17" s="184" t="s">
         <v>244</v>
       </c>
       <c r="E17" s="72"/>
@@ -11036,7 +11059,7 @@
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="229" t="s">
+      <c r="D18" s="184" t="s">
         <v>245</v>
       </c>
       <c r="E18" s="72"/>
@@ -11093,7 +11116,7 @@
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="229" t="s">
+      <c r="D19" s="184" t="s">
         <v>246</v>
       </c>
       <c r="E19" s="72"/>
@@ -11150,7 +11173,7 @@
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="229" t="s">
+      <c r="D20" s="184" t="s">
         <v>247</v>
       </c>
       <c r="E20" s="72"/>
@@ -11207,7 +11230,7 @@
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="229" t="s">
+      <c r="D21" s="184" t="s">
         <v>248</v>
       </c>
       <c r="E21" s="73"/>
@@ -11264,7 +11287,7 @@
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="229" t="s">
+      <c r="D22" s="184" t="s">
         <v>249</v>
       </c>
       <c r="E22" s="73"/>
@@ -11321,7 +11344,7 @@
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="229" t="s">
+      <c r="D23" s="184" t="s">
         <v>250</v>
       </c>
       <c r="E23" s="72"/>
@@ -11378,7 +11401,7 @@
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="229" t="s">
+      <c r="D24" s="184" t="s">
         <v>251</v>
       </c>
       <c r="E24" s="72"/>
@@ -11435,7 +11458,7 @@
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="229" t="s">
+      <c r="D25" s="184" t="s">
         <v>252</v>
       </c>
       <c r="E25" s="72"/>
@@ -11492,7 +11515,7 @@
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="229" t="s">
+      <c r="D26" s="184" t="s">
         <v>253</v>
       </c>
       <c r="E26" s="72"/>
@@ -11549,7 +11572,7 @@
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="229" t="s">
+      <c r="D27" s="184" t="s">
         <v>254</v>
       </c>
       <c r="E27" s="72"/>
@@ -11606,7 +11629,7 @@
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="229" t="s">
+      <c r="D28" s="184" t="s">
         <v>255</v>
       </c>
       <c r="E28" s="72"/>
@@ -11663,7 +11686,7 @@
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="229" t="s">
+      <c r="D29" s="184" t="s">
         <v>256</v>
       </c>
       <c r="E29" s="72"/>
@@ -11720,7 +11743,7 @@
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="229" t="s">
+      <c r="D30" s="184" t="s">
         <v>257</v>
       </c>
       <c r="E30" s="72"/>
@@ -11777,7 +11800,7 @@
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="229" t="s">
+      <c r="D31" s="184" t="s">
         <v>258</v>
       </c>
       <c r="E31" s="72"/>
@@ -11834,7 +11857,7 @@
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="229" t="s">
+      <c r="D32" s="184" t="s">
         <v>259</v>
       </c>
       <c r="E32" s="72"/>
@@ -11891,7 +11914,7 @@
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="229" t="s">
+      <c r="D33" s="184" t="s">
         <v>260</v>
       </c>
       <c r="E33" s="72"/>
@@ -11948,7 +11971,7 @@
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
-      <c r="D34" s="229" t="s">
+      <c r="D34" s="184" t="s">
         <v>261</v>
       </c>
       <c r="E34" s="72"/>
@@ -12005,7 +12028,7 @@
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
-      <c r="D35" s="229" t="s">
+      <c r="D35" s="184" t="s">
         <v>262</v>
       </c>
       <c r="E35" s="72"/>
@@ -12062,7 +12085,7 @@
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="229" t="s">
+      <c r="D36" s="184" t="s">
         <v>263</v>
       </c>
       <c r="E36" s="72"/>
@@ -12119,7 +12142,7 @@
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="229" t="s">
+      <c r="D37" s="184" t="s">
         <v>264</v>
       </c>
       <c r="E37" s="72"/>
@@ -12176,7 +12199,7 @@
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="229" t="s">
+      <c r="D38" s="184" t="s">
         <v>265</v>
       </c>
       <c r="E38" s="72"/>
@@ -12233,7 +12256,7 @@
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="229" t="s">
+      <c r="D39" s="184" t="s">
         <v>266</v>
       </c>
       <c r="E39" s="72"/>
@@ -12290,7 +12313,7 @@
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
-      <c r="D40" s="229" t="s">
+      <c r="D40" s="184" t="s">
         <v>267</v>
       </c>
       <c r="E40" s="72"/>
@@ -12347,7 +12370,7 @@
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
-      <c r="D41" s="230" t="s">
+      <c r="D41" s="185" t="s">
         <v>268</v>
       </c>
       <c r="E41" s="72"/>
@@ -12404,7 +12427,7 @@
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
-      <c r="D42" s="229" t="s">
+      <c r="D42" s="184" t="s">
         <v>269</v>
       </c>
       <c r="E42" s="72"/>
@@ -12461,7 +12484,7 @@
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
-      <c r="D43" s="229" t="s">
+      <c r="D43" s="184" t="s">
         <v>270</v>
       </c>
       <c r="E43" s="72"/>
@@ -12518,7 +12541,7 @@
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
-      <c r="D44" s="229" t="s">
+      <c r="D44" s="184" t="s">
         <v>271</v>
       </c>
       <c r="E44" s="72"/>
@@ -12575,7 +12598,7 @@
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
-      <c r="D45" s="229" t="s">
+      <c r="D45" s="184" t="s">
         <v>272</v>
       </c>
       <c r="E45" s="72"/>
@@ -12632,7 +12655,7 @@
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
-      <c r="D46" s="229" t="s">
+      <c r="D46" s="184" t="s">
         <v>273</v>
       </c>
       <c r="E46" s="72"/>
@@ -12689,7 +12712,7 @@
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
-      <c r="D47" s="229" t="s">
+      <c r="D47" s="184" t="s">
         <v>274</v>
       </c>
       <c r="E47" s="72"/>
@@ -12746,7 +12769,7 @@
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
-      <c r="D48" s="229" t="s">
+      <c r="D48" s="184" t="s">
         <v>275</v>
       </c>
       <c r="E48" s="72"/>
@@ -12803,7 +12826,7 @@
       </c>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
-      <c r="D49" s="229" t="s">
+      <c r="D49" s="184" t="s">
         <v>276</v>
       </c>
       <c r="E49" s="72"/>
@@ -12860,7 +12883,7 @@
       </c>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
-      <c r="D50" s="229" t="s">
+      <c r="D50" s="184" t="s">
         <v>277</v>
       </c>
       <c r="E50" s="72"/>
@@ -12917,7 +12940,7 @@
       </c>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
-      <c r="D51" s="229" t="s">
+      <c r="D51" s="184" t="s">
         <v>278</v>
       </c>
       <c r="E51" s="72"/>
@@ -12974,7 +12997,7 @@
       </c>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
-      <c r="D52" s="229" t="s">
+      <c r="D52" s="184" t="s">
         <v>279</v>
       </c>
       <c r="E52" s="72"/>
@@ -13031,7 +13054,7 @@
       </c>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
-      <c r="D53" s="229" t="s">
+      <c r="D53" s="184" t="s">
         <v>280</v>
       </c>
       <c r="E53" s="72"/>
@@ -13088,7 +13111,7 @@
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
-      <c r="D54" s="229" t="s">
+      <c r="D54" s="184" t="s">
         <v>281</v>
       </c>
       <c r="E54" s="72"/>
@@ -13145,7 +13168,7 @@
       </c>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
-      <c r="D55" s="229" t="s">
+      <c r="D55" s="184" t="s">
         <v>282</v>
       </c>
       <c r="E55" s="72"/>
@@ -13202,7 +13225,7 @@
       </c>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
-      <c r="D56" s="229" t="s">
+      <c r="D56" s="184" t="s">
         <v>283</v>
       </c>
       <c r="E56" s="72"/>
@@ -13259,7 +13282,7 @@
       </c>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
-      <c r="D57" s="229" t="s">
+      <c r="D57" s="184" t="s">
         <v>284</v>
       </c>
       <c r="E57" s="72"/>
@@ -13316,7 +13339,7 @@
       </c>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
-      <c r="D58" s="229" t="s">
+      <c r="D58" s="184" t="s">
         <v>285</v>
       </c>
       <c r="E58" s="72"/>
@@ -13373,7 +13396,7 @@
       </c>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
-      <c r="D59" s="229" t="s">
+      <c r="D59" s="184" t="s">
         <v>286</v>
       </c>
       <c r="E59" s="72"/>
@@ -13430,7 +13453,7 @@
       </c>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
-      <c r="D60" s="229" t="s">
+      <c r="D60" s="184" t="s">
         <v>287</v>
       </c>
       <c r="E60" s="72"/>
@@ -13487,7 +13510,7 @@
       </c>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
-      <c r="D61" s="229" t="s">
+      <c r="D61" s="184" t="s">
         <v>288</v>
       </c>
       <c r="E61" s="72"/>
@@ -13544,7 +13567,7 @@
       </c>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
-      <c r="D62" s="229" t="s">
+      <c r="D62" s="184" t="s">
         <v>289</v>
       </c>
       <c r="E62" s="72"/>
@@ -13601,7 +13624,7 @@
       </c>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
-      <c r="D63" s="229" t="s">
+      <c r="D63" s="184" t="s">
         <v>290</v>
       </c>
       <c r="E63" s="72"/>
@@ -13658,7 +13681,7 @@
       </c>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
-      <c r="D64" s="229" t="s">
+      <c r="D64" s="184" t="s">
         <v>291</v>
       </c>
       <c r="E64" s="72"/>
@@ -13715,7 +13738,7 @@
       </c>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
-      <c r="D65" s="229" t="s">
+      <c r="D65" s="184" t="s">
         <v>292</v>
       </c>
       <c r="E65" s="72"/>
@@ -13772,7 +13795,7 @@
       </c>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
-      <c r="D66" s="229" t="s">
+      <c r="D66" s="184" t="s">
         <v>293</v>
       </c>
       <c r="E66" s="72"/>
@@ -32787,16 +32810,19 @@
     <mergeCell ref="AX4:AX6"/>
     <mergeCell ref="AY4:AZ4"/>
     <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AM4"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:S5"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="W5:AC5"/>
     <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AD4:AD6"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AM4"/>
+    <mergeCell ref="AX3:BG3"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="W4:X4"/>
     <mergeCell ref="AN4:AN6"/>
     <mergeCell ref="AO4:AP4"/>
     <mergeCell ref="AO5:AP5"/>
@@ -32804,18 +32830,15 @@
     <mergeCell ref="T3:AC3"/>
     <mergeCell ref="AD3:AM3"/>
     <mergeCell ref="AN3:AW3"/>
-    <mergeCell ref="AX3:BG3"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="I3:I6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="E3:E6"/>
-    <mergeCell ref="I3:I6"/>
   </mergeCells>
   <phoneticPr fontId="37"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -32905,12 +32928,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="19.5">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="215" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
     </row>
     <row r="2" spans="1:59" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="28"/>
@@ -32936,96 +32959,96 @@
     </row>
     <row r="3" spans="1:59" s="22" customFormat="1" ht="12">
       <c r="A3" s="154"/>
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="216" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="208" t="s">
+      <c r="C3" s="216" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="216" t="s">
+      <c r="D3" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="210" t="s">
+      <c r="E3" s="222" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="157"/>
       <c r="G3" s="158"/>
       <c r="H3" s="159"/>
-      <c r="I3" s="213" t="s">
+      <c r="I3" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="207" t="s">
+      <c r="J3" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="202" t="s">
+      <c r="K3" s="226"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="226"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="225" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="203"/>
-      <c r="V3" s="203"/>
-      <c r="W3" s="203"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="203"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="203"/>
-      <c r="AC3" s="204"/>
-      <c r="AD3" s="202" t="s">
+      <c r="U3" s="226"/>
+      <c r="V3" s="226"/>
+      <c r="W3" s="226"/>
+      <c r="X3" s="226"/>
+      <c r="Y3" s="226"/>
+      <c r="Z3" s="226"/>
+      <c r="AA3" s="226"/>
+      <c r="AB3" s="226"/>
+      <c r="AC3" s="227"/>
+      <c r="AD3" s="225" t="s">
         <v>6</v>
       </c>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="203"/>
-      <c r="AG3" s="203"/>
-      <c r="AH3" s="203"/>
-      <c r="AI3" s="203"/>
-      <c r="AJ3" s="203"/>
-      <c r="AK3" s="203"/>
-      <c r="AL3" s="203"/>
-      <c r="AM3" s="204"/>
-      <c r="AN3" s="202" t="s">
+      <c r="AE3" s="226"/>
+      <c r="AF3" s="226"/>
+      <c r="AG3" s="226"/>
+      <c r="AH3" s="226"/>
+      <c r="AI3" s="226"/>
+      <c r="AJ3" s="226"/>
+      <c r="AK3" s="226"/>
+      <c r="AL3" s="226"/>
+      <c r="AM3" s="227"/>
+      <c r="AN3" s="225" t="s">
         <v>7</v>
       </c>
-      <c r="AO3" s="203"/>
-      <c r="AP3" s="203"/>
-      <c r="AQ3" s="203"/>
-      <c r="AR3" s="203"/>
-      <c r="AS3" s="203"/>
-      <c r="AT3" s="203"/>
-      <c r="AU3" s="203"/>
-      <c r="AV3" s="203"/>
-      <c r="AW3" s="204"/>
-      <c r="AX3" s="202" t="s">
+      <c r="AO3" s="226"/>
+      <c r="AP3" s="226"/>
+      <c r="AQ3" s="226"/>
+      <c r="AR3" s="226"/>
+      <c r="AS3" s="226"/>
+      <c r="AT3" s="226"/>
+      <c r="AU3" s="226"/>
+      <c r="AV3" s="226"/>
+      <c r="AW3" s="227"/>
+      <c r="AX3" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="203"/>
-      <c r="AZ3" s="203"/>
-      <c r="BA3" s="203"/>
-      <c r="BB3" s="203"/>
-      <c r="BC3" s="203"/>
-      <c r="BD3" s="203"/>
-      <c r="BE3" s="203"/>
-      <c r="BF3" s="203"/>
-      <c r="BG3" s="204"/>
+      <c r="AY3" s="226"/>
+      <c r="AZ3" s="226"/>
+      <c r="BA3" s="226"/>
+      <c r="BB3" s="226"/>
+      <c r="BC3" s="226"/>
+      <c r="BD3" s="226"/>
+      <c r="BE3" s="226"/>
+      <c r="BF3" s="226"/>
+      <c r="BG3" s="227"/>
     </row>
     <row r="4" spans="1:59" s="22" customFormat="1" ht="12">
       <c r="A4" s="155"/>
-      <c r="B4" s="195"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="211"/>
+      <c r="B4" s="217"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="223"/>
       <c r="F4" s="160"/>
       <c r="G4" s="161"/>
       <c r="H4" s="162"/>
-      <c r="I4" s="214"/>
-      <c r="J4" s="205" t="s">
+      <c r="I4" s="213"/>
+      <c r="J4" s="228" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="37" t="s">
@@ -33035,18 +33058,18 @@
         <f>COUNTIF(J7:J297,"1")/$C$2*100</f>
         <v>0</v>
       </c>
-      <c r="M4" s="195" t="s">
+      <c r="M4" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="195"/>
-      <c r="O4" s="198" t="s">
+      <c r="N4" s="217"/>
+      <c r="O4" s="230" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="199"/>
-      <c r="Q4" s="199"/>
-      <c r="R4" s="199"/>
-      <c r="S4" s="200"/>
-      <c r="T4" s="193" t="s">
+      <c r="P4" s="231"/>
+      <c r="Q4" s="231"/>
+      <c r="R4" s="231"/>
+      <c r="S4" s="232"/>
+      <c r="T4" s="233" t="s">
         <v>9</v>
       </c>
       <c r="U4" s="37" t="s">
@@ -33056,143 +33079,143 @@
         <f>COUNTIF(T7:T297,"1")/$C$2*100</f>
         <v>0</v>
       </c>
-      <c r="W4" s="195" t="s">
+      <c r="W4" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="195"/>
-      <c r="Y4" s="198"/>
-      <c r="Z4" s="199"/>
+      <c r="X4" s="217"/>
+      <c r="Y4" s="230"/>
+      <c r="Z4" s="231"/>
       <c r="AA4" s="27"/>
       <c r="AB4" s="27"/>
       <c r="AC4" s="26"/>
-      <c r="AD4" s="193" t="s">
+      <c r="AD4" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="195" t="s">
+      <c r="AE4" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="AF4" s="195"/>
-      <c r="AG4" s="196" t="s">
+      <c r="AF4" s="217"/>
+      <c r="AG4" s="236" t="s">
         <v>11</v>
       </c>
-      <c r="AH4" s="196"/>
-      <c r="AI4" s="196"/>
-      <c r="AJ4" s="196"/>
-      <c r="AK4" s="196"/>
-      <c r="AL4" s="196"/>
-      <c r="AM4" s="197"/>
-      <c r="AN4" s="193" t="s">
+      <c r="AH4" s="236"/>
+      <c r="AI4" s="236"/>
+      <c r="AJ4" s="236"/>
+      <c r="AK4" s="236"/>
+      <c r="AL4" s="236"/>
+      <c r="AM4" s="237"/>
+      <c r="AN4" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="195" t="s">
+      <c r="AO4" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="AP4" s="195"/>
-      <c r="AQ4" s="196"/>
-      <c r="AR4" s="196"/>
-      <c r="AS4" s="196"/>
-      <c r="AT4" s="196"/>
-      <c r="AU4" s="196"/>
-      <c r="AV4" s="196"/>
-      <c r="AW4" s="197"/>
-      <c r="AX4" s="193" t="s">
+      <c r="AP4" s="217"/>
+      <c r="AQ4" s="236"/>
+      <c r="AR4" s="236"/>
+      <c r="AS4" s="236"/>
+      <c r="AT4" s="236"/>
+      <c r="AU4" s="236"/>
+      <c r="AV4" s="236"/>
+      <c r="AW4" s="237"/>
+      <c r="AX4" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="AY4" s="195" t="s">
+      <c r="AY4" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="AZ4" s="195"/>
-      <c r="BA4" s="196"/>
-      <c r="BB4" s="196"/>
-      <c r="BC4" s="196"/>
-      <c r="BD4" s="196"/>
-      <c r="BE4" s="196"/>
-      <c r="BF4" s="196"/>
-      <c r="BG4" s="197"/>
+      <c r="AZ4" s="217"/>
+      <c r="BA4" s="236"/>
+      <c r="BB4" s="236"/>
+      <c r="BC4" s="236"/>
+      <c r="BD4" s="236"/>
+      <c r="BE4" s="236"/>
+      <c r="BF4" s="236"/>
+      <c r="BG4" s="237"/>
     </row>
     <row r="5" spans="1:59" s="22" customFormat="1" ht="12">
       <c r="A5" s="155"/>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="211"/>
+      <c r="B5" s="217"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="223"/>
       <c r="F5" s="160"/>
       <c r="G5" s="161"/>
       <c r="H5" s="162"/>
-      <c r="I5" s="214"/>
-      <c r="J5" s="205"/>
-      <c r="K5" s="195" t="s">
+      <c r="I5" s="213"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="195"/>
-      <c r="M5" s="198" t="s">
+      <c r="L5" s="217"/>
+      <c r="M5" s="230" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="199"/>
-      <c r="O5" s="199"/>
-      <c r="P5" s="199"/>
-      <c r="Q5" s="199"/>
-      <c r="R5" s="199"/>
-      <c r="S5" s="200"/>
-      <c r="T5" s="193"/>
-      <c r="U5" s="195" t="s">
+      <c r="N5" s="231"/>
+      <c r="O5" s="231"/>
+      <c r="P5" s="231"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="232"/>
+      <c r="T5" s="233"/>
+      <c r="U5" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="V5" s="195"/>
-      <c r="W5" s="198"/>
-      <c r="X5" s="199"/>
-      <c r="Y5" s="199"/>
-      <c r="Z5" s="199"/>
-      <c r="AA5" s="199"/>
-      <c r="AB5" s="199"/>
-      <c r="AC5" s="200"/>
-      <c r="AD5" s="193"/>
-      <c r="AE5" s="195" t="s">
+      <c r="V5" s="217"/>
+      <c r="W5" s="230"/>
+      <c r="X5" s="231"/>
+      <c r="Y5" s="231"/>
+      <c r="Z5" s="231"/>
+      <c r="AA5" s="231"/>
+      <c r="AB5" s="231"/>
+      <c r="AC5" s="232"/>
+      <c r="AD5" s="233"/>
+      <c r="AE5" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="AF5" s="195"/>
-      <c r="AG5" s="198" t="s">
+      <c r="AF5" s="217"/>
+      <c r="AG5" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="AH5" s="199"/>
-      <c r="AI5" s="199"/>
-      <c r="AJ5" s="199"/>
-      <c r="AK5" s="199"/>
-      <c r="AL5" s="199"/>
-      <c r="AM5" s="200"/>
-      <c r="AN5" s="193"/>
-      <c r="AO5" s="195" t="s">
+      <c r="AH5" s="231"/>
+      <c r="AI5" s="231"/>
+      <c r="AJ5" s="231"/>
+      <c r="AK5" s="231"/>
+      <c r="AL5" s="231"/>
+      <c r="AM5" s="232"/>
+      <c r="AN5" s="233"/>
+      <c r="AO5" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="AP5" s="195"/>
-      <c r="AQ5" s="196"/>
-      <c r="AR5" s="196"/>
-      <c r="AS5" s="196"/>
-      <c r="AT5" s="196"/>
-      <c r="AU5" s="196"/>
-      <c r="AV5" s="196"/>
-      <c r="AW5" s="197"/>
-      <c r="AX5" s="193"/>
-      <c r="AY5" s="195" t="s">
+      <c r="AP5" s="217"/>
+      <c r="AQ5" s="236"/>
+      <c r="AR5" s="236"/>
+      <c r="AS5" s="236"/>
+      <c r="AT5" s="236"/>
+      <c r="AU5" s="236"/>
+      <c r="AV5" s="236"/>
+      <c r="AW5" s="237"/>
+      <c r="AX5" s="233"/>
+      <c r="AY5" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="AZ5" s="195"/>
-      <c r="BA5" s="196"/>
-      <c r="BB5" s="196"/>
-      <c r="BC5" s="196"/>
-      <c r="BD5" s="196"/>
-      <c r="BE5" s="196"/>
-      <c r="BF5" s="196"/>
-      <c r="BG5" s="197"/>
+      <c r="AZ5" s="217"/>
+      <c r="BA5" s="236"/>
+      <c r="BB5" s="236"/>
+      <c r="BC5" s="236"/>
+      <c r="BD5" s="236"/>
+      <c r="BE5" s="236"/>
+      <c r="BF5" s="236"/>
+      <c r="BG5" s="237"/>
     </row>
     <row r="6" spans="1:59" s="22" customFormat="1" ht="24.75" thickBot="1">
       <c r="A6" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="209"/>
-      <c r="C6" s="209"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="212"/>
+      <c r="B6" s="218"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="224"/>
       <c r="F6" s="83" t="s">
         <v>188</v>
       </c>
@@ -33202,8 +33225,8 @@
       <c r="H6" s="163" t="s">
         <v>191</v>
       </c>
-      <c r="I6" s="215"/>
-      <c r="J6" s="206"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="229"/>
       <c r="K6" s="36" t="s">
         <v>14</v>
       </c>
@@ -33231,7 +33254,7 @@
       <c r="S6" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="T6" s="194"/>
+      <c r="T6" s="234"/>
       <c r="U6" s="36" t="s">
         <v>14</v>
       </c>
@@ -33259,7 +33282,7 @@
       <c r="AC6" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="194"/>
+      <c r="AD6" s="234"/>
       <c r="AE6" s="36" t="s">
         <v>14</v>
       </c>
@@ -33287,7 +33310,7 @@
       <c r="AM6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AN6" s="194"/>
+      <c r="AN6" s="234"/>
       <c r="AO6" s="36" t="s">
         <v>14</v>
       </c>
@@ -33315,7 +33338,7 @@
       <c r="AW6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AX6" s="194"/>
+      <c r="AX6" s="234"/>
       <c r="AY6" s="36" t="s">
         <v>14</v>
       </c>

--- a/trunk/sample/【単体テスト】01_ユーザ管理.xlsx
+++ b/trunk/sample/【単体テスト】01_ユーザ管理.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E507FAC2-45CC-4BC5-AB5E-5E39F62F4F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{866D259F-1BB9-4E5F-A19F-CF337C00B4BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="6240" windowWidth="19290" windowHeight="29640" tabRatio="857" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="19410" windowHeight="32700" tabRatio="857" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="4">user!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:J55"/>
+  <oleSize ref="A1:U52"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="408">
   <si>
     <t>ﾄﾗﾝｽｺｽﾓｽ検査</t>
     <rPh sb="8" eb="10">
@@ -1746,6 +1746,584 @@
     <t>after_or_equal</t>
     <phoneticPr fontId="37"/>
   </si>
+  <si>
+    <t>対象の日よりも-3日前の日付を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>次へボタンを押下する</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>入力画面が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>エラー文言が表示されている</t>
+    <rPh sb="3" eb="5">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>対象の日と同日を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドウジツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>確認画面が表示される</t>
+    <rPh sb="0" eb="4">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>対象の日よりも+3日前の日付を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>対象の日よりも-3日の日付を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>対象日よりも+1日の日付を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>対象日よりも-1日の日付を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>範囲最小値よりも-1の値を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>範囲の最小値を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サイショウチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>範囲最大値よりも+1の値を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>範囲の最大値を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>対象日よりも+1日の日付を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>対象日ど同日を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウジツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>yyyy/dd/mmを入力</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>2020/2/30を入力</t>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>2020/2/29を入力</t>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>今の日付を入力</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>最大値+1の値を入力</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>最大値を入力</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>最大値-1の値を入力</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>最小値-1の値を入力</t>
+    <rPh sb="0" eb="3">
+      <t>サイショウチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>最小値を入力</t>
+    <rPh sb="0" eb="3">
+      <t>サイショウチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>最小値+1の値を入力</t>
+    <rPh sb="0" eb="3">
+      <t>サイショウチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>英字を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>日本語を入力する</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ニュウ</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>0.01を入力する</t>
+    <rPh sb="5" eb="9">
+      <t>ニュ</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>1を入力する</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>未入力にする</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>正常値を入力する</t>
+    <rPh sb="0" eb="3">
+      <t>セイジョウチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>対象と異なる値を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>対象と同じ値を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>日本語を入力する</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>foo..bar@tk.comを入力する</t>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>hoge@hoge.comを入力する</t>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>配列外の値を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>配列内の値を入力する</t>
+    <rPh sb="0" eb="3">
+      <t>ハイレツナイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>英数字を入力する</t>
+    <rPh sb="0" eb="3">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>URLを入力する</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>cls_val</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>//*[@id="btnSubmit"]</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>compare:url</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>not_if:exit</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>compare:exist</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>//*[@id="errorMsg_{{form_id}}"]</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>get_val</t>
+  </si>
+  <si>
+    <t>compare:buf</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>inText</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>aaaa</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>{{url_confirm_screen}}</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>{{url_input_screen}}</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>loop</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>loopA</t>
+    <phoneticPr fontId="37"/>
+  </si>
 </sst>
 </file>
 
@@ -2596,7 +3174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="95">
+  <borders count="105">
     <border>
       <left/>
       <right/>
@@ -3840,6 +4418,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4559,7 +5257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -5060,7 +5758,81 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="31" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="90" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="65" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5197,15 +5969,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="31" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="253">
@@ -5811,40 +6574,40 @@
     <row r="1" spans="1:52">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="193"/>
-      <c r="S1" s="193"/>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="193"/>
-      <c r="AA1" s="193"/>
-      <c r="AB1" s="193"/>
-      <c r="AC1" s="193"/>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="193"/>
-      <c r="AG1" s="193"/>
-      <c r="AH1" s="193"/>
-      <c r="AI1" s="193"/>
-      <c r="AJ1" s="193"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="223"/>
+      <c r="O1" s="223"/>
+      <c r="P1" s="223"/>
+      <c r="Q1" s="223"/>
+      <c r="R1" s="223"/>
+      <c r="S1" s="223"/>
+      <c r="T1" s="223"/>
+      <c r="U1" s="223"/>
+      <c r="V1" s="223"/>
+      <c r="W1" s="223"/>
+      <c r="X1" s="223"/>
+      <c r="Y1" s="223"/>
+      <c r="Z1" s="223"/>
+      <c r="AA1" s="223"/>
+      <c r="AB1" s="223"/>
+      <c r="AC1" s="223"/>
+      <c r="AD1" s="223"/>
+      <c r="AE1" s="223"/>
+      <c r="AF1" s="223"/>
+      <c r="AG1" s="223"/>
+      <c r="AH1" s="223"/>
+      <c r="AI1" s="223"/>
+      <c r="AJ1" s="223"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
@@ -5865,40 +6628,40 @@
     <row r="2" spans="1:52">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="193"/>
-      <c r="AB2" s="193"/>
-      <c r="AC2" s="193"/>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="193"/>
-      <c r="AG2" s="193"/>
-      <c r="AH2" s="193"/>
-      <c r="AI2" s="193"/>
-      <c r="AJ2" s="193"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="223"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="223"/>
+      <c r="S2" s="223"/>
+      <c r="T2" s="223"/>
+      <c r="U2" s="223"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="223"/>
+      <c r="X2" s="223"/>
+      <c r="Y2" s="223"/>
+      <c r="Z2" s="223"/>
+      <c r="AA2" s="223"/>
+      <c r="AB2" s="223"/>
+      <c r="AC2" s="223"/>
+      <c r="AD2" s="223"/>
+      <c r="AE2" s="223"/>
+      <c r="AF2" s="223"/>
+      <c r="AG2" s="223"/>
+      <c r="AH2" s="223"/>
+      <c r="AI2" s="223"/>
+      <c r="AJ2" s="223"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
@@ -5971,53 +6734,53 @@
       <c r="AZ3" s="5"/>
     </row>
     <row r="4" spans="1:52">
-      <c r="A4" s="194"/>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="194"/>
-      <c r="K4" s="194"/>
-      <c r="L4" s="194"/>
-      <c r="M4" s="194"/>
-      <c r="N4" s="194"/>
-      <c r="O4" s="194"/>
-      <c r="P4" s="194"/>
-      <c r="Q4" s="194"/>
-      <c r="R4" s="194"/>
-      <c r="S4" s="194"/>
-      <c r="T4" s="194"/>
-      <c r="U4" s="194"/>
-      <c r="V4" s="194"/>
-      <c r="W4" s="194"/>
-      <c r="X4" s="194"/>
-      <c r="Y4" s="194"/>
-      <c r="Z4" s="194"/>
-      <c r="AA4" s="194"/>
-      <c r="AB4" s="194"/>
-      <c r="AC4" s="194"/>
-      <c r="AD4" s="194"/>
-      <c r="AE4" s="194"/>
-      <c r="AF4" s="194"/>
-      <c r="AG4" s="194"/>
-      <c r="AH4" s="194"/>
-      <c r="AI4" s="194"/>
-      <c r="AJ4" s="194"/>
-      <c r="AK4" s="194"/>
-      <c r="AL4" s="194"/>
-      <c r="AM4" s="194"/>
-      <c r="AN4" s="194"/>
-      <c r="AO4" s="194"/>
-      <c r="AP4" s="194"/>
-      <c r="AQ4" s="194"/>
-      <c r="AR4" s="194"/>
-      <c r="AS4" s="194"/>
-      <c r="AT4" s="194"/>
-      <c r="AU4" s="194"/>
+      <c r="A4" s="224"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="224"/>
+      <c r="M4" s="224"/>
+      <c r="N4" s="224"/>
+      <c r="O4" s="224"/>
+      <c r="P4" s="224"/>
+      <c r="Q4" s="224"/>
+      <c r="R4" s="224"/>
+      <c r="S4" s="224"/>
+      <c r="T4" s="224"/>
+      <c r="U4" s="224"/>
+      <c r="V4" s="224"/>
+      <c r="W4" s="224"/>
+      <c r="X4" s="224"/>
+      <c r="Y4" s="224"/>
+      <c r="Z4" s="224"/>
+      <c r="AA4" s="224"/>
+      <c r="AB4" s="224"/>
+      <c r="AC4" s="224"/>
+      <c r="AD4" s="224"/>
+      <c r="AE4" s="224"/>
+      <c r="AF4" s="224"/>
+      <c r="AG4" s="224"/>
+      <c r="AH4" s="224"/>
+      <c r="AI4" s="224"/>
+      <c r="AJ4" s="224"/>
+      <c r="AK4" s="224"/>
+      <c r="AL4" s="224"/>
+      <c r="AM4" s="224"/>
+      <c r="AN4" s="224"/>
+      <c r="AO4" s="224"/>
+      <c r="AP4" s="224"/>
+      <c r="AQ4" s="224"/>
+      <c r="AR4" s="224"/>
+      <c r="AS4" s="224"/>
+      <c r="AT4" s="224"/>
+      <c r="AU4" s="224"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
@@ -6025,53 +6788,53 @@
       <c r="AZ4" s="5"/>
     </row>
     <row r="5" spans="1:52">
-      <c r="A5" s="194"/>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="194"/>
-      <c r="O5" s="194"/>
-      <c r="P5" s="194"/>
-      <c r="Q5" s="194"/>
-      <c r="R5" s="194"/>
-      <c r="S5" s="194"/>
-      <c r="T5" s="194"/>
-      <c r="U5" s="194"/>
-      <c r="V5" s="194"/>
-      <c r="W5" s="194"/>
-      <c r="X5" s="194"/>
-      <c r="Y5" s="194"/>
-      <c r="Z5" s="194"/>
-      <c r="AA5" s="194"/>
-      <c r="AB5" s="194"/>
-      <c r="AC5" s="194"/>
-      <c r="AD5" s="194"/>
-      <c r="AE5" s="194"/>
-      <c r="AF5" s="194"/>
-      <c r="AG5" s="194"/>
-      <c r="AH5" s="194"/>
-      <c r="AI5" s="194"/>
-      <c r="AJ5" s="194"/>
-      <c r="AK5" s="194"/>
-      <c r="AL5" s="194"/>
-      <c r="AM5" s="194"/>
-      <c r="AN5" s="194"/>
-      <c r="AO5" s="194"/>
-      <c r="AP5" s="194"/>
-      <c r="AQ5" s="194"/>
-      <c r="AR5" s="194"/>
-      <c r="AS5" s="194"/>
-      <c r="AT5" s="194"/>
-      <c r="AU5" s="194"/>
+      <c r="A5" s="224"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="224"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="224"/>
+      <c r="L5" s="224"/>
+      <c r="M5" s="224"/>
+      <c r="N5" s="224"/>
+      <c r="O5" s="224"/>
+      <c r="P5" s="224"/>
+      <c r="Q5" s="224"/>
+      <c r="R5" s="224"/>
+      <c r="S5" s="224"/>
+      <c r="T5" s="224"/>
+      <c r="U5" s="224"/>
+      <c r="V5" s="224"/>
+      <c r="W5" s="224"/>
+      <c r="X5" s="224"/>
+      <c r="Y5" s="224"/>
+      <c r="Z5" s="224"/>
+      <c r="AA5" s="224"/>
+      <c r="AB5" s="224"/>
+      <c r="AC5" s="224"/>
+      <c r="AD5" s="224"/>
+      <c r="AE5" s="224"/>
+      <c r="AF5" s="224"/>
+      <c r="AG5" s="224"/>
+      <c r="AH5" s="224"/>
+      <c r="AI5" s="224"/>
+      <c r="AJ5" s="224"/>
+      <c r="AK5" s="224"/>
+      <c r="AL5" s="224"/>
+      <c r="AM5" s="224"/>
+      <c r="AN5" s="224"/>
+      <c r="AO5" s="224"/>
+      <c r="AP5" s="224"/>
+      <c r="AQ5" s="224"/>
+      <c r="AR5" s="224"/>
+      <c r="AS5" s="224"/>
+      <c r="AT5" s="224"/>
+      <c r="AU5" s="224"/>
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
@@ -7865,22 +8628,22 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="195"/>
-      <c r="F39" s="196"/>
-      <c r="G39" s="196"/>
-      <c r="H39" s="197"/>
-      <c r="I39" s="198" t="s">
+      <c r="E39" s="225"/>
+      <c r="F39" s="226"/>
+      <c r="G39" s="226"/>
+      <c r="H39" s="227"/>
+      <c r="I39" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="J39" s="199"/>
-      <c r="K39" s="199"/>
-      <c r="L39" s="200"/>
-      <c r="M39" s="198" t="s">
+      <c r="J39" s="229"/>
+      <c r="K39" s="229"/>
+      <c r="L39" s="230"/>
+      <c r="M39" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="N39" s="199"/>
-      <c r="O39" s="199"/>
-      <c r="P39" s="200"/>
+      <c r="N39" s="229"/>
+      <c r="O39" s="229"/>
+      <c r="P39" s="230"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -7923,18 +8686,18 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="202"/>
-      <c r="F40" s="203"/>
-      <c r="G40" s="203"/>
-      <c r="H40" s="204"/>
-      <c r="I40" s="202"/>
-      <c r="J40" s="203"/>
-      <c r="K40" s="203"/>
-      <c r="L40" s="204"/>
-      <c r="M40" s="202"/>
-      <c r="N40" s="203"/>
-      <c r="O40" s="203"/>
-      <c r="P40" s="204"/>
+      <c r="E40" s="232"/>
+      <c r="F40" s="233"/>
+      <c r="G40" s="233"/>
+      <c r="H40" s="234"/>
+      <c r="I40" s="232"/>
+      <c r="J40" s="233"/>
+      <c r="K40" s="233"/>
+      <c r="L40" s="234"/>
+      <c r="M40" s="232"/>
+      <c r="N40" s="233"/>
+      <c r="O40" s="233"/>
+      <c r="P40" s="234"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -7977,18 +8740,18 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="205"/>
-      <c r="F41" s="206"/>
-      <c r="G41" s="206"/>
-      <c r="H41" s="207"/>
-      <c r="I41" s="205"/>
-      <c r="J41" s="206"/>
-      <c r="K41" s="206"/>
-      <c r="L41" s="207"/>
-      <c r="M41" s="205"/>
-      <c r="N41" s="206"/>
-      <c r="O41" s="206"/>
-      <c r="P41" s="207"/>
+      <c r="E41" s="235"/>
+      <c r="F41" s="236"/>
+      <c r="G41" s="236"/>
+      <c r="H41" s="237"/>
+      <c r="I41" s="235"/>
+      <c r="J41" s="236"/>
+      <c r="K41" s="236"/>
+      <c r="L41" s="237"/>
+      <c r="M41" s="235"/>
+      <c r="N41" s="236"/>
+      <c r="O41" s="236"/>
+      <c r="P41" s="237"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -8031,18 +8794,18 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="208"/>
-      <c r="F42" s="209"/>
-      <c r="G42" s="209"/>
-      <c r="H42" s="210"/>
-      <c r="I42" s="208"/>
-      <c r="J42" s="209"/>
-      <c r="K42" s="209"/>
-      <c r="L42" s="210"/>
-      <c r="M42" s="208"/>
-      <c r="N42" s="209"/>
-      <c r="O42" s="209"/>
-      <c r="P42" s="210"/>
+      <c r="E42" s="238"/>
+      <c r="F42" s="239"/>
+      <c r="G42" s="239"/>
+      <c r="H42" s="240"/>
+      <c r="I42" s="238"/>
+      <c r="J42" s="239"/>
+      <c r="K42" s="239"/>
+      <c r="L42" s="240"/>
+      <c r="M42" s="238"/>
+      <c r="N42" s="239"/>
+      <c r="O42" s="239"/>
+      <c r="P42" s="240"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -8065,18 +8828,18 @@
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
-      <c r="AM42" s="211">
+      <c r="AM42" s="241">
         <v>42094</v>
       </c>
-      <c r="AN42" s="211"/>
-      <c r="AO42" s="211"/>
-      <c r="AP42" s="211"/>
-      <c r="AQ42" s="211"/>
-      <c r="AR42" s="201">
+      <c r="AN42" s="241"/>
+      <c r="AO42" s="241"/>
+      <c r="AP42" s="241"/>
+      <c r="AQ42" s="241"/>
+      <c r="AR42" s="231">
         <v>1</v>
       </c>
-      <c r="AS42" s="201"/>
-      <c r="AT42" s="201"/>
+      <c r="AS42" s="231"/>
+      <c r="AT42" s="231"/>
       <c r="AU42" s="1"/>
       <c r="AV42" s="5"/>
       <c r="AW42" s="5"/>
@@ -8111,22 +8874,24 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622EEA5A-B824-4CE0-A332-A65B8CAD5EEB}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:H293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A198" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.125" customWidth="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" customFormat="1">
+    <row r="1" spans="1:7" customFormat="1">
       <c r="B1" t="s">
         <v>295</v>
       </c>
@@ -8134,7 +8899,10 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="2:7" customFormat="1">
+    <row r="2" spans="1:7" customFormat="1">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
       <c r="B2" s="190" t="s">
         <v>294</v>
       </c>
@@ -8154,7 +8922,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="2:7" customFormat="1">
+    <row r="3" spans="1:7" customFormat="1">
       <c r="B3" s="186" t="s">
         <v>242</v>
       </c>
@@ -8166,942 +8934,956 @@
       <c r="F3" s="186"/>
       <c r="G3" s="186"/>
     </row>
-    <row r="4" spans="2:7" customFormat="1">
-      <c r="B4" s="191"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-    </row>
-    <row r="5" spans="2:7" customFormat="1">
-      <c r="B5" s="187" t="s">
+    <row r="4" spans="1:7" customFormat="1">
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+    </row>
+    <row r="5" spans="1:7" customFormat="1">
+      <c r="B5" s="186" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="187" t="s">
+      <c r="C5" s="186" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-    </row>
-    <row r="6" spans="2:7" customFormat="1">
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-    </row>
-    <row r="7" spans="2:7" customFormat="1">
-      <c r="B7" s="192" t="s">
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+    </row>
+    <row r="6" spans="1:7" customFormat="1">
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+    </row>
+    <row r="7" spans="1:7" customFormat="1">
+      <c r="B7" s="193" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="193" t="s">
         <v>300</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-    </row>
-    <row r="8" spans="2:7" customFormat="1">
+      <c r="D7" s="186" t="s">
+        <v>358</v>
+      </c>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+    </row>
+    <row r="8" spans="1:7" customFormat="1">
       <c r="B8" s="187"/>
       <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
+      <c r="D8" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E8" s="187"/>
       <c r="F8" s="187"/>
       <c r="G8" s="187"/>
     </row>
-    <row r="9" spans="2:7" customFormat="1">
-      <c r="B9" s="192" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="192" t="s">
-        <v>350</v>
-      </c>
-      <c r="D9" s="187"/>
+    <row r="9" spans="1:7" customFormat="1">
+      <c r="B9" s="187"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187" t="s">
+        <v>353</v>
+      </c>
       <c r="E9" s="187"/>
       <c r="F9" s="187"/>
       <c r="G9" s="187"/>
     </row>
-    <row r="10" spans="2:7" customFormat="1">
+    <row r="10" spans="1:7" customFormat="1">
       <c r="B10" s="187"/>
       <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
+      <c r="D10" s="187" t="s">
+        <v>354</v>
+      </c>
       <c r="E10" s="187"/>
       <c r="F10" s="187"/>
       <c r="G10" s="187"/>
     </row>
-    <row r="11" spans="2:7" customFormat="1">
-      <c r="B11" s="192" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="192" t="s">
-        <v>302</v>
-      </c>
-      <c r="D11" s="187"/>
+    <row r="11" spans="1:7" customFormat="1">
+      <c r="B11" s="187"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187" t="s">
+        <v>355</v>
+      </c>
       <c r="E11" s="187"/>
       <c r="F11" s="187"/>
       <c r="G11" s="187"/>
     </row>
-    <row r="12" spans="2:7" customFormat="1">
+    <row r="12" spans="1:7" customFormat="1">
       <c r="B12" s="187"/>
       <c r="C12" s="187"/>
-      <c r="D12" s="187"/>
+      <c r="D12" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E12" s="187"/>
       <c r="F12" s="187"/>
       <c r="G12" s="187"/>
     </row>
-    <row r="13" spans="2:7" customFormat="1">
-      <c r="B13" s="192" t="s">
-        <v>247</v>
-      </c>
-      <c r="C13" s="192" t="s">
-        <v>303</v>
-      </c>
-      <c r="D13" s="187"/>
+    <row r="13" spans="1:7" customFormat="1">
+      <c r="B13" s="187"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="187" t="s">
+        <v>353</v>
+      </c>
       <c r="E13" s="187"/>
       <c r="F13" s="187"/>
       <c r="G13" s="187"/>
     </row>
-    <row r="14" spans="2:7" customFormat="1">
+    <row r="14" spans="1:7" customFormat="1">
       <c r="B14" s="187"/>
       <c r="C14" s="187"/>
-      <c r="D14" s="187"/>
+      <c r="D14" s="187" t="s">
+        <v>354</v>
+      </c>
       <c r="E14" s="187"/>
       <c r="F14" s="187"/>
       <c r="G14" s="187"/>
     </row>
-    <row r="15" spans="2:7" customFormat="1">
-      <c r="B15" s="192" t="s">
-        <v>248</v>
-      </c>
-      <c r="C15" s="192" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="187"/>
+    <row r="15" spans="1:7" customFormat="1">
+      <c r="B15" s="187"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="187" t="s">
+        <v>359</v>
+      </c>
       <c r="E15" s="187"/>
       <c r="F15" s="187"/>
       <c r="G15" s="187"/>
     </row>
-    <row r="16" spans="2:7" customFormat="1">
+    <row r="16" spans="1:7" customFormat="1">
       <c r="B16" s="187"/>
       <c r="C16" s="187"/>
-      <c r="D16" s="187"/>
+      <c r="D16" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E16" s="187"/>
       <c r="F16" s="187"/>
       <c r="G16" s="187"/>
     </row>
-    <row r="17" spans="2:7" customFormat="1">
-      <c r="B17" s="187" t="s">
-        <v>249</v>
-      </c>
-      <c r="C17" s="187" t="s">
-        <v>304</v>
-      </c>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-    </row>
-    <row r="18" spans="2:7" customFormat="1">
-      <c r="B18" s="187"/>
-      <c r="C18" s="187"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-    </row>
-    <row r="19" spans="2:7" customFormat="1">
-      <c r="B19" s="192" t="s">
-        <v>250</v>
-      </c>
-      <c r="C19" s="192" t="s">
-        <v>305</v>
-      </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-    </row>
-    <row r="20" spans="2:7" customFormat="1">
+    <row r="17" spans="1:7" customFormat="1">
+      <c r="B17" s="195"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="195" t="s">
+        <v>356</v>
+      </c>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
+    </row>
+    <row r="18" spans="1:7" customFormat="1">
+      <c r="B18" s="196"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="196"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="196"/>
+    </row>
+    <row r="19" spans="1:7" customFormat="1">
+      <c r="B19" s="193" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="193" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" s="186" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
+    </row>
+    <row r="20" spans="1:7" customFormat="1">
       <c r="B20" s="187"/>
       <c r="C20" s="187"/>
-      <c r="D20" s="187"/>
+      <c r="D20" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E20" s="187"/>
       <c r="F20" s="187"/>
       <c r="G20" s="187"/>
     </row>
-    <row r="21" spans="2:7" customFormat="1">
-      <c r="B21" s="192" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="192" t="s">
-        <v>306</v>
-      </c>
-      <c r="D21" s="187"/>
+    <row r="21" spans="1:7" customFormat="1">
+      <c r="B21" s="187"/>
+      <c r="C21" s="187"/>
+      <c r="D21" s="187" t="s">
+        <v>353</v>
+      </c>
       <c r="E21" s="187"/>
       <c r="F21" s="187"/>
       <c r="G21" s="187"/>
     </row>
-    <row r="22" spans="2:7" customFormat="1">
+    <row r="22" spans="1:7" customFormat="1">
       <c r="B22" s="187"/>
       <c r="C22" s="187"/>
-      <c r="D22" s="187"/>
+      <c r="D22" s="187" t="s">
+        <v>354</v>
+      </c>
       <c r="E22" s="187"/>
       <c r="F22" s="187"/>
       <c r="G22" s="187"/>
     </row>
-    <row r="23" spans="2:7" customFormat="1">
-      <c r="B23" s="192" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="192" t="s">
-        <v>307</v>
-      </c>
-      <c r="D23" s="187"/>
+    <row r="23" spans="1:7" customFormat="1">
+      <c r="B23" s="187"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="187" t="s">
+        <v>355</v>
+      </c>
       <c r="E23" s="187"/>
       <c r="F23" s="187"/>
       <c r="G23" s="187"/>
     </row>
-    <row r="24" spans="2:7" customFormat="1">
+    <row r="24" spans="1:7" customFormat="1">
       <c r="B24" s="187"/>
       <c r="C24" s="187"/>
-      <c r="D24" s="187"/>
+      <c r="D24" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E24" s="187"/>
       <c r="F24" s="187"/>
       <c r="G24" s="187"/>
     </row>
-    <row r="25" spans="2:7" customFormat="1">
-      <c r="B25" s="187" t="s">
-        <v>253</v>
-      </c>
-      <c r="C25" s="187" t="s">
-        <v>308</v>
-      </c>
-      <c r="D25" s="187"/>
+    <row r="25" spans="1:7" customFormat="1">
+      <c r="B25" s="187"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="187" t="s">
+        <v>356</v>
+      </c>
       <c r="E25" s="187"/>
       <c r="F25" s="187"/>
       <c r="G25" s="187"/>
     </row>
-    <row r="26" spans="2:7" customFormat="1">
-      <c r="B26" s="187"/>
-      <c r="C26" s="187"/>
-      <c r="D26" s="187"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
-    </row>
-    <row r="27" spans="2:7" customFormat="1">
-      <c r="B27" s="187" t="s">
-        <v>254</v>
-      </c>
-      <c r="C27" s="187" t="s">
-        <v>309</v>
-      </c>
-      <c r="D27" s="187"/>
-      <c r="E27" s="187"/>
-      <c r="F27" s="187"/>
-      <c r="G27" s="187"/>
-    </row>
-    <row r="28" spans="2:7" customFormat="1">
-      <c r="B28" s="187"/>
-      <c r="C28" s="187"/>
-      <c r="D28" s="187"/>
-      <c r="E28" s="187"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="187"/>
-    </row>
-    <row r="29" spans="2:7" customFormat="1">
-      <c r="B29" s="192" t="s">
-        <v>255</v>
-      </c>
-      <c r="C29" s="192" t="s">
-        <v>311</v>
-      </c>
-      <c r="D29" s="187"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="187"/>
-    </row>
-    <row r="30" spans="2:7" customFormat="1">
-      <c r="B30" s="187"/>
-      <c r="C30" s="187"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="187"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="187"/>
-    </row>
-    <row r="31" spans="2:7" customFormat="1">
+    <row r="26" spans="1:7" customFormat="1">
+      <c r="B26" s="188"/>
+      <c r="C26" s="188"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+    </row>
+    <row r="27" spans="1:7" customFormat="1">
+      <c r="B27" s="192" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="192" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" s="191"/>
+      <c r="E27" s="191"/>
+      <c r="F27" s="191"/>
+      <c r="G27" s="191"/>
+    </row>
+    <row r="28" spans="1:7" customFormat="1">
+      <c r="B28" s="197"/>
+      <c r="C28" s="197"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
+    </row>
+    <row r="29" spans="1:7" customFormat="1">
+      <c r="B29" s="193" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="193" t="s">
+        <v>303</v>
+      </c>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="186"/>
+    </row>
+    <row r="30" spans="1:7" customFormat="1">
+      <c r="B30" s="188"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="188"/>
+    </row>
+    <row r="31" spans="1:7" customFormat="1">
       <c r="B31" s="192" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C31" s="192" t="s">
-        <v>310</v>
-      </c>
-      <c r="D31" s="187"/>
-      <c r="E31" s="187"/>
-      <c r="F31" s="187"/>
-      <c r="G31" s="187"/>
-    </row>
-    <row r="32" spans="2:7" customFormat="1">
-      <c r="B32" s="187"/>
-      <c r="C32" s="187"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="187"/>
-      <c r="F32" s="187"/>
-      <c r="G32" s="187"/>
-    </row>
-    <row r="33" spans="2:7" customFormat="1">
-      <c r="B33" s="187" t="s">
-        <v>257</v>
-      </c>
-      <c r="C33" s="187" t="s">
-        <v>312</v>
-      </c>
-      <c r="D33" s="187"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-    </row>
-    <row r="34" spans="2:7" customFormat="1">
-      <c r="B34" s="187"/>
-      <c r="C34" s="187"/>
-      <c r="D34" s="187"/>
-      <c r="E34" s="187"/>
-      <c r="F34" s="187"/>
-      <c r="G34" s="187"/>
-    </row>
-    <row r="35" spans="2:7" customFormat="1">
-      <c r="B35" s="187" t="s">
-        <v>258</v>
-      </c>
-      <c r="C35" s="187" t="s">
-        <v>313</v>
-      </c>
-      <c r="D35" s="187"/>
-      <c r="E35" s="187"/>
-      <c r="F35" s="187"/>
-      <c r="G35" s="187"/>
-    </row>
-    <row r="36" spans="2:7" customFormat="1">
+        <v>211</v>
+      </c>
+      <c r="D31" s="191"/>
+      <c r="E31" s="191"/>
+      <c r="F31" s="191"/>
+      <c r="G31" s="191"/>
+    </row>
+    <row r="32" spans="1:7" customFormat="1">
+      <c r="B32" s="197"/>
+      <c r="C32" s="197"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="197"/>
+    </row>
+    <row r="33" spans="1:7" customFormat="1">
+      <c r="B33" s="186" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="186" t="s">
+        <v>304</v>
+      </c>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="186"/>
+    </row>
+    <row r="34" spans="1:7" customFormat="1">
+      <c r="B34" s="188"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+    </row>
+    <row r="35" spans="1:7" customFormat="1">
+      <c r="B35" s="192" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" s="192" t="s">
+        <v>305</v>
+      </c>
+      <c r="D35" s="191" t="s">
+        <v>357</v>
+      </c>
+      <c r="E35" s="191"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="191"/>
+    </row>
+    <row r="36" spans="1:7" customFormat="1">
       <c r="B36" s="187"/>
       <c r="C36" s="187"/>
-      <c r="D36" s="187"/>
+      <c r="D36" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E36" s="187"/>
       <c r="F36" s="187"/>
       <c r="G36" s="187"/>
     </row>
-    <row r="37" spans="2:7" customFormat="1">
-      <c r="B37" s="187" t="s">
-        <v>259</v>
-      </c>
-      <c r="C37" s="187" t="s">
-        <v>314</v>
-      </c>
-      <c r="D37" s="187"/>
+    <row r="37" spans="1:7" customFormat="1">
+      <c r="B37" s="187"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="187" t="s">
+        <v>353</v>
+      </c>
       <c r="E37" s="187"/>
       <c r="F37" s="187"/>
       <c r="G37" s="187"/>
     </row>
-    <row r="38" spans="2:7" customFormat="1">
+    <row r="38" spans="1:7" customFormat="1">
       <c r="B38" s="187"/>
       <c r="C38" s="187"/>
-      <c r="D38" s="187"/>
+      <c r="D38" s="187" t="s">
+        <v>354</v>
+      </c>
       <c r="E38" s="187"/>
       <c r="F38" s="187"/>
       <c r="G38" s="187"/>
     </row>
-    <row r="39" spans="2:7" customFormat="1">
-      <c r="B39" s="187" t="s">
-        <v>260</v>
-      </c>
-      <c r="C39" s="187" t="s">
-        <v>315</v>
-      </c>
-      <c r="D39" s="187"/>
+    <row r="39" spans="1:7" customFormat="1">
+      <c r="B39" s="187"/>
+      <c r="C39" s="187"/>
+      <c r="D39" s="187" t="s">
+        <v>355</v>
+      </c>
       <c r="E39" s="187"/>
       <c r="F39" s="187"/>
       <c r="G39" s="187"/>
     </row>
-    <row r="40" spans="2:7" customFormat="1">
+    <row r="40" spans="1:7" customFormat="1">
       <c r="B40" s="187"/>
       <c r="C40" s="187"/>
-      <c r="D40" s="187"/>
+      <c r="D40" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E40" s="187"/>
       <c r="F40" s="187"/>
       <c r="G40" s="187"/>
     </row>
-    <row r="41" spans="2:7" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B41" s="187" t="s">
-        <v>261</v>
-      </c>
-      <c r="C41" s="187" t="s">
-        <v>316</v>
-      </c>
-      <c r="D41" s="187"/>
+    <row r="41" spans="1:7" customFormat="1">
+      <c r="B41" s="187"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="187" t="s">
+        <v>353</v>
+      </c>
       <c r="E41" s="187"/>
       <c r="F41" s="187"/>
       <c r="G41" s="187"/>
     </row>
-    <row r="42" spans="2:7" customFormat="1">
+    <row r="42" spans="1:7" customFormat="1">
       <c r="B42" s="187"/>
       <c r="C42" s="187"/>
-      <c r="D42" s="187"/>
+      <c r="D42" s="187" t="s">
+        <v>354</v>
+      </c>
       <c r="E42" s="187"/>
       <c r="F42" s="187"/>
       <c r="G42" s="187"/>
     </row>
-    <row r="43" spans="2:7" customFormat="1">
-      <c r="B43" s="187" t="s">
-        <v>262</v>
-      </c>
-      <c r="C43" s="187" t="s">
-        <v>317</v>
-      </c>
-      <c r="D43" s="187"/>
+    <row r="43" spans="1:7" customFormat="1">
+      <c r="B43" s="187"/>
+      <c r="C43" s="187"/>
+      <c r="D43" s="187" t="s">
+        <v>360</v>
+      </c>
       <c r="E43" s="187"/>
       <c r="F43" s="187"/>
       <c r="G43" s="187"/>
     </row>
-    <row r="44" spans="2:7" customFormat="1">
+    <row r="44" spans="1:7" customFormat="1">
       <c r="B44" s="187"/>
       <c r="C44" s="187"/>
-      <c r="D44" s="187"/>
+      <c r="D44" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E44" s="187"/>
       <c r="F44" s="187"/>
       <c r="G44" s="187"/>
     </row>
-    <row r="45" spans="2:7" customFormat="1">
-      <c r="B45" s="238" t="s">
-        <v>263</v>
-      </c>
-      <c r="C45" s="238" t="s">
-        <v>210</v>
-      </c>
-      <c r="D45" s="187"/>
-      <c r="E45" s="187"/>
-      <c r="F45" s="187"/>
-      <c r="G45" s="187"/>
-    </row>
-    <row r="46" spans="2:7" customFormat="1">
-      <c r="B46" s="187"/>
-      <c r="C46" s="187"/>
-      <c r="D46" s="187"/>
-      <c r="E46" s="187"/>
-      <c r="F46" s="187"/>
-      <c r="G46" s="187"/>
-    </row>
-    <row r="47" spans="2:7" customFormat="1">
-      <c r="B47" s="187" t="s">
-        <v>264</v>
-      </c>
-      <c r="C47" s="187" t="s">
-        <v>239</v>
-      </c>
-      <c r="D47" s="187"/>
-      <c r="E47" s="187"/>
-      <c r="F47" s="187"/>
-      <c r="G47" s="187"/>
-    </row>
-    <row r="48" spans="2:7" customFormat="1">
+    <row r="45" spans="1:7" customFormat="1">
+      <c r="B45" s="195"/>
+      <c r="C45" s="195"/>
+      <c r="D45" s="195" t="s">
+        <v>356</v>
+      </c>
+      <c r="E45" s="195"/>
+      <c r="F45" s="195"/>
+      <c r="G45" s="195"/>
+    </row>
+    <row r="46" spans="1:7" customFormat="1">
+      <c r="B46" s="188"/>
+      <c r="C46" s="188"/>
+      <c r="D46" s="188"/>
+      <c r="E46" s="188"/>
+      <c r="F46" s="188"/>
+      <c r="G46" s="188"/>
+    </row>
+    <row r="47" spans="1:7" customFormat="1">
+      <c r="B47" s="193" t="s">
+        <v>251</v>
+      </c>
+      <c r="C47" s="193" t="s">
+        <v>306</v>
+      </c>
+      <c r="D47" s="186" t="s">
+        <v>357</v>
+      </c>
+      <c r="E47" s="186"/>
+      <c r="F47" s="186"/>
+      <c r="G47" s="186"/>
+    </row>
+    <row r="48" spans="1:7" customFormat="1">
       <c r="B48" s="187"/>
       <c r="C48" s="187"/>
-      <c r="D48" s="187"/>
+      <c r="D48" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E48" s="187"/>
       <c r="F48" s="187"/>
       <c r="G48" s="187"/>
     </row>
-    <row r="49" spans="2:7" customFormat="1">
-      <c r="B49" s="187" t="s">
-        <v>265</v>
-      </c>
-      <c r="C49" s="187" t="s">
-        <v>318</v>
-      </c>
-      <c r="D49" s="187"/>
+    <row r="49" spans="1:7" customFormat="1">
+      <c r="B49" s="187"/>
+      <c r="C49" s="187"/>
+      <c r="D49" s="187" t="s">
+        <v>353</v>
+      </c>
       <c r="E49" s="187"/>
       <c r="F49" s="187"/>
       <c r="G49" s="187"/>
     </row>
-    <row r="50" spans="2:7" customFormat="1">
+    <row r="50" spans="1:7" customFormat="1">
       <c r="B50" s="187"/>
       <c r="C50" s="187"/>
-      <c r="D50" s="187"/>
+      <c r="D50" s="187" t="s">
+        <v>354</v>
+      </c>
       <c r="E50" s="187"/>
       <c r="F50" s="187"/>
       <c r="G50" s="187"/>
     </row>
-    <row r="51" spans="2:7" customFormat="1">
-      <c r="B51" s="187" t="s">
-        <v>266</v>
-      </c>
-      <c r="C51" s="187" t="s">
-        <v>319</v>
-      </c>
-      <c r="D51" s="187"/>
+    <row r="51" spans="1:7" customFormat="1">
+      <c r="B51" s="187"/>
+      <c r="C51" s="187"/>
+      <c r="D51" s="187" t="s">
+        <v>355</v>
+      </c>
       <c r="E51" s="187"/>
       <c r="F51" s="187"/>
       <c r="G51" s="187"/>
     </row>
-    <row r="52" spans="2:7" customFormat="1">
+    <row r="52" spans="1:7" customFormat="1">
       <c r="B52" s="187"/>
       <c r="C52" s="187"/>
-      <c r="D52" s="187"/>
+      <c r="D52" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E52" s="187"/>
       <c r="F52" s="187"/>
       <c r="G52" s="187"/>
     </row>
-    <row r="53" spans="2:7" customFormat="1">
-      <c r="B53" s="187" t="s">
-        <v>267</v>
-      </c>
-      <c r="C53" s="187" t="s">
-        <v>320</v>
-      </c>
-      <c r="D53" s="187"/>
-      <c r="E53" s="187"/>
-      <c r="F53" s="187"/>
-      <c r="G53" s="187"/>
-    </row>
-    <row r="54" spans="2:7" customFormat="1">
-      <c r="B54" s="187"/>
-      <c r="C54" s="187"/>
-      <c r="D54" s="187"/>
-      <c r="E54" s="187"/>
-      <c r="F54" s="187"/>
-      <c r="G54" s="187"/>
-    </row>
-    <row r="55" spans="2:7" customFormat="1">
-      <c r="B55" s="240" t="s">
-        <v>268</v>
-      </c>
-      <c r="C55" s="240" t="s">
-        <v>321</v>
-      </c>
-      <c r="D55" s="174"/>
-      <c r="E55" s="174"/>
-      <c r="F55" s="174"/>
-      <c r="G55" s="174"/>
-    </row>
-    <row r="56" spans="2:7" customFormat="1">
+    <row r="53" spans="1:7" customFormat="1">
+      <c r="B53" s="195"/>
+      <c r="C53" s="195"/>
+      <c r="D53" s="195" t="s">
+        <v>356</v>
+      </c>
+      <c r="E53" s="195"/>
+      <c r="F53" s="195"/>
+      <c r="G53" s="195"/>
+    </row>
+    <row r="54" spans="1:7" customFormat="1">
+      <c r="B54" s="188"/>
+      <c r="C54" s="188"/>
+      <c r="D54" s="188"/>
+      <c r="E54" s="188"/>
+      <c r="F54" s="188"/>
+      <c r="G54" s="188"/>
+    </row>
+    <row r="55" spans="1:7" customFormat="1">
+      <c r="B55" s="193" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" s="193" t="s">
+        <v>307</v>
+      </c>
+      <c r="D55" s="186" t="s">
+        <v>361</v>
+      </c>
+      <c r="E55" s="186"/>
+      <c r="F55" s="186"/>
+      <c r="G55" s="186"/>
+    </row>
+    <row r="56" spans="1:7" customFormat="1">
       <c r="B56" s="187"/>
       <c r="C56" s="187"/>
-      <c r="D56" s="187"/>
+      <c r="D56" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E56" s="187"/>
       <c r="F56" s="187"/>
       <c r="G56" s="187"/>
     </row>
-    <row r="57" spans="2:7" customFormat="1">
-      <c r="B57" s="187" t="s">
-        <v>269</v>
-      </c>
-      <c r="C57" s="187" t="s">
-        <v>322</v>
-      </c>
-      <c r="D57" s="187"/>
+    <row r="57" spans="1:7" customFormat="1">
+      <c r="B57" s="187"/>
+      <c r="C57" s="187"/>
+      <c r="D57" s="187" t="s">
+        <v>353</v>
+      </c>
       <c r="E57" s="187"/>
       <c r="F57" s="187"/>
       <c r="G57" s="187"/>
     </row>
-    <row r="58" spans="2:7" customFormat="1">
+    <row r="58" spans="1:7" customFormat="1">
       <c r="B58" s="187"/>
       <c r="C58" s="187"/>
-      <c r="D58" s="187"/>
+      <c r="D58" s="187" t="s">
+        <v>354</v>
+      </c>
       <c r="E58" s="187"/>
       <c r="F58" s="187"/>
       <c r="G58" s="187"/>
     </row>
-    <row r="59" spans="2:7" customFormat="1">
-      <c r="B59" s="192" t="s">
-        <v>270</v>
-      </c>
-      <c r="C59" s="192" t="s">
-        <v>323</v>
-      </c>
-      <c r="D59" s="187"/>
+    <row r="59" spans="1:7" customFormat="1">
+      <c r="B59" s="187"/>
+      <c r="C59" s="187"/>
+      <c r="D59" s="187" t="s">
+        <v>362</v>
+      </c>
       <c r="E59" s="187"/>
       <c r="F59" s="187"/>
       <c r="G59" s="187"/>
     </row>
-    <row r="60" spans="2:7" customFormat="1">
+    <row r="60" spans="1:7" customFormat="1">
       <c r="B60" s="187"/>
       <c r="C60" s="187"/>
-      <c r="D60" s="187"/>
+      <c r="D60" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E60" s="187"/>
       <c r="F60" s="187"/>
       <c r="G60" s="187"/>
     </row>
-    <row r="61" spans="2:7" customFormat="1">
-      <c r="B61" s="187" t="s">
-        <v>271</v>
-      </c>
-      <c r="C61" s="187" t="s">
-        <v>324</v>
-      </c>
-      <c r="D61" s="187"/>
+    <row r="61" spans="1:7" customFormat="1">
+      <c r="B61" s="187"/>
+      <c r="C61" s="187"/>
+      <c r="D61" s="195" t="s">
+        <v>356</v>
+      </c>
       <c r="E61" s="187"/>
       <c r="F61" s="187"/>
       <c r="G61" s="187"/>
     </row>
-    <row r="62" spans="2:7" customFormat="1">
+    <row r="62" spans="1:7" customFormat="1">
       <c r="B62" s="187"/>
       <c r="C62" s="187"/>
-      <c r="D62" s="187"/>
+      <c r="D62" s="187" t="s">
+        <v>363</v>
+      </c>
       <c r="E62" s="187"/>
       <c r="F62" s="187"/>
       <c r="G62" s="187"/>
     </row>
-    <row r="63" spans="2:7" customFormat="1">
-      <c r="B63" s="187" t="s">
-        <v>271</v>
-      </c>
-      <c r="C63" s="187" t="s">
-        <v>326</v>
-      </c>
-      <c r="D63" s="187"/>
+    <row r="63" spans="1:7" customFormat="1">
+      <c r="B63" s="187"/>
+      <c r="C63" s="187"/>
+      <c r="D63" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E63" s="187"/>
       <c r="F63" s="187"/>
       <c r="G63" s="187"/>
     </row>
-    <row r="64" spans="2:7" customFormat="1">
+    <row r="64" spans="1:7" customFormat="1">
       <c r="B64" s="187"/>
       <c r="C64" s="187"/>
-      <c r="D64" s="187"/>
+      <c r="D64" s="187" t="s">
+        <v>353</v>
+      </c>
       <c r="E64" s="187"/>
       <c r="F64" s="187"/>
       <c r="G64" s="187"/>
     </row>
-    <row r="65" spans="2:7" customFormat="1">
-      <c r="B65" s="187" t="s">
-        <v>271</v>
-      </c>
-      <c r="C65" s="187" t="s">
-        <v>327</v>
-      </c>
-      <c r="D65" s="187"/>
+    <row r="65" spans="1:7" customFormat="1">
+      <c r="B65" s="187"/>
+      <c r="C65" s="187"/>
+      <c r="D65" s="187" t="s">
+        <v>354</v>
+      </c>
       <c r="E65" s="187"/>
       <c r="F65" s="187"/>
       <c r="G65" s="187"/>
     </row>
-    <row r="66" spans="2:7" customFormat="1">
+    <row r="66" spans="1:7" customFormat="1">
       <c r="B66" s="187"/>
       <c r="C66" s="187"/>
-      <c r="D66" s="187"/>
+      <c r="D66" s="187" t="s">
+        <v>364</v>
+      </c>
       <c r="E66" s="187"/>
       <c r="F66" s="187"/>
       <c r="G66" s="187"/>
     </row>
-    <row r="67" spans="2:7" customFormat="1">
-      <c r="B67" s="187" t="s">
-        <v>272</v>
-      </c>
-      <c r="C67" s="187" t="s">
-        <v>325</v>
-      </c>
-      <c r="D67" s="187"/>
+    <row r="67" spans="1:7" customFormat="1">
+      <c r="B67" s="187"/>
+      <c r="C67" s="187"/>
+      <c r="D67" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E67" s="187"/>
       <c r="F67" s="187"/>
       <c r="G67" s="187"/>
     </row>
-    <row r="68" spans="2:7" customFormat="1">
+    <row r="68" spans="1:7" customFormat="1">
       <c r="B68" s="187"/>
       <c r="C68" s="187"/>
-      <c r="D68" s="187"/>
+      <c r="D68" s="195" t="s">
+        <v>356</v>
+      </c>
       <c r="E68" s="187"/>
       <c r="F68" s="187"/>
       <c r="G68" s="187"/>
     </row>
-    <row r="69" spans="2:7" customFormat="1">
-      <c r="B69" s="238" t="s">
-        <v>273</v>
-      </c>
-      <c r="C69" s="238" t="s">
-        <v>328</v>
-      </c>
-      <c r="D69" s="187"/>
-      <c r="E69" s="187"/>
-      <c r="F69" s="187"/>
-      <c r="G69" s="187"/>
-    </row>
-    <row r="70" spans="2:7" customFormat="1">
-      <c r="B70" s="187"/>
-      <c r="C70" s="187"/>
-      <c r="D70" s="187"/>
-      <c r="E70" s="187"/>
-      <c r="F70" s="187"/>
-      <c r="G70" s="187"/>
-    </row>
-    <row r="71" spans="2:7" customFormat="1">
-      <c r="B71" s="187" t="s">
-        <v>274</v>
-      </c>
-      <c r="C71" s="187" t="s">
-        <v>329</v>
-      </c>
-      <c r="D71" s="187"/>
-      <c r="E71" s="187"/>
-      <c r="F71" s="187"/>
-      <c r="G71" s="187"/>
-    </row>
-    <row r="72" spans="2:7" customFormat="1">
-      <c r="B72" s="187"/>
-      <c r="C72" s="187"/>
-      <c r="D72" s="187"/>
-      <c r="E72" s="187"/>
-      <c r="F72" s="187"/>
-      <c r="G72" s="187"/>
-    </row>
-    <row r="73" spans="2:7" customFormat="1">
-      <c r="B73" s="187" t="s">
-        <v>275</v>
-      </c>
-      <c r="C73" s="187" t="s">
-        <v>330</v>
-      </c>
-      <c r="D73" s="187"/>
-      <c r="E73" s="187"/>
-      <c r="F73" s="187"/>
-      <c r="G73" s="187"/>
-    </row>
-    <row r="74" spans="2:7" customFormat="1">
-      <c r="B74" s="187"/>
-      <c r="C74" s="187"/>
-      <c r="D74" s="187"/>
-      <c r="E74" s="187"/>
-      <c r="F74" s="187"/>
-      <c r="G74" s="187"/>
-    </row>
-    <row r="75" spans="2:7" customFormat="1">
-      <c r="B75" s="238" t="s">
-        <v>276</v>
-      </c>
-      <c r="C75" s="238" t="s">
-        <v>331</v>
-      </c>
-      <c r="D75" s="187"/>
+    <row r="69" spans="1:7" customFormat="1">
+      <c r="B69" s="188"/>
+      <c r="C69" s="188"/>
+      <c r="D69" s="188"/>
+      <c r="E69" s="188"/>
+      <c r="F69" s="188"/>
+      <c r="G69" s="188"/>
+    </row>
+    <row r="70" spans="1:7" customFormat="1">
+      <c r="B70" s="186" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" s="186" t="s">
+        <v>308</v>
+      </c>
+      <c r="D70" s="186"/>
+      <c r="E70" s="186"/>
+      <c r="F70" s="186"/>
+      <c r="G70" s="186"/>
+    </row>
+    <row r="71" spans="1:7" customFormat="1">
+      <c r="B71" s="188"/>
+      <c r="C71" s="188"/>
+      <c r="D71" s="188"/>
+      <c r="E71" s="188"/>
+      <c r="F71" s="188"/>
+      <c r="G71" s="188"/>
+    </row>
+    <row r="72" spans="1:7" customFormat="1">
+      <c r="B72" s="191" t="s">
+        <v>254</v>
+      </c>
+      <c r="C72" s="191" t="s">
+        <v>309</v>
+      </c>
+      <c r="D72" s="191"/>
+      <c r="E72" s="191"/>
+      <c r="F72" s="191"/>
+      <c r="G72" s="191"/>
+    </row>
+    <row r="73" spans="1:7" customFormat="1">
+      <c r="B73" s="188"/>
+      <c r="C73" s="188"/>
+      <c r="D73" s="188"/>
+      <c r="E73" s="188"/>
+      <c r="F73" s="188"/>
+      <c r="G73" s="188"/>
+    </row>
+    <row r="74" spans="1:7" customFormat="1">
+      <c r="B74" s="192" t="s">
+        <v>255</v>
+      </c>
+      <c r="C74" s="192" t="s">
+        <v>311</v>
+      </c>
+      <c r="D74" s="191" t="s">
+        <v>365</v>
+      </c>
+      <c r="E74" s="191"/>
+      <c r="F74" s="191"/>
+      <c r="G74" s="191"/>
+    </row>
+    <row r="75" spans="1:7" customFormat="1">
+      <c r="B75" s="187"/>
+      <c r="C75" s="187"/>
+      <c r="D75" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E75" s="187"/>
       <c r="F75" s="187"/>
       <c r="G75" s="187"/>
     </row>
-    <row r="76" spans="2:7" customFormat="1">
+    <row r="76" spans="1:7" customFormat="1">
       <c r="B76" s="187"/>
       <c r="C76" s="187"/>
-      <c r="D76" s="187"/>
+      <c r="D76" s="187" t="s">
+        <v>353</v>
+      </c>
       <c r="E76" s="187"/>
       <c r="F76" s="187"/>
       <c r="G76" s="187"/>
     </row>
-    <row r="77" spans="2:7" customFormat="1">
-      <c r="B77" s="187" t="s">
-        <v>277</v>
-      </c>
-      <c r="C77" s="187" t="s">
-        <v>297</v>
-      </c>
-      <c r="D77" s="187"/>
+    <row r="77" spans="1:7" customFormat="1">
+      <c r="B77" s="187"/>
+      <c r="C77" s="187"/>
+      <c r="D77" s="187" t="s">
+        <v>354</v>
+      </c>
       <c r="E77" s="187"/>
       <c r="F77" s="187"/>
       <c r="G77" s="187"/>
     </row>
-    <row r="78" spans="2:7" customFormat="1">
+    <row r="78" spans="1:7" customFormat="1">
       <c r="B78" s="187"/>
       <c r="C78" s="187"/>
-      <c r="D78" s="187"/>
+      <c r="D78" s="187" t="s">
+        <v>360</v>
+      </c>
       <c r="E78" s="187"/>
       <c r="F78" s="187"/>
       <c r="G78" s="187"/>
     </row>
-    <row r="79" spans="2:7" customFormat="1">
-      <c r="B79" s="238" t="s">
-        <v>278</v>
-      </c>
-      <c r="C79" s="238" t="s">
-        <v>332</v>
-      </c>
-      <c r="D79" s="187"/>
+    <row r="79" spans="1:7" customFormat="1">
+      <c r="B79" s="187"/>
+      <c r="C79" s="187"/>
+      <c r="D79" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E79" s="187"/>
       <c r="F79" s="187"/>
       <c r="G79" s="187"/>
     </row>
-    <row r="80" spans="2:7" customFormat="1">
+    <row r="80" spans="1:7" customFormat="1">
       <c r="B80" s="187"/>
       <c r="C80" s="187"/>
-      <c r="D80" s="187"/>
+      <c r="D80" s="187" t="s">
+        <v>353</v>
+      </c>
       <c r="E80" s="187"/>
       <c r="F80" s="187"/>
       <c r="G80" s="187"/>
     </row>
-    <row r="81" spans="2:7" customFormat="1">
-      <c r="B81" s="238" t="s">
-        <v>279</v>
-      </c>
-      <c r="C81" s="238" t="s">
-        <v>333</v>
-      </c>
-      <c r="D81" s="187"/>
+    <row r="81" spans="1:7" customFormat="1">
+      <c r="B81" s="187"/>
+      <c r="C81" s="187"/>
+      <c r="D81" s="187" t="s">
+        <v>354</v>
+      </c>
       <c r="E81" s="187"/>
       <c r="F81" s="187"/>
       <c r="G81" s="187"/>
     </row>
-    <row r="82" spans="2:7" customFormat="1">
+    <row r="82" spans="1:7" customFormat="1">
       <c r="B82" s="187"/>
       <c r="C82" s="187"/>
-      <c r="D82" s="187"/>
+      <c r="D82" s="187" t="s">
+        <v>366</v>
+      </c>
       <c r="E82" s="187"/>
       <c r="F82" s="187"/>
       <c r="G82" s="187"/>
     </row>
-    <row r="83" spans="2:7" customFormat="1">
-      <c r="B83" s="187" t="s">
-        <v>280</v>
-      </c>
-      <c r="C83" s="187" t="s">
-        <v>334</v>
-      </c>
-      <c r="D83" s="187"/>
+    <row r="83" spans="1:7" customFormat="1">
+      <c r="B83" s="187"/>
+      <c r="C83" s="187"/>
+      <c r="D83" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E83" s="187"/>
       <c r="F83" s="187"/>
       <c r="G83" s="187"/>
     </row>
-    <row r="84" spans="2:7" customFormat="1">
+    <row r="84" spans="1:7" customFormat="1">
       <c r="B84" s="187"/>
       <c r="C84" s="187"/>
-      <c r="D84" s="187"/>
+      <c r="D84" s="195" t="s">
+        <v>356</v>
+      </c>
       <c r="E84" s="187"/>
       <c r="F84" s="187"/>
       <c r="G84" s="187"/>
     </row>
-    <row r="85" spans="2:7" customFormat="1">
-      <c r="B85" s="187" t="s">
-        <v>281</v>
-      </c>
-      <c r="C85" s="187" t="s">
-        <v>335</v>
-      </c>
-      <c r="D85" s="187"/>
-      <c r="E85" s="187"/>
-      <c r="F85" s="187"/>
-      <c r="G85" s="187"/>
-    </row>
-    <row r="86" spans="2:7" customFormat="1">
-      <c r="B86" s="187"/>
-      <c r="C86" s="187"/>
-      <c r="D86" s="187"/>
-      <c r="E86" s="187"/>
-      <c r="F86" s="187"/>
-      <c r="G86" s="187"/>
-    </row>
-    <row r="87" spans="2:7" customFormat="1">
-      <c r="B87" s="238" t="s">
-        <v>282</v>
-      </c>
-      <c r="C87" s="238" t="s">
-        <v>206</v>
-      </c>
-      <c r="D87" s="187"/>
+    <row r="85" spans="1:7" customFormat="1">
+      <c r="B85" s="188"/>
+      <c r="C85" s="188"/>
+      <c r="D85" s="188"/>
+      <c r="E85" s="188"/>
+      <c r="F85" s="188"/>
+      <c r="G85" s="188"/>
+    </row>
+    <row r="86" spans="1:7" customFormat="1">
+      <c r="B86" s="192" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" s="192" t="s">
+        <v>310</v>
+      </c>
+      <c r="D86" s="191" t="s">
+        <v>367</v>
+      </c>
+      <c r="E86" s="191"/>
+      <c r="F86" s="191"/>
+      <c r="G86" s="191"/>
+    </row>
+    <row r="87" spans="1:7" customFormat="1">
+      <c r="B87" s="187"/>
+      <c r="C87" s="187"/>
+      <c r="D87" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E87" s="187"/>
       <c r="F87" s="187"/>
       <c r="G87" s="187"/>
     </row>
-    <row r="88" spans="2:7" customFormat="1">
+    <row r="88" spans="1:7" customFormat="1">
       <c r="B88" s="187"/>
       <c r="C88" s="187"/>
-      <c r="D88" s="187"/>
+      <c r="D88" s="187" t="s">
+        <v>353</v>
+      </c>
       <c r="E88" s="187"/>
       <c r="F88" s="187"/>
       <c r="G88" s="187"/>
     </row>
-    <row r="89" spans="2:7" customFormat="1">
-      <c r="B89" s="187" t="s">
-        <v>283</v>
-      </c>
-      <c r="C89" s="187" t="s">
-        <v>341</v>
-      </c>
-      <c r="D89" s="187"/>
+    <row r="89" spans="1:7" customFormat="1">
+      <c r="B89" s="187"/>
+      <c r="C89" s="187"/>
+      <c r="D89" s="187" t="s">
+        <v>354</v>
+      </c>
       <c r="E89" s="187"/>
       <c r="F89" s="187"/>
       <c r="G89" s="187"/>
     </row>
-    <row r="90" spans="2:7" customFormat="1">
+    <row r="90" spans="1:7" customFormat="1">
       <c r="B90" s="187"/>
       <c r="C90" s="187"/>
-      <c r="D90" s="187"/>
+      <c r="D90" s="187" t="s">
+        <v>368</v>
+      </c>
       <c r="E90" s="187"/>
       <c r="F90" s="187"/>
       <c r="G90" s="187"/>
     </row>
-    <row r="91" spans="2:7" customFormat="1">
-      <c r="B91" s="187" t="s">
-        <v>284</v>
-      </c>
-      <c r="C91" s="187" t="s">
-        <v>336</v>
-      </c>
-      <c r="D91" s="187"/>
+    <row r="91" spans="1:7" customFormat="1">
+      <c r="B91" s="187"/>
+      <c r="C91" s="187"/>
+      <c r="D91" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E91" s="187"/>
       <c r="F91" s="187"/>
       <c r="G91" s="187"/>
     </row>
-    <row r="92" spans="2:7" customFormat="1">
+    <row r="92" spans="1:7" customFormat="1">
       <c r="B92" s="187"/>
       <c r="C92" s="187"/>
-      <c r="D92" s="187"/>
+      <c r="D92" s="187" t="s">
+        <v>353</v>
+      </c>
       <c r="E92" s="187"/>
       <c r="F92" s="187"/>
       <c r="G92" s="187"/>
     </row>
-    <row r="93" spans="2:7" customFormat="1">
-      <c r="B93" s="187" t="s">
-        <v>285</v>
-      </c>
-      <c r="C93" s="187" t="s">
-        <v>337</v>
-      </c>
-      <c r="D93" s="187"/>
+    <row r="93" spans="1:7" customFormat="1">
+      <c r="B93" s="187"/>
+      <c r="C93" s="187"/>
+      <c r="D93" s="187" t="s">
+        <v>354</v>
+      </c>
       <c r="E93" s="187"/>
       <c r="F93" s="187"/>
       <c r="G93" s="187"/>
     </row>
-    <row r="94" spans="2:7" customFormat="1">
+    <row r="94" spans="1:7" customFormat="1">
       <c r="B94" s="187"/>
       <c r="C94" s="187"/>
-      <c r="D94" s="187"/>
+      <c r="D94" s="187" t="s">
+        <v>369</v>
+      </c>
       <c r="E94" s="187"/>
       <c r="F94" s="187"/>
       <c r="G94" s="187"/>
     </row>
-    <row r="95" spans="2:7" customFormat="1">
-      <c r="B95" s="187" t="s">
-        <v>286</v>
-      </c>
-      <c r="C95" s="187" t="s">
-        <v>338</v>
-      </c>
-      <c r="D95" s="187"/>
+    <row r="95" spans="1:7" customFormat="1">
+      <c r="B95" s="187"/>
+      <c r="C95" s="187"/>
+      <c r="D95" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E95" s="187"/>
       <c r="F95" s="187"/>
       <c r="G95" s="187"/>
     </row>
-    <row r="96" spans="2:7" customFormat="1">
+    <row r="96" spans="1:7" customFormat="1">
       <c r="B96" s="187"/>
       <c r="C96" s="187"/>
-      <c r="D96" s="187"/>
+      <c r="D96" s="195" t="s">
+        <v>356</v>
+      </c>
       <c r="E96" s="187"/>
       <c r="F96" s="187"/>
       <c r="G96" s="187"/>
     </row>
     <row r="97" spans="1:7" customFormat="1">
-      <c r="B97" s="187" t="s">
-        <v>287</v>
-      </c>
-      <c r="C97" s="187" t="s">
-        <v>339</v>
-      </c>
-      <c r="D97" s="187"/>
+      <c r="B97" s="187"/>
+      <c r="C97" s="187"/>
+      <c r="D97" s="187" t="s">
+        <v>370</v>
+      </c>
       <c r="E97" s="187"/>
       <c r="F97" s="187"/>
       <c r="G97" s="187"/>
@@ -9109,143 +9891,1873 @@
     <row r="98" spans="1:7" customFormat="1">
       <c r="B98" s="187"/>
       <c r="C98" s="187"/>
-      <c r="D98" s="187"/>
+      <c r="D98" s="187" t="s">
+        <v>352</v>
+      </c>
       <c r="E98" s="187"/>
       <c r="F98" s="187"/>
       <c r="G98" s="187"/>
     </row>
     <row r="99" spans="1:7" customFormat="1">
-      <c r="B99" s="187" t="s">
-        <v>288</v>
-      </c>
-      <c r="C99" s="187" t="s">
-        <v>340</v>
-      </c>
-      <c r="D99" s="187"/>
+      <c r="B99" s="187"/>
+      <c r="C99" s="187"/>
+      <c r="D99" s="195" t="s">
+        <v>356</v>
+      </c>
       <c r="E99" s="187"/>
       <c r="F99" s="187"/>
       <c r="G99" s="187"/>
     </row>
     <row r="100" spans="1:7" customFormat="1">
-      <c r="B100" s="187"/>
-      <c r="C100" s="187"/>
-      <c r="D100" s="187"/>
-      <c r="E100" s="187"/>
-      <c r="F100" s="187"/>
-      <c r="G100" s="187"/>
+      <c r="B100" s="188"/>
+      <c r="C100" s="188"/>
+      <c r="D100" s="188"/>
+      <c r="E100" s="188"/>
+      <c r="F100" s="188"/>
+      <c r="G100" s="188"/>
     </row>
     <row r="101" spans="1:7" customFormat="1">
-      <c r="B101" s="238" t="s">
+      <c r="B101" s="186" t="s">
+        <v>257</v>
+      </c>
+      <c r="C101" s="186" t="s">
+        <v>312</v>
+      </c>
+      <c r="D101" s="186"/>
+      <c r="E101" s="186"/>
+      <c r="F101" s="186"/>
+      <c r="G101" s="186"/>
+    </row>
+    <row r="102" spans="1:7" customFormat="1">
+      <c r="B102" s="188"/>
+      <c r="C102" s="188"/>
+      <c r="D102" s="188"/>
+      <c r="E102" s="188"/>
+      <c r="F102" s="188"/>
+      <c r="G102" s="188"/>
+    </row>
+    <row r="103" spans="1:7" customFormat="1">
+      <c r="B103" s="191" t="s">
+        <v>258</v>
+      </c>
+      <c r="C103" s="191" t="s">
+        <v>313</v>
+      </c>
+      <c r="D103" s="191"/>
+      <c r="E103" s="191"/>
+      <c r="F103" s="191"/>
+      <c r="G103" s="191"/>
+    </row>
+    <row r="104" spans="1:7" customFormat="1">
+      <c r="B104" s="197"/>
+      <c r="C104" s="197"/>
+      <c r="D104" s="197"/>
+      <c r="E104" s="197"/>
+      <c r="F104" s="197"/>
+      <c r="G104" s="197"/>
+    </row>
+    <row r="105" spans="1:7" customFormat="1">
+      <c r="B105" s="186" t="s">
+        <v>259</v>
+      </c>
+      <c r="C105" s="186" t="s">
+        <v>314</v>
+      </c>
+      <c r="D105" s="186"/>
+      <c r="E105" s="186"/>
+      <c r="F105" s="186"/>
+      <c r="G105" s="186"/>
+    </row>
+    <row r="106" spans="1:7" customFormat="1">
+      <c r="B106" s="188"/>
+      <c r="C106" s="188"/>
+      <c r="D106" s="188"/>
+      <c r="E106" s="188"/>
+      <c r="F106" s="188"/>
+      <c r="G106" s="188"/>
+    </row>
+    <row r="107" spans="1:7" customFormat="1">
+      <c r="B107" s="191" t="s">
+        <v>260</v>
+      </c>
+      <c r="C107" s="191" t="s">
+        <v>315</v>
+      </c>
+      <c r="D107" s="191"/>
+      <c r="E107" s="191"/>
+      <c r="F107" s="191"/>
+      <c r="G107" s="191"/>
+    </row>
+    <row r="108" spans="1:7" customFormat="1">
+      <c r="B108" s="197"/>
+      <c r="C108" s="197"/>
+      <c r="D108" s="197"/>
+      <c r="E108" s="197"/>
+      <c r="F108" s="197"/>
+      <c r="G108" s="197"/>
+    </row>
+    <row r="109" spans="1:7" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B109" s="186" t="s">
+        <v>261</v>
+      </c>
+      <c r="C109" s="186" t="s">
+        <v>316</v>
+      </c>
+      <c r="D109" s="186"/>
+      <c r="E109" s="186"/>
+      <c r="F109" s="186"/>
+      <c r="G109" s="186"/>
+    </row>
+    <row r="110" spans="1:7" customFormat="1">
+      <c r="B110" s="188"/>
+      <c r="C110" s="188"/>
+      <c r="D110" s="188"/>
+      <c r="E110" s="188"/>
+      <c r="F110" s="188"/>
+      <c r="G110" s="188"/>
+    </row>
+    <row r="111" spans="1:7" customFormat="1">
+      <c r="B111" s="191" t="s">
+        <v>262</v>
+      </c>
+      <c r="C111" s="191" t="s">
+        <v>317</v>
+      </c>
+      <c r="D111" s="191"/>
+      <c r="E111" s="191"/>
+      <c r="F111" s="191"/>
+      <c r="G111" s="191"/>
+    </row>
+    <row r="112" spans="1:7" customFormat="1">
+      <c r="B112" s="188"/>
+      <c r="C112" s="188"/>
+      <c r="D112" s="188"/>
+      <c r="E112" s="188"/>
+      <c r="F112" s="188"/>
+      <c r="G112" s="188"/>
+    </row>
+    <row r="113" spans="1:7" customFormat="1">
+      <c r="B113" s="198" t="s">
+        <v>263</v>
+      </c>
+      <c r="C113" s="198" t="s">
+        <v>210</v>
+      </c>
+      <c r="D113" s="191" t="s">
+        <v>377</v>
+      </c>
+      <c r="E113" s="191"/>
+      <c r="F113" s="191"/>
+      <c r="G113" s="191"/>
+    </row>
+    <row r="114" spans="1:7" customFormat="1">
+      <c r="B114" s="187"/>
+      <c r="C114" s="187"/>
+      <c r="D114" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E114" s="187"/>
+      <c r="F114" s="187"/>
+      <c r="G114" s="187"/>
+    </row>
+    <row r="115" spans="1:7" customFormat="1">
+      <c r="B115" s="187"/>
+      <c r="C115" s="187"/>
+      <c r="D115" s="187" t="s">
+        <v>353</v>
+      </c>
+      <c r="E115" s="187"/>
+      <c r="F115" s="187"/>
+      <c r="G115" s="187"/>
+    </row>
+    <row r="116" spans="1:7" customFormat="1">
+      <c r="B116" s="187"/>
+      <c r="C116" s="187"/>
+      <c r="D116" s="187" t="s">
+        <v>354</v>
+      </c>
+      <c r="E116" s="187"/>
+      <c r="F116" s="187"/>
+      <c r="G116" s="187"/>
+    </row>
+    <row r="117" spans="1:7" customFormat="1">
+      <c r="B117" s="187"/>
+      <c r="C117" s="187"/>
+      <c r="D117" s="187" t="s">
+        <v>386</v>
+      </c>
+      <c r="E117" s="187"/>
+      <c r="F117" s="187"/>
+      <c r="G117" s="187"/>
+    </row>
+    <row r="118" spans="1:7" customFormat="1">
+      <c r="B118" s="187"/>
+      <c r="C118" s="187"/>
+      <c r="D118" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E118" s="187"/>
+      <c r="F118" s="187"/>
+      <c r="G118" s="187"/>
+    </row>
+    <row r="119" spans="1:7" customFormat="1">
+      <c r="B119" s="187"/>
+      <c r="C119" s="187"/>
+      <c r="D119" s="187" t="s">
+        <v>353</v>
+      </c>
+      <c r="E119" s="187"/>
+      <c r="F119" s="187"/>
+      <c r="G119" s="187"/>
+    </row>
+    <row r="120" spans="1:7" customFormat="1">
+      <c r="B120" s="187"/>
+      <c r="C120" s="187"/>
+      <c r="D120" s="187" t="s">
+        <v>354</v>
+      </c>
+      <c r="E120" s="187"/>
+      <c r="F120" s="187"/>
+      <c r="G120" s="187"/>
+    </row>
+    <row r="121" spans="1:7" customFormat="1">
+      <c r="B121" s="187"/>
+      <c r="C121" s="187"/>
+      <c r="D121" s="187" t="s">
+        <v>387</v>
+      </c>
+      <c r="E121" s="187"/>
+      <c r="F121" s="187"/>
+      <c r="G121" s="187"/>
+    </row>
+    <row r="122" spans="1:7" customFormat="1">
+      <c r="B122" s="187"/>
+      <c r="C122" s="187"/>
+      <c r="D122" s="187" t="s">
+        <v>353</v>
+      </c>
+      <c r="E122" s="187"/>
+      <c r="F122" s="187"/>
+      <c r="G122" s="187"/>
+    </row>
+    <row r="123" spans="1:7" customFormat="1">
+      <c r="B123" s="187"/>
+      <c r="C123" s="187"/>
+      <c r="D123" s="187" t="s">
+        <v>354</v>
+      </c>
+      <c r="E123" s="187"/>
+      <c r="F123" s="187"/>
+      <c r="G123" s="187"/>
+    </row>
+    <row r="124" spans="1:7" customFormat="1">
+      <c r="B124" s="187"/>
+      <c r="C124" s="187"/>
+      <c r="D124" s="187" t="s">
+        <v>388</v>
+      </c>
+      <c r="E124" s="187"/>
+      <c r="F124" s="187"/>
+      <c r="G124" s="187"/>
+    </row>
+    <row r="125" spans="1:7" customFormat="1">
+      <c r="B125" s="187"/>
+      <c r="C125" s="187"/>
+      <c r="D125" s="195" t="s">
+        <v>356</v>
+      </c>
+      <c r="E125" s="187"/>
+      <c r="F125" s="187"/>
+      <c r="G125" s="187"/>
+    </row>
+    <row r="126" spans="1:7" customFormat="1">
+      <c r="B126" s="188"/>
+      <c r="C126" s="188"/>
+      <c r="D126" s="188"/>
+      <c r="E126" s="188"/>
+      <c r="F126" s="188"/>
+      <c r="G126" s="188"/>
+    </row>
+    <row r="127" spans="1:7" customFormat="1">
+      <c r="B127" s="191" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" s="191" t="s">
+        <v>239</v>
+      </c>
+      <c r="D127" s="191"/>
+      <c r="E127" s="191"/>
+      <c r="F127" s="191"/>
+      <c r="G127" s="191"/>
+    </row>
+    <row r="128" spans="1:7" customFormat="1">
+      <c r="B128" s="197"/>
+      <c r="C128" s="197"/>
+      <c r="D128" s="197"/>
+      <c r="E128" s="197"/>
+      <c r="F128" s="197"/>
+      <c r="G128" s="197"/>
+    </row>
+    <row r="129" spans="1:7" customFormat="1">
+      <c r="B129" s="186" t="s">
+        <v>265</v>
+      </c>
+      <c r="C129" s="186" t="s">
+        <v>318</v>
+      </c>
+      <c r="D129" s="186"/>
+      <c r="E129" s="186"/>
+      <c r="F129" s="186"/>
+      <c r="G129" s="186"/>
+    </row>
+    <row r="130" spans="1:7" customFormat="1">
+      <c r="B130" s="188"/>
+      <c r="C130" s="188"/>
+      <c r="D130" s="188"/>
+      <c r="E130" s="188"/>
+      <c r="F130" s="188"/>
+      <c r="G130" s="188"/>
+    </row>
+    <row r="131" spans="1:7" customFormat="1">
+      <c r="B131" s="191" t="s">
+        <v>266</v>
+      </c>
+      <c r="C131" s="191" t="s">
+        <v>319</v>
+      </c>
+      <c r="D131" s="191"/>
+      <c r="E131" s="191"/>
+      <c r="F131" s="191"/>
+      <c r="G131" s="191"/>
+    </row>
+    <row r="132" spans="1:7" customFormat="1">
+      <c r="B132" s="197"/>
+      <c r="C132" s="197"/>
+      <c r="D132" s="197"/>
+      <c r="E132" s="197"/>
+      <c r="F132" s="197"/>
+      <c r="G132" s="197"/>
+    </row>
+    <row r="133" spans="1:7" customFormat="1">
+      <c r="B133" s="186" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133" s="186" t="s">
+        <v>320</v>
+      </c>
+      <c r="D133" s="186"/>
+      <c r="E133" s="186"/>
+      <c r="F133" s="186"/>
+      <c r="G133" s="186"/>
+    </row>
+    <row r="134" spans="1:7" customFormat="1">
+      <c r="B134" s="188"/>
+      <c r="C134" s="188"/>
+      <c r="D134" s="188"/>
+      <c r="E134" s="188"/>
+      <c r="F134" s="188"/>
+      <c r="G134" s="188"/>
+    </row>
+    <row r="135" spans="1:7" customFormat="1">
+      <c r="B135" s="217" t="s">
+        <v>268</v>
+      </c>
+      <c r="C135" s="217" t="s">
+        <v>321</v>
+      </c>
+      <c r="D135" s="218" t="s">
+        <v>389</v>
+      </c>
+      <c r="E135" s="218"/>
+      <c r="F135" s="218"/>
+      <c r="G135" s="218"/>
+    </row>
+    <row r="136" spans="1:7" customFormat="1">
+      <c r="B136" s="187"/>
+      <c r="C136" s="187"/>
+      <c r="D136" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E136" s="187"/>
+      <c r="F136" s="187"/>
+      <c r="G136" s="187"/>
+    </row>
+    <row r="137" spans="1:7" customFormat="1">
+      <c r="B137" s="187"/>
+      <c r="C137" s="187"/>
+      <c r="D137" s="187" t="s">
+        <v>353</v>
+      </c>
+      <c r="E137" s="187"/>
+      <c r="F137" s="187"/>
+      <c r="G137" s="187"/>
+    </row>
+    <row r="138" spans="1:7" customFormat="1">
+      <c r="B138" s="195"/>
+      <c r="C138" s="195"/>
+      <c r="D138" s="195" t="s">
+        <v>354</v>
+      </c>
+      <c r="E138" s="195"/>
+      <c r="F138" s="195"/>
+      <c r="G138" s="195"/>
+    </row>
+    <row r="139" spans="1:7" customFormat="1">
+      <c r="B139" s="199"/>
+      <c r="C139" s="199"/>
+      <c r="D139" s="199" t="s">
+        <v>390</v>
+      </c>
+      <c r="E139" s="199"/>
+      <c r="F139" s="199"/>
+      <c r="G139" s="199"/>
+    </row>
+    <row r="140" spans="1:7" customFormat="1">
+      <c r="B140" s="187"/>
+      <c r="C140" s="187"/>
+      <c r="D140" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E140" s="187"/>
+      <c r="F140" s="187"/>
+      <c r="G140" s="187"/>
+    </row>
+    <row r="141" spans="1:7" customFormat="1">
+      <c r="B141" s="187"/>
+      <c r="C141" s="187"/>
+      <c r="D141" s="195" t="s">
+        <v>356</v>
+      </c>
+      <c r="E141" s="187"/>
+      <c r="F141" s="187"/>
+      <c r="G141" s="187"/>
+    </row>
+    <row r="142" spans="1:7" customFormat="1">
+      <c r="B142" s="196"/>
+      <c r="C142" s="196"/>
+      <c r="D142" s="196"/>
+      <c r="E142" s="196"/>
+      <c r="F142" s="196"/>
+      <c r="G142" s="196"/>
+    </row>
+    <row r="143" spans="1:7" customFormat="1">
+      <c r="B143" s="191" t="s">
+        <v>269</v>
+      </c>
+      <c r="C143" s="191" t="s">
+        <v>322</v>
+      </c>
+      <c r="D143" s="191"/>
+      <c r="E143" s="191"/>
+      <c r="F143" s="191"/>
+      <c r="G143" s="191"/>
+    </row>
+    <row r="144" spans="1:7" customFormat="1">
+      <c r="B144" s="188"/>
+      <c r="C144" s="188"/>
+      <c r="D144" s="188"/>
+      <c r="E144" s="188"/>
+      <c r="F144" s="188"/>
+      <c r="G144" s="188"/>
+    </row>
+    <row r="145" spans="1:7" customFormat="1">
+      <c r="B145" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="C145" s="192" t="s">
+        <v>323</v>
+      </c>
+      <c r="D145" s="191" t="s">
+        <v>377</v>
+      </c>
+      <c r="E145" s="191"/>
+      <c r="F145" s="191"/>
+      <c r="G145" s="191"/>
+    </row>
+    <row r="146" spans="1:7" customFormat="1">
+      <c r="B146" s="187"/>
+      <c r="C146" s="187"/>
+      <c r="D146" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E146" s="187"/>
+      <c r="F146" s="187"/>
+      <c r="G146" s="187"/>
+    </row>
+    <row r="147" spans="1:7" customFormat="1">
+      <c r="B147" s="187"/>
+      <c r="C147" s="187"/>
+      <c r="D147" s="187" t="s">
+        <v>353</v>
+      </c>
+      <c r="E147" s="187"/>
+      <c r="F147" s="187"/>
+      <c r="G147" s="187"/>
+    </row>
+    <row r="148" spans="1:7" customFormat="1">
+      <c r="B148" s="187"/>
+      <c r="C148" s="187"/>
+      <c r="D148" s="187" t="s">
+        <v>354</v>
+      </c>
+      <c r="E148" s="187"/>
+      <c r="F148" s="187"/>
+      <c r="G148" s="187"/>
+    </row>
+    <row r="149" spans="1:7" customFormat="1">
+      <c r="B149" s="187"/>
+      <c r="C149" s="187"/>
+      <c r="D149" s="187" t="s">
+        <v>378</v>
+      </c>
+      <c r="E149" s="187"/>
+      <c r="F149" s="187"/>
+      <c r="G149" s="187"/>
+    </row>
+    <row r="150" spans="1:7" customFormat="1">
+      <c r="B150" s="187"/>
+      <c r="C150" s="187"/>
+      <c r="D150" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E150" s="187"/>
+      <c r="F150" s="187"/>
+      <c r="G150" s="187"/>
+    </row>
+    <row r="151" spans="1:7" customFormat="1">
+      <c r="B151" s="187"/>
+      <c r="C151" s="187"/>
+      <c r="D151" s="187" t="s">
+        <v>353</v>
+      </c>
+      <c r="E151" s="187"/>
+      <c r="F151" s="187"/>
+      <c r="G151" s="187"/>
+    </row>
+    <row r="152" spans="1:7" customFormat="1">
+      <c r="B152" s="187"/>
+      <c r="C152" s="187"/>
+      <c r="D152" s="187" t="s">
+        <v>354</v>
+      </c>
+      <c r="E152" s="187"/>
+      <c r="F152" s="187"/>
+      <c r="G152" s="187"/>
+    </row>
+    <row r="153" spans="1:7" customFormat="1">
+      <c r="B153" s="187"/>
+      <c r="C153" s="187"/>
+      <c r="D153" s="187" t="s">
+        <v>379</v>
+      </c>
+      <c r="E153" s="187"/>
+      <c r="F153" s="187"/>
+      <c r="G153" s="187"/>
+    </row>
+    <row r="154" spans="1:7" customFormat="1">
+      <c r="B154" s="187"/>
+      <c r="C154" s="187"/>
+      <c r="D154" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E154" s="187"/>
+      <c r="F154" s="187"/>
+      <c r="G154" s="187"/>
+    </row>
+    <row r="155" spans="1:7" customFormat="1">
+      <c r="B155" s="187"/>
+      <c r="C155" s="187"/>
+      <c r="D155" s="187" t="s">
+        <v>353</v>
+      </c>
+      <c r="E155" s="187"/>
+      <c r="F155" s="187"/>
+      <c r="G155" s="187"/>
+    </row>
+    <row r="156" spans="1:7" customFormat="1">
+      <c r="B156" s="187"/>
+      <c r="C156" s="187"/>
+      <c r="D156" s="187" t="s">
+        <v>354</v>
+      </c>
+      <c r="E156" s="187"/>
+      <c r="F156" s="187"/>
+      <c r="G156" s="187"/>
+    </row>
+    <row r="157" spans="1:7" customFormat="1">
+      <c r="B157" s="187"/>
+      <c r="C157" s="187"/>
+      <c r="D157" s="187" t="s">
+        <v>380</v>
+      </c>
+      <c r="E157" s="187"/>
+      <c r="F157" s="187"/>
+      <c r="G157" s="187"/>
+    </row>
+    <row r="158" spans="1:7" customFormat="1">
+      <c r="B158" s="187"/>
+      <c r="C158" s="187"/>
+      <c r="D158" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E158" s="187"/>
+      <c r="F158" s="187"/>
+      <c r="G158" s="187"/>
+    </row>
+    <row r="159" spans="1:7" customFormat="1">
+      <c r="B159" s="187"/>
+      <c r="C159" s="187"/>
+      <c r="D159" s="195" t="s">
+        <v>356</v>
+      </c>
+      <c r="E159" s="187"/>
+      <c r="F159" s="187"/>
+      <c r="G159" s="187"/>
+    </row>
+    <row r="160" spans="1:7" customFormat="1">
+      <c r="B160" s="188"/>
+      <c r="C160" s="188"/>
+      <c r="D160" s="188"/>
+      <c r="E160" s="188"/>
+      <c r="F160" s="188"/>
+      <c r="G160" s="188"/>
+    </row>
+    <row r="161" spans="1:7" customFormat="1">
+      <c r="B161" s="186" t="s">
+        <v>271</v>
+      </c>
+      <c r="C161" s="186" t="s">
+        <v>324</v>
+      </c>
+      <c r="D161" s="186"/>
+      <c r="E161" s="186"/>
+      <c r="F161" s="186"/>
+      <c r="G161" s="186"/>
+    </row>
+    <row r="162" spans="1:7" customFormat="1">
+      <c r="B162" s="188"/>
+      <c r="C162" s="188"/>
+      <c r="D162" s="188"/>
+      <c r="E162" s="188"/>
+      <c r="F162" s="188"/>
+      <c r="G162" s="188"/>
+    </row>
+    <row r="163" spans="1:7" customFormat="1">
+      <c r="B163" s="186" t="s">
+        <v>271</v>
+      </c>
+      <c r="C163" s="186" t="s">
+        <v>326</v>
+      </c>
+      <c r="D163" s="186"/>
+      <c r="E163" s="186"/>
+      <c r="F163" s="186"/>
+      <c r="G163" s="186"/>
+    </row>
+    <row r="164" spans="1:7" customFormat="1">
+      <c r="B164" s="188"/>
+      <c r="C164" s="188"/>
+      <c r="D164" s="188"/>
+      <c r="E164" s="188"/>
+      <c r="F164" s="188"/>
+      <c r="G164" s="188"/>
+    </row>
+    <row r="165" spans="1:7" customFormat="1">
+      <c r="B165" s="186" t="s">
+        <v>271</v>
+      </c>
+      <c r="C165" s="186" t="s">
+        <v>327</v>
+      </c>
+      <c r="D165" s="186"/>
+      <c r="E165" s="186"/>
+      <c r="F165" s="186"/>
+      <c r="G165" s="186"/>
+    </row>
+    <row r="166" spans="1:7" customFormat="1">
+      <c r="B166" s="188"/>
+      <c r="C166" s="188"/>
+      <c r="D166" s="188"/>
+      <c r="E166" s="188"/>
+      <c r="F166" s="188"/>
+      <c r="G166" s="188"/>
+    </row>
+    <row r="167" spans="1:7" customFormat="1">
+      <c r="B167" s="191" t="s">
+        <v>272</v>
+      </c>
+      <c r="C167" s="191" t="s">
+        <v>325</v>
+      </c>
+      <c r="D167" s="191"/>
+      <c r="E167" s="191"/>
+      <c r="F167" s="191"/>
+      <c r="G167" s="191"/>
+    </row>
+    <row r="168" spans="1:7" customFormat="1">
+      <c r="B168" s="188"/>
+      <c r="C168" s="188"/>
+      <c r="D168" s="188"/>
+      <c r="E168" s="188"/>
+      <c r="F168" s="188"/>
+      <c r="G168" s="188"/>
+    </row>
+    <row r="169" spans="1:7" customFormat="1">
+      <c r="B169" s="198" t="s">
+        <v>273</v>
+      </c>
+      <c r="C169" s="198" t="s">
+        <v>328</v>
+      </c>
+      <c r="D169" s="191" t="s">
+        <v>371</v>
+      </c>
+      <c r="E169" s="191"/>
+      <c r="F169" s="191"/>
+      <c r="G169" s="191"/>
+    </row>
+    <row r="170" spans="1:7" customFormat="1">
+      <c r="B170" s="187"/>
+      <c r="C170" s="187"/>
+      <c r="D170" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E170" s="187"/>
+      <c r="F170" s="187"/>
+      <c r="G170" s="187"/>
+    </row>
+    <row r="171" spans="1:7" customFormat="1">
+      <c r="B171" s="187"/>
+      <c r="C171" s="187"/>
+      <c r="D171" s="187" t="s">
+        <v>353</v>
+      </c>
+      <c r="E171" s="187"/>
+      <c r="F171" s="187"/>
+      <c r="G171" s="187"/>
+    </row>
+    <row r="172" spans="1:7" customFormat="1">
+      <c r="B172" s="187"/>
+      <c r="C172" s="187"/>
+      <c r="D172" s="187" t="s">
+        <v>354</v>
+      </c>
+      <c r="E172" s="187"/>
+      <c r="F172" s="187"/>
+      <c r="G172" s="187"/>
+    </row>
+    <row r="173" spans="1:7" customFormat="1">
+      <c r="B173" s="187"/>
+      <c r="C173" s="187"/>
+      <c r="D173" s="187" t="s">
+        <v>372</v>
+      </c>
+      <c r="E173" s="187"/>
+      <c r="F173" s="187"/>
+      <c r="G173" s="187"/>
+    </row>
+    <row r="174" spans="1:7" customFormat="1">
+      <c r="B174" s="187"/>
+      <c r="C174" s="187"/>
+      <c r="D174" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E174" s="187"/>
+      <c r="F174" s="187"/>
+      <c r="G174" s="187"/>
+    </row>
+    <row r="175" spans="1:7" customFormat="1">
+      <c r="B175" s="187"/>
+      <c r="C175" s="187"/>
+      <c r="D175" s="195" t="s">
+        <v>356</v>
+      </c>
+      <c r="E175" s="187"/>
+      <c r="F175" s="187"/>
+      <c r="G175" s="187"/>
+    </row>
+    <row r="176" spans="1:7" customFormat="1">
+      <c r="B176" s="187"/>
+      <c r="C176" s="187"/>
+      <c r="D176" s="187" t="s">
+        <v>373</v>
+      </c>
+      <c r="E176" s="187"/>
+      <c r="F176" s="187"/>
+      <c r="G176" s="187"/>
+    </row>
+    <row r="177" spans="1:7" customFormat="1">
+      <c r="B177" s="187"/>
+      <c r="C177" s="187"/>
+      <c r="D177" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E177" s="187"/>
+      <c r="F177" s="187"/>
+      <c r="G177" s="187"/>
+    </row>
+    <row r="178" spans="1:7" customFormat="1">
+      <c r="B178" s="187"/>
+      <c r="C178" s="187"/>
+      <c r="D178" s="195" t="s">
+        <v>356</v>
+      </c>
+      <c r="E178" s="187"/>
+      <c r="F178" s="187"/>
+      <c r="G178" s="187"/>
+    </row>
+    <row r="179" spans="1:7" customFormat="1">
+      <c r="B179" s="188"/>
+      <c r="C179" s="188"/>
+      <c r="D179" s="188"/>
+      <c r="E179" s="188"/>
+      <c r="F179" s="188"/>
+      <c r="G179" s="188"/>
+    </row>
+    <row r="180" spans="1:7" customFormat="1">
+      <c r="B180" s="186" t="s">
+        <v>274</v>
+      </c>
+      <c r="C180" s="186" t="s">
+        <v>329</v>
+      </c>
+      <c r="D180" s="186"/>
+      <c r="E180" s="186"/>
+      <c r="F180" s="186"/>
+      <c r="G180" s="186"/>
+    </row>
+    <row r="181" spans="1:7" customFormat="1">
+      <c r="B181" s="188"/>
+      <c r="C181" s="188"/>
+      <c r="D181" s="188"/>
+      <c r="E181" s="188"/>
+      <c r="F181" s="188"/>
+      <c r="G181" s="188"/>
+    </row>
+    <row r="182" spans="1:7" customFormat="1">
+      <c r="B182" s="191" t="s">
+        <v>275</v>
+      </c>
+      <c r="C182" s="191" t="s">
+        <v>330</v>
+      </c>
+      <c r="D182" s="191"/>
+      <c r="E182" s="191"/>
+      <c r="F182" s="191"/>
+      <c r="G182" s="191"/>
+    </row>
+    <row r="183" spans="1:7" customFormat="1">
+      <c r="B183" s="188"/>
+      <c r="C183" s="188"/>
+      <c r="D183" s="188"/>
+      <c r="E183" s="188"/>
+      <c r="F183" s="188"/>
+      <c r="G183" s="188"/>
+    </row>
+    <row r="184" spans="1:7" customFormat="1">
+      <c r="B184" s="198" t="s">
+        <v>276</v>
+      </c>
+      <c r="C184" s="198" t="s">
+        <v>331</v>
+      </c>
+      <c r="D184" s="191" t="s">
+        <v>374</v>
+      </c>
+      <c r="E184" s="191"/>
+      <c r="F184" s="191"/>
+      <c r="G184" s="191"/>
+    </row>
+    <row r="185" spans="1:7" customFormat="1">
+      <c r="B185" s="187"/>
+      <c r="C185" s="187"/>
+      <c r="D185" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E185" s="187"/>
+      <c r="F185" s="187"/>
+      <c r="G185" s="187"/>
+    </row>
+    <row r="186" spans="1:7" customFormat="1">
+      <c r="B186" s="187"/>
+      <c r="C186" s="187"/>
+      <c r="D186" s="187" t="s">
+        <v>353</v>
+      </c>
+      <c r="E186" s="187"/>
+      <c r="F186" s="187"/>
+      <c r="G186" s="187"/>
+    </row>
+    <row r="187" spans="1:7" customFormat="1">
+      <c r="B187" s="187"/>
+      <c r="C187" s="187"/>
+      <c r="D187" s="187" t="s">
+        <v>354</v>
+      </c>
+      <c r="E187" s="187"/>
+      <c r="F187" s="187"/>
+      <c r="G187" s="187"/>
+    </row>
+    <row r="188" spans="1:7" customFormat="1">
+      <c r="B188" s="187"/>
+      <c r="C188" s="187"/>
+      <c r="D188" s="187" t="s">
+        <v>375</v>
+      </c>
+      <c r="E188" s="187"/>
+      <c r="F188" s="187"/>
+      <c r="G188" s="187"/>
+    </row>
+    <row r="189" spans="1:7" customFormat="1">
+      <c r="B189" s="187"/>
+      <c r="C189" s="187"/>
+      <c r="D189" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E189" s="187"/>
+      <c r="F189" s="187"/>
+      <c r="G189" s="187"/>
+    </row>
+    <row r="190" spans="1:7" customFormat="1">
+      <c r="B190" s="187"/>
+      <c r="C190" s="187"/>
+      <c r="D190" s="195" t="s">
+        <v>356</v>
+      </c>
+      <c r="E190" s="187"/>
+      <c r="F190" s="187"/>
+      <c r="G190" s="187"/>
+    </row>
+    <row r="191" spans="1:7" customFormat="1">
+      <c r="B191" s="187"/>
+      <c r="C191" s="187"/>
+      <c r="D191" s="187" t="s">
+        <v>376</v>
+      </c>
+      <c r="E191" s="187"/>
+      <c r="F191" s="187"/>
+      <c r="G191" s="187"/>
+    </row>
+    <row r="192" spans="1:7" customFormat="1">
+      <c r="B192" s="187"/>
+      <c r="C192" s="187"/>
+      <c r="D192" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E192" s="187"/>
+      <c r="F192" s="187"/>
+      <c r="G192" s="187"/>
+    </row>
+    <row r="193" spans="1:7" customFormat="1">
+      <c r="B193" s="187"/>
+      <c r="C193" s="187"/>
+      <c r="D193" s="195" t="s">
+        <v>356</v>
+      </c>
+      <c r="E193" s="187"/>
+      <c r="F193" s="187"/>
+      <c r="G193" s="187"/>
+    </row>
+    <row r="194" spans="1:7" customFormat="1">
+      <c r="B194" s="188"/>
+      <c r="C194" s="188"/>
+      <c r="D194" s="188"/>
+      <c r="E194" s="188"/>
+      <c r="F194" s="188"/>
+      <c r="G194" s="188"/>
+    </row>
+    <row r="195" spans="1:7" customFormat="1">
+      <c r="B195" s="219" t="s">
+        <v>277</v>
+      </c>
+      <c r="C195" s="219" t="s">
+        <v>297</v>
+      </c>
+      <c r="D195" s="186" t="s">
+        <v>381</v>
+      </c>
+      <c r="E195" s="186"/>
+      <c r="F195" s="186"/>
+      <c r="G195" s="186"/>
+    </row>
+    <row r="196" spans="1:7" customFormat="1">
+      <c r="B196" s="187"/>
+      <c r="C196" s="187"/>
+      <c r="D196" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E196" s="187"/>
+      <c r="F196" s="187"/>
+      <c r="G196" s="187"/>
+    </row>
+    <row r="197" spans="1:7" customFormat="1">
+      <c r="B197" s="187"/>
+      <c r="C197" s="187"/>
+      <c r="D197" s="195" t="s">
+        <v>356</v>
+      </c>
+      <c r="E197" s="187"/>
+      <c r="F197" s="187"/>
+      <c r="G197" s="187"/>
+    </row>
+    <row r="198" spans="1:7" customFormat="1">
+      <c r="B198" s="188"/>
+      <c r="C198" s="188"/>
+      <c r="D198" s="188"/>
+      <c r="E198" s="188"/>
+      <c r="F198" s="188"/>
+      <c r="G198" s="188"/>
+    </row>
+    <row r="199" spans="1:7" customFormat="1">
+      <c r="B199" s="198" t="s">
+        <v>278</v>
+      </c>
+      <c r="C199" s="198" t="s">
+        <v>332</v>
+      </c>
+      <c r="D199" s="199" t="s">
+        <v>390</v>
+      </c>
+      <c r="E199" s="191"/>
+      <c r="F199" s="191"/>
+      <c r="G199" s="191"/>
+    </row>
+    <row r="200" spans="1:7" customFormat="1">
+      <c r="B200" s="187"/>
+      <c r="C200" s="187"/>
+      <c r="D200" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E200" s="187"/>
+      <c r="F200" s="187"/>
+      <c r="G200" s="187"/>
+    </row>
+    <row r="201" spans="1:7" customFormat="1">
+      <c r="B201" s="187"/>
+      <c r="C201" s="187"/>
+      <c r="D201" s="187" t="s">
+        <v>353</v>
+      </c>
+      <c r="E201" s="187"/>
+      <c r="F201" s="187"/>
+      <c r="G201" s="187"/>
+    </row>
+    <row r="202" spans="1:7" customFormat="1">
+      <c r="B202" s="195"/>
+      <c r="C202" s="195"/>
+      <c r="D202" s="195" t="s">
+        <v>354</v>
+      </c>
+      <c r="E202" s="195"/>
+      <c r="F202" s="195"/>
+      <c r="G202" s="195"/>
+    </row>
+    <row r="203" spans="1:7" customFormat="1">
+      <c r="B203" s="199"/>
+      <c r="C203" s="199"/>
+      <c r="D203" s="199" t="s">
+        <v>389</v>
+      </c>
+      <c r="E203" s="199"/>
+      <c r="F203" s="199"/>
+      <c r="G203" s="199"/>
+    </row>
+    <row r="204" spans="1:7" customFormat="1">
+      <c r="B204" s="187"/>
+      <c r="C204" s="187"/>
+      <c r="D204" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E204" s="187"/>
+      <c r="F204" s="187"/>
+      <c r="G204" s="187"/>
+    </row>
+    <row r="205" spans="1:7" customFormat="1">
+      <c r="B205" s="187"/>
+      <c r="C205" s="187"/>
+      <c r="D205" s="195" t="s">
+        <v>356</v>
+      </c>
+      <c r="E205" s="187"/>
+      <c r="F205" s="187"/>
+      <c r="G205" s="187"/>
+    </row>
+    <row r="206" spans="1:7" customFormat="1">
+      <c r="B206" s="188"/>
+      <c r="C206" s="188"/>
+      <c r="D206" s="188"/>
+      <c r="E206" s="188"/>
+      <c r="F206" s="188"/>
+      <c r="G206" s="188"/>
+    </row>
+    <row r="207" spans="1:7" customFormat="1">
+      <c r="B207" s="198" t="s">
+        <v>279</v>
+      </c>
+      <c r="C207" s="198" t="s">
+        <v>333</v>
+      </c>
+      <c r="D207" s="191" t="s">
+        <v>377</v>
+      </c>
+      <c r="E207" s="191"/>
+      <c r="F207" s="191"/>
+      <c r="G207" s="191"/>
+    </row>
+    <row r="208" spans="1:7" customFormat="1">
+      <c r="B208" s="187"/>
+      <c r="C208" s="187"/>
+      <c r="D208" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E208" s="187"/>
+      <c r="F208" s="187"/>
+      <c r="G208" s="187"/>
+    </row>
+    <row r="209" spans="1:8" customFormat="1">
+      <c r="B209" s="187"/>
+      <c r="C209" s="187"/>
+      <c r="D209" s="187" t="s">
+        <v>353</v>
+      </c>
+      <c r="E209" s="187"/>
+      <c r="F209" s="187"/>
+      <c r="G209" s="187"/>
+    </row>
+    <row r="210" spans="1:8" customFormat="1">
+      <c r="B210" s="187"/>
+      <c r="C210" s="187"/>
+      <c r="D210" s="187" t="s">
+        <v>354</v>
+      </c>
+      <c r="E210" s="187"/>
+      <c r="F210" s="187"/>
+      <c r="G210" s="187"/>
+    </row>
+    <row r="211" spans="1:8" customFormat="1">
+      <c r="B211" s="187"/>
+      <c r="C211" s="187"/>
+      <c r="D211" s="187" t="s">
+        <v>378</v>
+      </c>
+      <c r="E211" s="187"/>
+      <c r="F211" s="187"/>
+      <c r="G211" s="187"/>
+    </row>
+    <row r="212" spans="1:8" customFormat="1">
+      <c r="B212" s="187"/>
+      <c r="C212" s="187"/>
+      <c r="D212" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E212" s="187"/>
+      <c r="F212" s="187"/>
+      <c r="G212" s="187"/>
+    </row>
+    <row r="213" spans="1:8" customFormat="1">
+      <c r="B213" s="187"/>
+      <c r="C213" s="187"/>
+      <c r="D213" s="187" t="s">
+        <v>353</v>
+      </c>
+      <c r="E213" s="187"/>
+      <c r="F213" s="187"/>
+      <c r="G213" s="187"/>
+    </row>
+    <row r="214" spans="1:8" customFormat="1">
+      <c r="B214" s="187"/>
+      <c r="C214" s="187"/>
+      <c r="D214" s="187" t="s">
+        <v>354</v>
+      </c>
+      <c r="E214" s="187"/>
+      <c r="F214" s="187"/>
+      <c r="G214" s="187"/>
+    </row>
+    <row r="215" spans="1:8" customFormat="1">
+      <c r="B215" s="187"/>
+      <c r="C215" s="187"/>
+      <c r="D215" s="187" t="s">
+        <v>379</v>
+      </c>
+      <c r="E215" s="187"/>
+      <c r="F215" s="187"/>
+      <c r="G215" s="187"/>
+    </row>
+    <row r="216" spans="1:8" customFormat="1">
+      <c r="B216" s="187"/>
+      <c r="C216" s="187"/>
+      <c r="D216" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E216" s="187"/>
+      <c r="F216" s="187"/>
+      <c r="G216" s="187"/>
+    </row>
+    <row r="217" spans="1:8" customFormat="1">
+      <c r="B217" s="187"/>
+      <c r="C217" s="187"/>
+      <c r="D217" s="195" t="s">
+        <v>356</v>
+      </c>
+      <c r="E217" s="187"/>
+      <c r="F217" s="187"/>
+      <c r="G217" s="187"/>
+    </row>
+    <row r="218" spans="1:8" customFormat="1">
+      <c r="B218" s="188"/>
+      <c r="C218" s="188"/>
+      <c r="D218" s="188"/>
+      <c r="E218" s="188"/>
+      <c r="F218" s="188"/>
+      <c r="G218" s="188"/>
+    </row>
+    <row r="219" spans="1:8" customFormat="1">
+      <c r="B219" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="C219" s="186" t="s">
+        <v>334</v>
+      </c>
+      <c r="D219" s="186"/>
+      <c r="E219" s="186"/>
+      <c r="F219" s="186"/>
+      <c r="G219" s="186"/>
+    </row>
+    <row r="220" spans="1:8" customFormat="1">
+      <c r="B220" s="188"/>
+      <c r="C220" s="188"/>
+      <c r="D220" s="188"/>
+      <c r="E220" s="188"/>
+      <c r="F220" s="188"/>
+      <c r="G220" s="188"/>
+    </row>
+    <row r="221" spans="1:8" customFormat="1">
+      <c r="B221" s="191" t="s">
+        <v>281</v>
+      </c>
+      <c r="C221" s="191" t="s">
+        <v>335</v>
+      </c>
+      <c r="D221" s="191"/>
+      <c r="E221" s="191"/>
+      <c r="F221" s="191"/>
+      <c r="G221" s="191"/>
+    </row>
+    <row r="222" spans="1:8" customFormat="1">
+      <c r="B222" s="188"/>
+      <c r="C222" s="188"/>
+      <c r="D222" s="188"/>
+      <c r="E222" s="188"/>
+      <c r="F222" s="188"/>
+      <c r="G222" s="188"/>
+    </row>
+    <row r="223" spans="1:8" customFormat="1">
+      <c r="B223" s="198" t="s">
+        <v>282</v>
+      </c>
+      <c r="C223" s="198" t="s">
+        <v>206</v>
+      </c>
+      <c r="D223" s="191" t="s">
+        <v>381</v>
+      </c>
+      <c r="E223" s="191" t="s">
+        <v>393</v>
+      </c>
+      <c r="F223" s="220" t="s">
+        <v>240</v>
+      </c>
+      <c r="G223" s="186"/>
+      <c r="H223" s="200" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" customFormat="1">
+      <c r="B224" s="187"/>
+      <c r="C224" s="187"/>
+      <c r="D224" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E224" s="187" t="s">
+        <v>394</v>
+      </c>
+      <c r="F224" s="221" t="s">
+        <v>395</v>
+      </c>
+      <c r="G224" s="187"/>
+    </row>
+    <row r="225" spans="1:8" customFormat="1">
+      <c r="B225" s="187"/>
+      <c r="C225" s="187"/>
+      <c r="D225" s="187" t="s">
+        <v>353</v>
+      </c>
+      <c r="E225" s="187" t="s">
+        <v>396</v>
+      </c>
+      <c r="F225" s="187"/>
+      <c r="G225" s="187" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" customFormat="1">
+      <c r="B226" s="187"/>
+      <c r="C226" s="187"/>
+      <c r="D226" s="187"/>
+      <c r="E226" s="187" t="s">
+        <v>397</v>
+      </c>
+      <c r="F226" s="187"/>
+      <c r="G226" s="187"/>
+    </row>
+    <row r="227" spans="1:8" customFormat="1">
+      <c r="B227" s="187"/>
+      <c r="C227" s="187"/>
+      <c r="D227" s="187" t="s">
+        <v>354</v>
+      </c>
+      <c r="E227" s="187" t="s">
+        <v>398</v>
+      </c>
+      <c r="F227" s="221" t="s">
+        <v>399</v>
+      </c>
+      <c r="G227" s="187"/>
+      <c r="H227" s="200" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" customFormat="1">
+      <c r="B228" s="187"/>
+      <c r="C228" s="187"/>
+      <c r="D228" s="187"/>
+      <c r="E228" s="187" t="s">
+        <v>397</v>
+      </c>
+      <c r="F228" s="187"/>
+      <c r="G228" s="187"/>
+    </row>
+    <row r="229" spans="1:8" customFormat="1">
+      <c r="B229" s="187"/>
+      <c r="C229" s="187"/>
+      <c r="D229" s="187"/>
+      <c r="E229" s="187" t="s">
+        <v>400</v>
+      </c>
+      <c r="F229" s="221" t="s">
+        <v>399</v>
+      </c>
+      <c r="G229" s="187"/>
+      <c r="H229" s="200" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" customFormat="1">
+      <c r="B230" s="187"/>
+      <c r="C230" s="187"/>
+      <c r="D230" s="187"/>
+      <c r="E230" s="187" t="s">
+        <v>401</v>
+      </c>
+      <c r="F230" s="187"/>
+      <c r="G230" s="222" t="s">
+        <v>207</v>
+      </c>
+      <c r="H230" s="200" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" customFormat="1">
+      <c r="B231" s="187"/>
+      <c r="C231" s="187"/>
+      <c r="D231" s="187"/>
+      <c r="E231" s="187" t="s">
+        <v>397</v>
+      </c>
+      <c r="F231" s="187"/>
+      <c r="G231" s="187"/>
+      <c r="H231" s="200" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" customFormat="1">
+      <c r="B232" s="187"/>
+      <c r="C232" s="187"/>
+      <c r="D232" s="187" t="s">
+        <v>382</v>
+      </c>
+      <c r="E232" s="187" t="s">
+        <v>402</v>
+      </c>
+      <c r="F232" s="220" t="s">
+        <v>240</v>
+      </c>
+      <c r="G232" s="222" t="s">
+        <v>403</v>
+      </c>
+      <c r="H232" s="200" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" customFormat="1">
+      <c r="B233" s="187"/>
+      <c r="C233" s="187"/>
+      <c r="D233" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E233" s="187" t="s">
+        <v>394</v>
+      </c>
+      <c r="F233" s="221" t="s">
+        <v>395</v>
+      </c>
+      <c r="G233" s="187"/>
+    </row>
+    <row r="234" spans="1:8" customFormat="1">
+      <c r="B234" s="187"/>
+      <c r="C234" s="187"/>
+      <c r="D234" s="195" t="s">
+        <v>356</v>
+      </c>
+      <c r="E234" s="187" t="s">
+        <v>396</v>
+      </c>
+      <c r="F234" s="187"/>
+      <c r="G234" s="187" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" customFormat="1">
+      <c r="B235" s="188"/>
+      <c r="C235" s="188"/>
+      <c r="D235" s="188"/>
+      <c r="E235" s="188"/>
+      <c r="F235" s="188"/>
+      <c r="G235" s="188"/>
+    </row>
+    <row r="236" spans="1:8" customFormat="1">
+      <c r="B236" s="186" t="s">
+        <v>283</v>
+      </c>
+      <c r="C236" s="186" t="s">
+        <v>341</v>
+      </c>
+      <c r="D236" s="186"/>
+      <c r="E236" s="186"/>
+      <c r="F236" s="186"/>
+      <c r="G236" s="186"/>
+    </row>
+    <row r="237" spans="1:8" customFormat="1">
+      <c r="B237" s="188"/>
+      <c r="C237" s="188"/>
+      <c r="D237" s="188"/>
+      <c r="E237" s="188"/>
+      <c r="F237" s="188"/>
+      <c r="G237" s="188"/>
+    </row>
+    <row r="238" spans="1:8" customFormat="1">
+      <c r="B238" s="186" t="s">
+        <v>284</v>
+      </c>
+      <c r="C238" s="186" t="s">
+        <v>336</v>
+      </c>
+      <c r="D238" s="186"/>
+      <c r="E238" s="186"/>
+      <c r="F238" s="186"/>
+      <c r="G238" s="186"/>
+    </row>
+    <row r="239" spans="1:8" customFormat="1">
+      <c r="B239" s="188"/>
+      <c r="C239" s="188"/>
+      <c r="D239" s="188"/>
+      <c r="E239" s="188"/>
+      <c r="F239" s="188"/>
+      <c r="G239" s="188"/>
+    </row>
+    <row r="240" spans="1:8" customFormat="1">
+      <c r="B240" s="191" t="s">
+        <v>285</v>
+      </c>
+      <c r="C240" s="191" t="s">
+        <v>337</v>
+      </c>
+      <c r="D240" s="191"/>
+      <c r="E240" s="191"/>
+      <c r="F240" s="191"/>
+      <c r="G240" s="191"/>
+    </row>
+    <row r="241" spans="1:8" customFormat="1">
+      <c r="B241" s="197"/>
+      <c r="C241" s="197"/>
+      <c r="D241" s="197"/>
+      <c r="E241" s="197"/>
+      <c r="F241" s="197"/>
+      <c r="G241" s="197"/>
+    </row>
+    <row r="242" spans="1:8" customFormat="1">
+      <c r="B242" s="186" t="s">
+        <v>286</v>
+      </c>
+      <c r="C242" s="186" t="s">
+        <v>338</v>
+      </c>
+      <c r="D242" s="186"/>
+      <c r="E242" s="186"/>
+      <c r="F242" s="186"/>
+      <c r="G242" s="186"/>
+    </row>
+    <row r="243" spans="1:8" customFormat="1">
+      <c r="B243" s="188"/>
+      <c r="C243" s="188"/>
+      <c r="D243" s="188"/>
+      <c r="E243" s="188"/>
+      <c r="F243" s="188"/>
+      <c r="G243" s="188"/>
+    </row>
+    <row r="244" spans="1:8" customFormat="1">
+      <c r="B244" s="186" t="s">
+        <v>287</v>
+      </c>
+      <c r="C244" s="186" t="s">
+        <v>339</v>
+      </c>
+      <c r="D244" s="186"/>
+      <c r="E244" s="186"/>
+      <c r="F244" s="186"/>
+      <c r="G244" s="186"/>
+    </row>
+    <row r="245" spans="1:8" customFormat="1">
+      <c r="B245" s="188"/>
+      <c r="C245" s="188"/>
+      <c r="D245" s="188"/>
+      <c r="E245" s="188"/>
+      <c r="F245" s="188"/>
+      <c r="G245" s="188"/>
+    </row>
+    <row r="246" spans="1:8" customFormat="1">
+      <c r="B246" s="191" t="s">
+        <v>288</v>
+      </c>
+      <c r="C246" s="191" t="s">
+        <v>340</v>
+      </c>
+      <c r="D246" s="191"/>
+      <c r="E246" s="191"/>
+      <c r="F246" s="191"/>
+      <c r="G246" s="191"/>
+    </row>
+    <row r="247" spans="1:8" customFormat="1">
+      <c r="B247" s="188"/>
+      <c r="C247" s="188"/>
+      <c r="D247" s="188"/>
+      <c r="E247" s="188"/>
+      <c r="F247" s="188"/>
+      <c r="G247" s="188"/>
+    </row>
+    <row r="248" spans="1:8" customFormat="1">
+      <c r="B248" s="198" t="s">
         <v>347</v>
       </c>
-      <c r="C101" s="238" t="s">
+      <c r="C248" s="198" t="s">
         <v>345</v>
       </c>
-      <c r="D101" s="187"/>
-      <c r="E101" s="187"/>
-      <c r="F101" s="187"/>
-      <c r="G101" s="187"/>
-    </row>
-    <row r="102" spans="1:7" customFormat="1">
-      <c r="B102" s="187"/>
-      <c r="C102" s="187"/>
-      <c r="D102" s="187"/>
-      <c r="E102" s="187"/>
-      <c r="F102" s="187"/>
-      <c r="G102" s="187"/>
-    </row>
-    <row r="103" spans="1:7" customFormat="1">
-      <c r="B103" s="187" t="s">
+      <c r="D248" s="191" t="s">
+        <v>383</v>
+      </c>
+      <c r="E248" s="191"/>
+      <c r="F248" s="191"/>
+      <c r="G248" s="191"/>
+    </row>
+    <row r="249" spans="1:8" customFormat="1">
+      <c r="B249" s="187"/>
+      <c r="C249" s="187"/>
+      <c r="D249" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E249" s="187"/>
+      <c r="F249" s="187"/>
+      <c r="G249" s="187"/>
+    </row>
+    <row r="250" spans="1:8" customFormat="1">
+      <c r="B250" s="187"/>
+      <c r="C250" s="187"/>
+      <c r="D250" s="187" t="s">
+        <v>353</v>
+      </c>
+      <c r="E250" s="187"/>
+      <c r="F250" s="187"/>
+      <c r="G250" s="187"/>
+    </row>
+    <row r="251" spans="1:8" customFormat="1">
+      <c r="B251" s="187"/>
+      <c r="C251" s="187"/>
+      <c r="D251" s="187" t="s">
+        <v>354</v>
+      </c>
+      <c r="E251" s="187"/>
+      <c r="F251" s="187"/>
+      <c r="G251" s="187"/>
+    </row>
+    <row r="252" spans="1:8" customFormat="1">
+      <c r="B252" s="187"/>
+      <c r="C252" s="187"/>
+      <c r="D252" s="187" t="s">
+        <v>384</v>
+      </c>
+      <c r="E252" s="187"/>
+      <c r="F252" s="187"/>
+      <c r="G252" s="187"/>
+    </row>
+    <row r="253" spans="1:8" customFormat="1">
+      <c r="B253" s="187"/>
+      <c r="C253" s="187"/>
+      <c r="D253" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E253" s="187"/>
+      <c r="F253" s="187"/>
+      <c r="G253" s="187"/>
+    </row>
+    <row r="254" spans="1:8" customFormat="1">
+      <c r="B254" s="187"/>
+      <c r="C254" s="187"/>
+      <c r="D254" s="195" t="s">
+        <v>356</v>
+      </c>
+      <c r="E254" s="187"/>
+      <c r="F254" s="187"/>
+      <c r="G254" s="187"/>
+    </row>
+    <row r="255" spans="1:8" customFormat="1">
+      <c r="B255" s="188"/>
+      <c r="C255" s="188"/>
+      <c r="D255" s="188"/>
+      <c r="E255" s="188"/>
+      <c r="F255" s="188"/>
+      <c r="G255" s="188"/>
+    </row>
+    <row r="256" spans="1:8" customFormat="1">
+      <c r="B256" s="186" t="s">
         <v>348</v>
       </c>
-      <c r="C103" s="187" t="s">
+      <c r="C256" s="186" t="s">
         <v>342</v>
       </c>
-      <c r="D103" s="187"/>
-      <c r="E103" s="187"/>
-      <c r="F103" s="187"/>
-      <c r="G103" s="187"/>
-    </row>
-    <row r="104" spans="1:7" customFormat="1">
-      <c r="B104" s="187"/>
-      <c r="C104" s="187"/>
-      <c r="D104" s="187"/>
-      <c r="E104" s="187"/>
-      <c r="F104" s="187"/>
-      <c r="G104" s="187"/>
-    </row>
-    <row r="105" spans="1:7" customFormat="1">
-      <c r="B105" s="187" t="s">
+      <c r="D256" s="186"/>
+      <c r="E256" s="186"/>
+      <c r="F256" s="186"/>
+      <c r="G256" s="186"/>
+    </row>
+    <row r="257" spans="1:8" customFormat="1">
+      <c r="B257" s="188"/>
+      <c r="C257" s="188"/>
+      <c r="D257" s="188"/>
+      <c r="E257" s="188"/>
+      <c r="F257" s="188"/>
+      <c r="G257" s="188"/>
+    </row>
+    <row r="258" spans="1:8" customFormat="1">
+      <c r="B258" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="C105" s="187" t="s">
+      <c r="C258" s="186" t="s">
         <v>343</v>
       </c>
-      <c r="D105" s="187"/>
-      <c r="E105" s="187"/>
-      <c r="F105" s="187"/>
-      <c r="G105" s="187"/>
-    </row>
-    <row r="106" spans="1:7" customFormat="1">
-      <c r="B106" s="187"/>
-      <c r="C106" s="187"/>
-      <c r="D106" s="187"/>
-      <c r="E106" s="187"/>
-      <c r="F106" s="187"/>
-      <c r="G106" s="187"/>
-    </row>
-    <row r="107" spans="1:7" customFormat="1">
-      <c r="B107" s="187" t="s">
+      <c r="D258" s="186"/>
+      <c r="E258" s="186"/>
+      <c r="F258" s="186"/>
+      <c r="G258" s="186"/>
+    </row>
+    <row r="259" spans="1:8" customFormat="1">
+      <c r="B259" s="188"/>
+      <c r="C259" s="188"/>
+      <c r="D259" s="188"/>
+      <c r="E259" s="188"/>
+      <c r="F259" s="188"/>
+      <c r="G259" s="188"/>
+    </row>
+    <row r="260" spans="1:8" customFormat="1">
+      <c r="B260" s="191" t="s">
         <v>291</v>
       </c>
-      <c r="C107" s="187" t="s">
+      <c r="C260" s="191" t="s">
         <v>344</v>
       </c>
-      <c r="D107" s="187"/>
-      <c r="E107" s="187"/>
-      <c r="F107" s="187"/>
-      <c r="G107" s="187"/>
-    </row>
-    <row r="108" spans="1:7" customFormat="1">
-      <c r="B108" s="187"/>
-      <c r="C108" s="187"/>
-      <c r="D108" s="187"/>
-      <c r="E108" s="187"/>
-      <c r="F108" s="187"/>
-      <c r="G108" s="187"/>
-    </row>
-    <row r="109" spans="1:7" customFormat="1">
-      <c r="B109" s="238" t="s">
+      <c r="D260" s="191"/>
+      <c r="E260" s="191"/>
+      <c r="F260" s="191"/>
+      <c r="G260" s="191"/>
+    </row>
+    <row r="261" spans="1:8" customFormat="1">
+      <c r="B261" s="197"/>
+      <c r="C261" s="197"/>
+      <c r="D261" s="197"/>
+      <c r="E261" s="197"/>
+      <c r="F261" s="197"/>
+      <c r="G261" s="197"/>
+    </row>
+    <row r="262" spans="1:8" customFormat="1">
+      <c r="B262" s="219" t="s">
         <v>292</v>
       </c>
-      <c r="C109" s="238" t="s">
-        <v>345</v>
-      </c>
-      <c r="D109" s="187"/>
-      <c r="E109" s="187"/>
-      <c r="F109" s="187"/>
-      <c r="G109" s="187"/>
-    </row>
-    <row r="110" spans="1:7" customFormat="1">
-      <c r="B110" s="187"/>
-      <c r="C110" s="187"/>
-      <c r="D110" s="187"/>
-      <c r="E110" s="187"/>
-      <c r="F110" s="187"/>
-      <c r="G110" s="187"/>
-    </row>
-    <row r="111" spans="1:7" customFormat="1">
-      <c r="B111" s="239" t="s">
+      <c r="C262" s="219" t="s">
+        <v>385</v>
+      </c>
+      <c r="D262" s="186"/>
+      <c r="E262" s="186"/>
+      <c r="F262" s="186"/>
+      <c r="G262" s="186"/>
+    </row>
+    <row r="263" spans="1:8" customFormat="1">
+      <c r="B263" s="188"/>
+      <c r="C263" s="188"/>
+      <c r="D263" s="188"/>
+      <c r="E263" s="188"/>
+      <c r="F263" s="188"/>
+      <c r="G263" s="188"/>
+    </row>
+    <row r="264" spans="1:8" customFormat="1">
+      <c r="B264" s="215" t="s">
         <v>293</v>
       </c>
-      <c r="C111" s="239" t="s">
+      <c r="C264" s="215" t="s">
         <v>346</v>
       </c>
-      <c r="D111" s="188"/>
-      <c r="E111" s="188"/>
-      <c r="F111" s="188"/>
-      <c r="G111" s="188"/>
-    </row>
+      <c r="D264" s="216" t="s">
+        <v>391</v>
+      </c>
+      <c r="E264" s="216"/>
+      <c r="F264" s="216"/>
+      <c r="G264" s="216"/>
+    </row>
+    <row r="265" spans="1:8" customFormat="1">
+      <c r="B265" s="191"/>
+      <c r="C265" s="212"/>
+      <c r="D265" s="191" t="s">
+        <v>352</v>
+      </c>
+      <c r="E265" s="213"/>
+      <c r="F265" s="191"/>
+      <c r="G265" s="214"/>
+    </row>
+    <row r="266" spans="1:8" customFormat="1">
+      <c r="B266" s="187"/>
+      <c r="C266" s="210"/>
+      <c r="D266" s="187" t="s">
+        <v>353</v>
+      </c>
+      <c r="E266" s="211"/>
+      <c r="F266" s="187"/>
+      <c r="G266" s="201"/>
+    </row>
+    <row r="267" spans="1:8" customFormat="1">
+      <c r="B267" s="187"/>
+      <c r="C267" s="210"/>
+      <c r="D267" s="187" t="s">
+        <v>354</v>
+      </c>
+      <c r="E267" s="211"/>
+      <c r="F267" s="187"/>
+      <c r="G267" s="201"/>
+    </row>
+    <row r="268" spans="1:8" customFormat="1">
+      <c r="B268" s="202"/>
+      <c r="C268" s="204"/>
+      <c r="D268" s="200" t="s">
+        <v>386</v>
+      </c>
+      <c r="E268" s="205"/>
+      <c r="F268" s="202"/>
+      <c r="G268" s="206"/>
+    </row>
+    <row r="269" spans="1:8" customFormat="1">
+      <c r="B269" s="187"/>
+      <c r="C269" s="210"/>
+      <c r="D269" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E269" s="211"/>
+      <c r="F269" s="187"/>
+      <c r="G269" s="201"/>
+    </row>
+    <row r="270" spans="1:8" customFormat="1">
+      <c r="B270" s="187"/>
+      <c r="C270" s="210"/>
+      <c r="D270" s="187" t="s">
+        <v>353</v>
+      </c>
+      <c r="E270" s="211"/>
+      <c r="F270" s="187"/>
+      <c r="G270" s="201"/>
+    </row>
+    <row r="271" spans="1:8" customFormat="1">
+      <c r="B271" s="187"/>
+      <c r="C271" s="210"/>
+      <c r="D271" s="187" t="s">
+        <v>354</v>
+      </c>
+      <c r="E271" s="211"/>
+      <c r="F271" s="187"/>
+      <c r="G271" s="201"/>
+    </row>
+    <row r="272" spans="1:8" customFormat="1">
+      <c r="B272" s="202"/>
+      <c r="C272" s="204"/>
+      <c r="D272" s="200" t="s">
+        <v>392</v>
+      </c>
+      <c r="E272" s="205"/>
+      <c r="F272" s="202"/>
+      <c r="G272" s="206"/>
+    </row>
+    <row r="273" spans="1:8" customFormat="1">
+      <c r="B273" s="187"/>
+      <c r="C273" s="210"/>
+      <c r="D273" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="E273" s="211"/>
+      <c r="F273" s="187"/>
+      <c r="G273" s="201"/>
+    </row>
+    <row r="274" spans="1:8" customFormat="1">
+      <c r="B274" s="187"/>
+      <c r="C274" s="210"/>
+      <c r="D274" s="195" t="s">
+        <v>356</v>
+      </c>
+      <c r="E274" s="211"/>
+      <c r="F274" s="187"/>
+      <c r="G274" s="201"/>
+    </row>
+    <row r="275" spans="1:8" customFormat="1">
+      <c r="B275" s="203"/>
+      <c r="C275" s="207"/>
+      <c r="D275" s="203"/>
+      <c r="E275" s="208"/>
+      <c r="F275" s="203"/>
+      <c r="G275" s="209"/>
+    </row>
+    <row r="276" spans="1:8" customFormat="1"/>
+    <row r="277" spans="1:8" customFormat="1"/>
+    <row r="278" spans="1:8" customFormat="1"/>
+    <row r="279" spans="1:8" customFormat="1"/>
+    <row r="280" spans="1:8" customFormat="1"/>
+    <row r="281" spans="1:8" customFormat="1"/>
+    <row r="282" spans="1:8" customFormat="1"/>
+    <row r="283" spans="1:8" customFormat="1"/>
+    <row r="284" spans="1:8" customFormat="1"/>
+    <row r="285" spans="1:8" customFormat="1"/>
+    <row r="286" spans="1:8" customFormat="1"/>
+    <row r="287" spans="1:8" customFormat="1"/>
+    <row r="288" spans="1:8" customFormat="1"/>
+    <row r="289" spans="1:8" customFormat="1"/>
+    <row r="290" spans="1:8" customFormat="1"/>
+    <row r="291" spans="1:8" customFormat="1"/>
+    <row r="292" spans="1:8" customFormat="1"/>
+    <row r="293" spans="1:8" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="37"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9258,7 +11770,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -9541,7 +12053,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="33" spans="3:4">
+    <row r="33" spans="3:5">
       <c r="C33" s="187" t="s">
         <v>271</v>
       </c>
@@ -9549,7 +12061,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="3:4">
+    <row r="34" spans="3:5">
       <c r="C34" s="187" t="s">
         <v>272</v>
       </c>
@@ -9557,7 +12069,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
+    <row r="35" spans="3:5">
       <c r="C35" s="187" t="s">
         <v>273</v>
       </c>
@@ -9565,7 +12077,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
+    <row r="36" spans="3:5">
       <c r="C36" s="187" t="s">
         <v>274</v>
       </c>
@@ -9573,7 +12085,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="3:5">
       <c r="C37" s="187" t="s">
         <v>275</v>
       </c>
@@ -9581,7 +12093,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="3:4">
+    <row r="38" spans="3:5">
       <c r="C38" s="187" t="s">
         <v>276</v>
       </c>
@@ -9589,7 +12101,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="39" spans="3:4">
+    <row r="39" spans="3:5">
       <c r="C39" s="187" t="s">
         <v>277</v>
       </c>
@@ -9597,7 +12109,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="3:4">
+    <row r="40" spans="3:5">
       <c r="C40" s="187" t="s">
         <v>278</v>
       </c>
@@ -9605,7 +12117,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="41" spans="3:4">
+    <row r="41" spans="3:5">
       <c r="C41" s="187" t="s">
         <v>279</v>
       </c>
@@ -9613,7 +12125,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="42" spans="3:4">
+    <row r="42" spans="3:5">
       <c r="C42" s="187" t="s">
         <v>280</v>
       </c>
@@ -9621,7 +12133,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="43" spans="3:4">
+    <row r="43" spans="3:5">
       <c r="C43" s="187" t="s">
         <v>281</v>
       </c>
@@ -9629,15 +12141,18 @@
         <v>335</v>
       </c>
     </row>
-    <row r="44" spans="3:4">
+    <row r="44" spans="3:5">
       <c r="C44" s="187" t="s">
         <v>282</v>
       </c>
       <c r="D44" s="187" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="45" spans="3:4">
+      <c r="E44" s="168" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
       <c r="C45" s="187" t="s">
         <v>283</v>
       </c>
@@ -9645,7 +12160,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="46" spans="3:4">
+    <row r="46" spans="3:5">
       <c r="C46" s="187" t="s">
         <v>284</v>
       </c>
@@ -9653,7 +12168,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="47" spans="3:4">
+    <row r="47" spans="3:5">
       <c r="C47" s="187" t="s">
         <v>285</v>
       </c>
@@ -9661,7 +12176,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="3:4">
+    <row r="48" spans="3:5">
       <c r="C48" s="187" t="s">
         <v>286</v>
       </c>
@@ -9896,7 +12411,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -9954,12 +12469,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="19.5">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="245" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
     </row>
     <row r="2" spans="1:60" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="28"/>
@@ -9985,96 +12500,96 @@
     </row>
     <row r="3" spans="1:60" s="22" customFormat="1" ht="12">
       <c r="A3" s="154"/>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="216" t="s">
+      <c r="C3" s="246" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="219" t="s">
+      <c r="D3" s="249" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="222" t="s">
+      <c r="E3" s="252" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="157"/>
       <c r="G3" s="158"/>
       <c r="H3" s="159"/>
-      <c r="I3" s="212" t="s">
+      <c r="I3" s="242" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="235" t="s">
+      <c r="J3" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="226"/>
-      <c r="L3" s="226"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="226"/>
-      <c r="O3" s="226"/>
-      <c r="P3" s="226"/>
-      <c r="Q3" s="226"/>
-      <c r="R3" s="226"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="225" t="s">
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="256"/>
+      <c r="O3" s="256"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="256"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="226"/>
-      <c r="V3" s="226"/>
-      <c r="W3" s="226"/>
-      <c r="X3" s="226"/>
-      <c r="Y3" s="226"/>
-      <c r="Z3" s="226"/>
-      <c r="AA3" s="226"/>
-      <c r="AB3" s="226"/>
-      <c r="AC3" s="227"/>
-      <c r="AD3" s="225" t="s">
+      <c r="U3" s="256"/>
+      <c r="V3" s="256"/>
+      <c r="W3" s="256"/>
+      <c r="X3" s="256"/>
+      <c r="Y3" s="256"/>
+      <c r="Z3" s="256"/>
+      <c r="AA3" s="256"/>
+      <c r="AB3" s="256"/>
+      <c r="AC3" s="257"/>
+      <c r="AD3" s="255" t="s">
         <v>6</v>
       </c>
-      <c r="AE3" s="226"/>
-      <c r="AF3" s="226"/>
-      <c r="AG3" s="226"/>
-      <c r="AH3" s="226"/>
-      <c r="AI3" s="226"/>
-      <c r="AJ3" s="226"/>
-      <c r="AK3" s="226"/>
-      <c r="AL3" s="226"/>
-      <c r="AM3" s="227"/>
-      <c r="AN3" s="225" t="s">
+      <c r="AE3" s="256"/>
+      <c r="AF3" s="256"/>
+      <c r="AG3" s="256"/>
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="256"/>
+      <c r="AJ3" s="256"/>
+      <c r="AK3" s="256"/>
+      <c r="AL3" s="256"/>
+      <c r="AM3" s="257"/>
+      <c r="AN3" s="255" t="s">
         <v>7</v>
       </c>
-      <c r="AO3" s="226"/>
-      <c r="AP3" s="226"/>
-      <c r="AQ3" s="226"/>
-      <c r="AR3" s="226"/>
-      <c r="AS3" s="226"/>
-      <c r="AT3" s="226"/>
-      <c r="AU3" s="226"/>
-      <c r="AV3" s="226"/>
-      <c r="AW3" s="227"/>
-      <c r="AX3" s="225" t="s">
+      <c r="AO3" s="256"/>
+      <c r="AP3" s="256"/>
+      <c r="AQ3" s="256"/>
+      <c r="AR3" s="256"/>
+      <c r="AS3" s="256"/>
+      <c r="AT3" s="256"/>
+      <c r="AU3" s="256"/>
+      <c r="AV3" s="256"/>
+      <c r="AW3" s="257"/>
+      <c r="AX3" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="226"/>
-      <c r="AZ3" s="226"/>
-      <c r="BA3" s="226"/>
-      <c r="BB3" s="226"/>
-      <c r="BC3" s="226"/>
-      <c r="BD3" s="226"/>
-      <c r="BE3" s="226"/>
-      <c r="BF3" s="226"/>
-      <c r="BG3" s="227"/>
+      <c r="AY3" s="256"/>
+      <c r="AZ3" s="256"/>
+      <c r="BA3" s="256"/>
+      <c r="BB3" s="256"/>
+      <c r="BC3" s="256"/>
+      <c r="BD3" s="256"/>
+      <c r="BE3" s="256"/>
+      <c r="BF3" s="256"/>
+      <c r="BG3" s="257"/>
     </row>
     <row r="4" spans="1:60" s="22" customFormat="1" ht="12">
       <c r="A4" s="155"/>
-      <c r="B4" s="217"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="223"/>
+      <c r="B4" s="247"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="253"/>
       <c r="F4" s="160"/>
       <c r="G4" s="161"/>
       <c r="H4" s="162"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="228" t="s">
+      <c r="I4" s="243"/>
+      <c r="J4" s="258" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="37" t="s">
@@ -10084,18 +12599,18 @@
         <f>COUNTIF(J7:J324,"1")/$C$2*100</f>
         <v>0</v>
       </c>
-      <c r="M4" s="217" t="s">
+      <c r="M4" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="217"/>
-      <c r="O4" s="230" t="s">
+      <c r="N4" s="247"/>
+      <c r="O4" s="260" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="231"/>
-      <c r="Q4" s="231"/>
-      <c r="R4" s="231"/>
-      <c r="S4" s="232"/>
-      <c r="T4" s="233" t="s">
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="262"/>
+      <c r="T4" s="263" t="s">
         <v>9</v>
       </c>
       <c r="U4" s="37" t="s">
@@ -10105,143 +12620,143 @@
         <f>COUNTIF(T7:T324,"1")/$C$2*100</f>
         <v>0</v>
       </c>
-      <c r="W4" s="217" t="s">
+      <c r="W4" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="217"/>
-      <c r="Y4" s="230"/>
-      <c r="Z4" s="231"/>
+      <c r="X4" s="247"/>
+      <c r="Y4" s="260"/>
+      <c r="Z4" s="261"/>
       <c r="AA4" s="27"/>
       <c r="AB4" s="27"/>
       <c r="AC4" s="26"/>
-      <c r="AD4" s="233" t="s">
+      <c r="AD4" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="217" t="s">
+      <c r="AE4" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="AF4" s="217"/>
-      <c r="AG4" s="236" t="s">
+      <c r="AF4" s="247"/>
+      <c r="AG4" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="AH4" s="236"/>
-      <c r="AI4" s="236"/>
-      <c r="AJ4" s="236"/>
-      <c r="AK4" s="236"/>
-      <c r="AL4" s="236"/>
-      <c r="AM4" s="237"/>
-      <c r="AN4" s="233" t="s">
+      <c r="AH4" s="266"/>
+      <c r="AI4" s="266"/>
+      <c r="AJ4" s="266"/>
+      <c r="AK4" s="266"/>
+      <c r="AL4" s="266"/>
+      <c r="AM4" s="267"/>
+      <c r="AN4" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="217" t="s">
+      <c r="AO4" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="AP4" s="217"/>
-      <c r="AQ4" s="236"/>
-      <c r="AR4" s="236"/>
-      <c r="AS4" s="236"/>
-      <c r="AT4" s="236"/>
-      <c r="AU4" s="236"/>
-      <c r="AV4" s="236"/>
-      <c r="AW4" s="237"/>
-      <c r="AX4" s="233" t="s">
+      <c r="AP4" s="247"/>
+      <c r="AQ4" s="266"/>
+      <c r="AR4" s="266"/>
+      <c r="AS4" s="266"/>
+      <c r="AT4" s="266"/>
+      <c r="AU4" s="266"/>
+      <c r="AV4" s="266"/>
+      <c r="AW4" s="267"/>
+      <c r="AX4" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="AY4" s="217" t="s">
+      <c r="AY4" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="AZ4" s="217"/>
-      <c r="BA4" s="236"/>
-      <c r="BB4" s="236"/>
-      <c r="BC4" s="236"/>
-      <c r="BD4" s="236"/>
-      <c r="BE4" s="236"/>
-      <c r="BF4" s="236"/>
-      <c r="BG4" s="237"/>
+      <c r="AZ4" s="247"/>
+      <c r="BA4" s="266"/>
+      <c r="BB4" s="266"/>
+      <c r="BC4" s="266"/>
+      <c r="BD4" s="266"/>
+      <c r="BE4" s="266"/>
+      <c r="BF4" s="266"/>
+      <c r="BG4" s="267"/>
     </row>
     <row r="5" spans="1:60" s="22" customFormat="1" ht="12">
       <c r="A5" s="155"/>
-      <c r="B5" s="217"/>
-      <c r="C5" s="217"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="223"/>
+      <c r="B5" s="247"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="250"/>
+      <c r="E5" s="253"/>
       <c r="F5" s="160"/>
       <c r="G5" s="161"/>
       <c r="H5" s="162"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="217" t="s">
+      <c r="I5" s="243"/>
+      <c r="J5" s="258"/>
+      <c r="K5" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="217"/>
-      <c r="M5" s="230" t="s">
+      <c r="L5" s="247"/>
+      <c r="M5" s="260" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="231"/>
-      <c r="O5" s="231"/>
-      <c r="P5" s="231"/>
-      <c r="Q5" s="231"/>
-      <c r="R5" s="231"/>
-      <c r="S5" s="232"/>
-      <c r="T5" s="233"/>
-      <c r="U5" s="217" t="s">
+      <c r="N5" s="261"/>
+      <c r="O5" s="261"/>
+      <c r="P5" s="261"/>
+      <c r="Q5" s="261"/>
+      <c r="R5" s="261"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="263"/>
+      <c r="U5" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="V5" s="217"/>
-      <c r="W5" s="230"/>
-      <c r="X5" s="231"/>
-      <c r="Y5" s="231"/>
-      <c r="Z5" s="231"/>
-      <c r="AA5" s="231"/>
-      <c r="AB5" s="231"/>
-      <c r="AC5" s="232"/>
-      <c r="AD5" s="233"/>
-      <c r="AE5" s="217" t="s">
+      <c r="V5" s="247"/>
+      <c r="W5" s="260"/>
+      <c r="X5" s="261"/>
+      <c r="Y5" s="261"/>
+      <c r="Z5" s="261"/>
+      <c r="AA5" s="261"/>
+      <c r="AB5" s="261"/>
+      <c r="AC5" s="262"/>
+      <c r="AD5" s="263"/>
+      <c r="AE5" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="AF5" s="217"/>
-      <c r="AG5" s="230" t="s">
+      <c r="AF5" s="247"/>
+      <c r="AG5" s="260" t="s">
         <v>13</v>
       </c>
-      <c r="AH5" s="231"/>
-      <c r="AI5" s="231"/>
-      <c r="AJ5" s="231"/>
-      <c r="AK5" s="231"/>
-      <c r="AL5" s="231"/>
-      <c r="AM5" s="232"/>
-      <c r="AN5" s="233"/>
-      <c r="AO5" s="217" t="s">
+      <c r="AH5" s="261"/>
+      <c r="AI5" s="261"/>
+      <c r="AJ5" s="261"/>
+      <c r="AK5" s="261"/>
+      <c r="AL5" s="261"/>
+      <c r="AM5" s="262"/>
+      <c r="AN5" s="263"/>
+      <c r="AO5" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="AP5" s="217"/>
-      <c r="AQ5" s="236"/>
-      <c r="AR5" s="236"/>
-      <c r="AS5" s="236"/>
-      <c r="AT5" s="236"/>
-      <c r="AU5" s="236"/>
-      <c r="AV5" s="236"/>
-      <c r="AW5" s="237"/>
-      <c r="AX5" s="233"/>
-      <c r="AY5" s="217" t="s">
+      <c r="AP5" s="247"/>
+      <c r="AQ5" s="266"/>
+      <c r="AR5" s="266"/>
+      <c r="AS5" s="266"/>
+      <c r="AT5" s="266"/>
+      <c r="AU5" s="266"/>
+      <c r="AV5" s="266"/>
+      <c r="AW5" s="267"/>
+      <c r="AX5" s="263"/>
+      <c r="AY5" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="AZ5" s="217"/>
-      <c r="BA5" s="236"/>
-      <c r="BB5" s="236"/>
-      <c r="BC5" s="236"/>
-      <c r="BD5" s="236"/>
-      <c r="BE5" s="236"/>
-      <c r="BF5" s="236"/>
-      <c r="BG5" s="237"/>
+      <c r="AZ5" s="247"/>
+      <c r="BA5" s="266"/>
+      <c r="BB5" s="266"/>
+      <c r="BC5" s="266"/>
+      <c r="BD5" s="266"/>
+      <c r="BE5" s="266"/>
+      <c r="BF5" s="266"/>
+      <c r="BG5" s="267"/>
     </row>
     <row r="6" spans="1:60" s="22" customFormat="1" ht="24.75" thickBot="1">
       <c r="A6" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="218"/>
-      <c r="C6" s="218"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="224"/>
+      <c r="B6" s="248"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="251"/>
+      <c r="E6" s="254"/>
       <c r="F6" s="173" t="s">
         <v>188</v>
       </c>
@@ -10251,8 +12766,8 @@
       <c r="H6" s="163" t="s">
         <v>191</v>
       </c>
-      <c r="I6" s="214"/>
-      <c r="J6" s="229"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="259"/>
       <c r="K6" s="36" t="s">
         <v>14</v>
       </c>
@@ -10280,7 +12795,7 @@
       <c r="S6" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="T6" s="234"/>
+      <c r="T6" s="264"/>
       <c r="U6" s="36" t="s">
         <v>14</v>
       </c>
@@ -10308,7 +12823,7 @@
       <c r="AC6" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="234"/>
+      <c r="AD6" s="264"/>
       <c r="AE6" s="36" t="s">
         <v>14</v>
       </c>
@@ -10336,7 +12851,7 @@
       <c r="AM6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AN6" s="234"/>
+      <c r="AN6" s="264"/>
       <c r="AO6" s="36" t="s">
         <v>14</v>
       </c>
@@ -10364,7 +12879,7 @@
       <c r="AW6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AX6" s="234"/>
+      <c r="AX6" s="264"/>
       <c r="AY6" s="36" t="s">
         <v>14</v>
       </c>
@@ -32928,12 +35443,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="19.5">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="245" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
     </row>
     <row r="2" spans="1:59" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="28"/>
@@ -32959,96 +35474,96 @@
     </row>
     <row r="3" spans="1:59" s="22" customFormat="1" ht="12">
       <c r="A3" s="154"/>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="216" t="s">
+      <c r="C3" s="246" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="219" t="s">
+      <c r="D3" s="249" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="222" t="s">
+      <c r="E3" s="252" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="157"/>
       <c r="G3" s="158"/>
       <c r="H3" s="159"/>
-      <c r="I3" s="212" t="s">
+      <c r="I3" s="242" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="235" t="s">
+      <c r="J3" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="226"/>
-      <c r="L3" s="226"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="226"/>
-      <c r="O3" s="226"/>
-      <c r="P3" s="226"/>
-      <c r="Q3" s="226"/>
-      <c r="R3" s="226"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="225" t="s">
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="256"/>
+      <c r="O3" s="256"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="256"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="226"/>
-      <c r="V3" s="226"/>
-      <c r="W3" s="226"/>
-      <c r="X3" s="226"/>
-      <c r="Y3" s="226"/>
-      <c r="Z3" s="226"/>
-      <c r="AA3" s="226"/>
-      <c r="AB3" s="226"/>
-      <c r="AC3" s="227"/>
-      <c r="AD3" s="225" t="s">
+      <c r="U3" s="256"/>
+      <c r="V3" s="256"/>
+      <c r="W3" s="256"/>
+      <c r="X3" s="256"/>
+      <c r="Y3" s="256"/>
+      <c r="Z3" s="256"/>
+      <c r="AA3" s="256"/>
+      <c r="AB3" s="256"/>
+      <c r="AC3" s="257"/>
+      <c r="AD3" s="255" t="s">
         <v>6</v>
       </c>
-      <c r="AE3" s="226"/>
-      <c r="AF3" s="226"/>
-      <c r="AG3" s="226"/>
-      <c r="AH3" s="226"/>
-      <c r="AI3" s="226"/>
-      <c r="AJ3" s="226"/>
-      <c r="AK3" s="226"/>
-      <c r="AL3" s="226"/>
-      <c r="AM3" s="227"/>
-      <c r="AN3" s="225" t="s">
+      <c r="AE3" s="256"/>
+      <c r="AF3" s="256"/>
+      <c r="AG3" s="256"/>
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="256"/>
+      <c r="AJ3" s="256"/>
+      <c r="AK3" s="256"/>
+      <c r="AL3" s="256"/>
+      <c r="AM3" s="257"/>
+      <c r="AN3" s="255" t="s">
         <v>7</v>
       </c>
-      <c r="AO3" s="226"/>
-      <c r="AP3" s="226"/>
-      <c r="AQ3" s="226"/>
-      <c r="AR3" s="226"/>
-      <c r="AS3" s="226"/>
-      <c r="AT3" s="226"/>
-      <c r="AU3" s="226"/>
-      <c r="AV3" s="226"/>
-      <c r="AW3" s="227"/>
-      <c r="AX3" s="225" t="s">
+      <c r="AO3" s="256"/>
+      <c r="AP3" s="256"/>
+      <c r="AQ3" s="256"/>
+      <c r="AR3" s="256"/>
+      <c r="AS3" s="256"/>
+      <c r="AT3" s="256"/>
+      <c r="AU3" s="256"/>
+      <c r="AV3" s="256"/>
+      <c r="AW3" s="257"/>
+      <c r="AX3" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="226"/>
-      <c r="AZ3" s="226"/>
-      <c r="BA3" s="226"/>
-      <c r="BB3" s="226"/>
-      <c r="BC3" s="226"/>
-      <c r="BD3" s="226"/>
-      <c r="BE3" s="226"/>
-      <c r="BF3" s="226"/>
-      <c r="BG3" s="227"/>
+      <c r="AY3" s="256"/>
+      <c r="AZ3" s="256"/>
+      <c r="BA3" s="256"/>
+      <c r="BB3" s="256"/>
+      <c r="BC3" s="256"/>
+      <c r="BD3" s="256"/>
+      <c r="BE3" s="256"/>
+      <c r="BF3" s="256"/>
+      <c r="BG3" s="257"/>
     </row>
     <row r="4" spans="1:59" s="22" customFormat="1" ht="12">
       <c r="A4" s="155"/>
-      <c r="B4" s="217"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="223"/>
+      <c r="B4" s="247"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="253"/>
       <c r="F4" s="160"/>
       <c r="G4" s="161"/>
       <c r="H4" s="162"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="228" t="s">
+      <c r="I4" s="243"/>
+      <c r="J4" s="258" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="37" t="s">
@@ -33058,18 +35573,18 @@
         <f>COUNTIF(J7:J297,"1")/$C$2*100</f>
         <v>0</v>
       </c>
-      <c r="M4" s="217" t="s">
+      <c r="M4" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="217"/>
-      <c r="O4" s="230" t="s">
+      <c r="N4" s="247"/>
+      <c r="O4" s="260" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="231"/>
-      <c r="Q4" s="231"/>
-      <c r="R4" s="231"/>
-      <c r="S4" s="232"/>
-      <c r="T4" s="233" t="s">
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="262"/>
+      <c r="T4" s="263" t="s">
         <v>9</v>
       </c>
       <c r="U4" s="37" t="s">
@@ -33079,143 +35594,143 @@
         <f>COUNTIF(T7:T297,"1")/$C$2*100</f>
         <v>0</v>
       </c>
-      <c r="W4" s="217" t="s">
+      <c r="W4" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="217"/>
-      <c r="Y4" s="230"/>
-      <c r="Z4" s="231"/>
+      <c r="X4" s="247"/>
+      <c r="Y4" s="260"/>
+      <c r="Z4" s="261"/>
       <c r="AA4" s="27"/>
       <c r="AB4" s="27"/>
       <c r="AC4" s="26"/>
-      <c r="AD4" s="233" t="s">
+      <c r="AD4" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="217" t="s">
+      <c r="AE4" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="AF4" s="217"/>
-      <c r="AG4" s="236" t="s">
+      <c r="AF4" s="247"/>
+      <c r="AG4" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="AH4" s="236"/>
-      <c r="AI4" s="236"/>
-      <c r="AJ4" s="236"/>
-      <c r="AK4" s="236"/>
-      <c r="AL4" s="236"/>
-      <c r="AM4" s="237"/>
-      <c r="AN4" s="233" t="s">
+      <c r="AH4" s="266"/>
+      <c r="AI4" s="266"/>
+      <c r="AJ4" s="266"/>
+      <c r="AK4" s="266"/>
+      <c r="AL4" s="266"/>
+      <c r="AM4" s="267"/>
+      <c r="AN4" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="217" t="s">
+      <c r="AO4" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="AP4" s="217"/>
-      <c r="AQ4" s="236"/>
-      <c r="AR4" s="236"/>
-      <c r="AS4" s="236"/>
-      <c r="AT4" s="236"/>
-      <c r="AU4" s="236"/>
-      <c r="AV4" s="236"/>
-      <c r="AW4" s="237"/>
-      <c r="AX4" s="233" t="s">
+      <c r="AP4" s="247"/>
+      <c r="AQ4" s="266"/>
+      <c r="AR4" s="266"/>
+      <c r="AS4" s="266"/>
+      <c r="AT4" s="266"/>
+      <c r="AU4" s="266"/>
+      <c r="AV4" s="266"/>
+      <c r="AW4" s="267"/>
+      <c r="AX4" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="AY4" s="217" t="s">
+      <c r="AY4" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="AZ4" s="217"/>
-      <c r="BA4" s="236"/>
-      <c r="BB4" s="236"/>
-      <c r="BC4" s="236"/>
-      <c r="BD4" s="236"/>
-      <c r="BE4" s="236"/>
-      <c r="BF4" s="236"/>
-      <c r="BG4" s="237"/>
+      <c r="AZ4" s="247"/>
+      <c r="BA4" s="266"/>
+      <c r="BB4" s="266"/>
+      <c r="BC4" s="266"/>
+      <c r="BD4" s="266"/>
+      <c r="BE4" s="266"/>
+      <c r="BF4" s="266"/>
+      <c r="BG4" s="267"/>
     </row>
     <row r="5" spans="1:59" s="22" customFormat="1" ht="12">
       <c r="A5" s="155"/>
-      <c r="B5" s="217"/>
-      <c r="C5" s="217"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="223"/>
+      <c r="B5" s="247"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="250"/>
+      <c r="E5" s="253"/>
       <c r="F5" s="160"/>
       <c r="G5" s="161"/>
       <c r="H5" s="162"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="217" t="s">
+      <c r="I5" s="243"/>
+      <c r="J5" s="258"/>
+      <c r="K5" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="217"/>
-      <c r="M5" s="230" t="s">
+      <c r="L5" s="247"/>
+      <c r="M5" s="260" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="231"/>
-      <c r="O5" s="231"/>
-      <c r="P5" s="231"/>
-      <c r="Q5" s="231"/>
-      <c r="R5" s="231"/>
-      <c r="S5" s="232"/>
-      <c r="T5" s="233"/>
-      <c r="U5" s="217" t="s">
+      <c r="N5" s="261"/>
+      <c r="O5" s="261"/>
+      <c r="P5" s="261"/>
+      <c r="Q5" s="261"/>
+      <c r="R5" s="261"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="263"/>
+      <c r="U5" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="V5" s="217"/>
-      <c r="W5" s="230"/>
-      <c r="X5" s="231"/>
-      <c r="Y5" s="231"/>
-      <c r="Z5" s="231"/>
-      <c r="AA5" s="231"/>
-      <c r="AB5" s="231"/>
-      <c r="AC5" s="232"/>
-      <c r="AD5" s="233"/>
-      <c r="AE5" s="217" t="s">
+      <c r="V5" s="247"/>
+      <c r="W5" s="260"/>
+      <c r="X5" s="261"/>
+      <c r="Y5" s="261"/>
+      <c r="Z5" s="261"/>
+      <c r="AA5" s="261"/>
+      <c r="AB5" s="261"/>
+      <c r="AC5" s="262"/>
+      <c r="AD5" s="263"/>
+      <c r="AE5" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="AF5" s="217"/>
-      <c r="AG5" s="230" t="s">
+      <c r="AF5" s="247"/>
+      <c r="AG5" s="260" t="s">
         <v>13</v>
       </c>
-      <c r="AH5" s="231"/>
-      <c r="AI5" s="231"/>
-      <c r="AJ5" s="231"/>
-      <c r="AK5" s="231"/>
-      <c r="AL5" s="231"/>
-      <c r="AM5" s="232"/>
-      <c r="AN5" s="233"/>
-      <c r="AO5" s="217" t="s">
+      <c r="AH5" s="261"/>
+      <c r="AI5" s="261"/>
+      <c r="AJ5" s="261"/>
+      <c r="AK5" s="261"/>
+      <c r="AL5" s="261"/>
+      <c r="AM5" s="262"/>
+      <c r="AN5" s="263"/>
+      <c r="AO5" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="AP5" s="217"/>
-      <c r="AQ5" s="236"/>
-      <c r="AR5" s="236"/>
-      <c r="AS5" s="236"/>
-      <c r="AT5" s="236"/>
-      <c r="AU5" s="236"/>
-      <c r="AV5" s="236"/>
-      <c r="AW5" s="237"/>
-      <c r="AX5" s="233"/>
-      <c r="AY5" s="217" t="s">
+      <c r="AP5" s="247"/>
+      <c r="AQ5" s="266"/>
+      <c r="AR5" s="266"/>
+      <c r="AS5" s="266"/>
+      <c r="AT5" s="266"/>
+      <c r="AU5" s="266"/>
+      <c r="AV5" s="266"/>
+      <c r="AW5" s="267"/>
+      <c r="AX5" s="263"/>
+      <c r="AY5" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="AZ5" s="217"/>
-      <c r="BA5" s="236"/>
-      <c r="BB5" s="236"/>
-      <c r="BC5" s="236"/>
-      <c r="BD5" s="236"/>
-      <c r="BE5" s="236"/>
-      <c r="BF5" s="236"/>
-      <c r="BG5" s="237"/>
+      <c r="AZ5" s="247"/>
+      <c r="BA5" s="266"/>
+      <c r="BB5" s="266"/>
+      <c r="BC5" s="266"/>
+      <c r="BD5" s="266"/>
+      <c r="BE5" s="266"/>
+      <c r="BF5" s="266"/>
+      <c r="BG5" s="267"/>
     </row>
     <row r="6" spans="1:59" s="22" customFormat="1" ht="24.75" thickBot="1">
       <c r="A6" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="218"/>
-      <c r="C6" s="218"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="224"/>
+      <c r="B6" s="248"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="251"/>
+      <c r="E6" s="254"/>
       <c r="F6" s="83" t="s">
         <v>188</v>
       </c>
@@ -33225,8 +35740,8 @@
       <c r="H6" s="163" t="s">
         <v>191</v>
       </c>
-      <c r="I6" s="214"/>
-      <c r="J6" s="229"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="259"/>
       <c r="K6" s="36" t="s">
         <v>14</v>
       </c>
@@ -33254,7 +35769,7 @@
       <c r="S6" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="T6" s="234"/>
+      <c r="T6" s="264"/>
       <c r="U6" s="36" t="s">
         <v>14</v>
       </c>
@@ -33282,7 +35797,7 @@
       <c r="AC6" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="234"/>
+      <c r="AD6" s="264"/>
       <c r="AE6" s="36" t="s">
         <v>14</v>
       </c>
@@ -33310,7 +35825,7 @@
       <c r="AM6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AN6" s="234"/>
+      <c r="AN6" s="264"/>
       <c r="AO6" s="36" t="s">
         <v>14</v>
       </c>
@@ -33338,7 +35853,7 @@
       <c r="AW6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AX6" s="234"/>
+      <c r="AX6" s="264"/>
       <c r="AY6" s="36" t="s">
         <v>14</v>
       </c>
